--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/Documents/_Learn/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22C98FFB-DB69-491E-A8D2-AB2736AB77F1}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4547548-7B3C-401E-B3B1-A91B335F30B8}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Published event" sheetId="5" r:id="rId1"/>
-    <sheet name="发布事件" sheetId="3" r:id="rId2"/>
+    <sheet name="Encapsulated Events" sheetId="5" r:id="rId1"/>
+    <sheet name="封装事件" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Published event'!$C$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">发布事件!$C$2:$J$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Published event'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">发布事件!$1:$5</definedName>
-    <definedName name="RowTitleRegion1..E2" localSheetId="0">'Published event'!#REF!</definedName>
-    <definedName name="RowTitleRegion1..E2" localSheetId="1">发布事件!#REF!</definedName>
-    <definedName name="RowTitleRegion2..I2" localSheetId="0">'Published event'!#REF!</definedName>
-    <definedName name="RowTitleRegion2..I2" localSheetId="1">发布事件!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encapsulated Events'!$C$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">封装事件!$C$2:$J$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Encapsulated Events'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">封装事件!$1:$5</definedName>
+    <definedName name="RowTitleRegion1..E2" localSheetId="0">'Encapsulated Events'!#REF!</definedName>
+    <definedName name="RowTitleRegion1..E2" localSheetId="1">封装事件!#REF!</definedName>
+    <definedName name="RowTitleRegion2..I2" localSheetId="0">'Encapsulated Events'!#REF!</definedName>
+    <definedName name="RowTitleRegion2..I2" localSheetId="1">封装事件!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -195,12 +195,6 @@
     <t>Sharing restrictions, delete the suffix .pdf after downloading</t>
   </si>
   <si>
-    <t>Yi's Studio: Microsoft Windows operating system published event</t>
-  </si>
-  <si>
-    <t>Yi's Studio: 微软 Windows 操作系统发布事件</t>
-  </si>
-  <si>
     <t>操作系统版本</t>
   </si>
   <si>
@@ -1305,6 +1299,12 @@
   </si>
   <si>
     <t xml:space="preserve">  学习：如何部署操作系统</t>
+  </si>
+  <si>
+    <t>Yi's Studio: 微软 Windows 操作系统封装事件</t>
+  </si>
+  <si>
+    <t>Yi's Studio: Microsoft Windows operating system encapsulated Events</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1316,7 @@
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,6 +1514,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1728,7 +1734,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1905,11 +1911,14 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="19" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1940,33 +1949,7 @@
     <cellStyle name="Total" xfId="4" builtinId="25" customBuiltin="1"/>
     <cellStyle name="z Hidden Text" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2117,17 +2100,17 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Home Inventory" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Home Inventory" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
-      <tableStyleElement type="firstTotalCell" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="lastColumn" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstTotalCell" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Home Inventory Slicer" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2658,7 +2641,7 @@
     <row r="2" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -2672,7 +2655,7 @@
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="C3" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2697,10 +2680,10 @@
     <row r="5" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="14" t="s">
@@ -2710,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>12</v>
@@ -2761,7 +2744,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -2773,13 +2756,13 @@
     <row r="9" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>21</v>
@@ -2788,7 +2771,7 @@
         <v>38</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="15">
         <v>1</v>
@@ -2807,7 +2790,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -2849,7 +2832,7 @@
         <v>38</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="15">
         <v>1</v>
@@ -2861,13 +2844,13 @@
     <row r="14" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>21</v>
@@ -2876,7 +2859,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" s="15">
         <v>1</v>
@@ -2894,7 +2877,7 @@
     <row r="16" spans="1:11" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="15"/>
       <c r="C16" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2935,7 +2918,7 @@
         <v>38</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="15">
         <v>1</v>
@@ -2947,13 +2930,13 @@
     <row r="19" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>21</v>
@@ -2962,7 +2945,7 @@
         <v>38</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I19" s="15">
         <v>1</v>
@@ -2981,7 +2964,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -3008,7 +2991,7 @@
     <row r="23" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="15"/>
       <c r="C23" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3049,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I25" s="15">
         <v>1</v>
@@ -3074,7 +3057,7 @@
         <v>38</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I26" s="15">
         <v>1</v>
@@ -3099,7 +3082,7 @@
         <v>38</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I27" s="15">
         <v>1</v>
@@ -3122,13 +3105,13 @@
     <row r="29" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>21</v>
@@ -3137,7 +3120,7 @@
         <v>38</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I29" s="15">
         <v>1</v>
@@ -3154,7 +3137,7 @@
         <v>23</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>21</v>
@@ -3163,7 +3146,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15">
         <v>1</v>
@@ -3179,7 +3162,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>21</v>
@@ -3188,7 +3171,7 @@
         <v>38</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -3206,7 +3189,7 @@
     <row r="33" spans="2:11" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="15"/>
       <c r="C33" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3247,7 +3230,7 @@
         <v>38</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
@@ -3272,7 +3255,7 @@
         <v>38</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
@@ -3297,7 +3280,7 @@
         <v>38</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
@@ -3320,13 +3303,13 @@
     <row r="39" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>21</v>
@@ -3335,7 +3318,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
@@ -3351,7 +3334,7 @@
         <v>23</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>21</v>
@@ -3360,7 +3343,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -3376,7 +3359,7 @@
         <v>23</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>21</v>
@@ -3385,7 +3368,7 @@
         <v>38</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -3419,10 +3402,10 @@
       <c r="C44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="51" t="s">
@@ -3436,10 +3419,10 @@
       <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="26"/>
+      <c r="D45" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="54"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="26"/>
@@ -3459,7 +3442,7 @@
     <row r="47" spans="2:11" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10"/>
       <c r="C47" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
@@ -3472,7 +3455,7 @@
     <row r="48" spans="2:11" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10"/>
       <c r="C48" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3497,7 +3480,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E50" s="53"/>
       <c r="I50" s="10"/>
@@ -3509,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E51" s="48"/>
       <c r="I51" s="10"/>
@@ -3521,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" s="48"/>
       <c r="I52" s="10"/>
@@ -3770,7 +3753,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="I45:J45"/>
@@ -3780,14 +3763,16 @@
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
-  <conditionalFormatting sqref="C8:J9 C13:J14 C18:J19 C25:J27 C35:J37 C39:J41 C44:J45">
-    <cfRule type="expression" dxfId="4" priority="23">
+  <conditionalFormatting sqref="C8:J9 C13:J14 C18:J19 C25:J27 C35:J37 C39:J41 C44:D45 F44:J45">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:J31">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3810,10 +3795,11 @@
     <hyperlink ref="D45" r:id="rId2" xr:uid="{8F19ACC2-7D7D-4F23-A461-BE431C9774DD}"/>
     <hyperlink ref="D51" r:id="rId3" xr:uid="{80EED0A5-EFD4-42D7-B554-F8CB49E99D29}"/>
     <hyperlink ref="C3" r:id="rId4" display="Learning: How to deploy an operating system" xr:uid="{2A775E0C-99A5-4A5C-A40D-64E8EA8CB591}"/>
+    <hyperlink ref="D44" r:id="rId5" xr:uid="{0ACC2286-43BC-446A-8F21-5F74500FA79E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="1" header="0.3" footer="0.75"/>
-  <pageSetup paperSize="8" scale="53" fitToHeight="0" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="8" scale="53" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;R&amp;"Aptos Narrow,Regular"&amp;10Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3866,7 +3852,7 @@
     <row r="2" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -3880,7 +3866,7 @@
     <row r="3" spans="1:11" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="38"/>
       <c r="C3" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -3905,10 +3891,10 @@
     <row r="5" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="14" t="s">
@@ -3918,7 +3904,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>6</v>
@@ -3971,7 +3957,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -3984,13 +3970,13 @@
     <row r="9" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>21</v>
@@ -3999,7 +3985,7 @@
         <v>38</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="15">
         <v>1</v>
@@ -4018,7 +4004,7 @@
     <row r="11" spans="1:11" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="15"/>
       <c r="C11" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4059,7 +4045,7 @@
         <v>38</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="15">
         <v>1</v>
@@ -4072,13 +4058,13 @@
     <row r="14" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>21</v>
@@ -4087,7 +4073,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="15">
         <v>1</v>
@@ -4106,7 +4092,7 @@
     <row r="16" spans="1:11" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="15"/>
       <c r="C16" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4148,7 +4134,7 @@
         <v>38</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="15">
         <v>1</v>
@@ -4161,13 +4147,13 @@
       <c r="A19" s="10"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>21</v>
@@ -4176,7 +4162,7 @@
         <v>38</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="15">
         <v>1</v>
@@ -4196,7 +4182,7 @@
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -4220,7 +4206,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="15"/>
       <c r="C23" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -4261,7 +4247,7 @@
         <v>38</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I25" s="15">
         <v>1</v>
@@ -4287,7 +4273,7 @@
         <v>38</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I26" s="15">
         <v>1</v>
@@ -4313,7 +4299,7 @@
         <v>38</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I27" s="15">
         <v>1</v>
@@ -4338,13 +4324,13 @@
       <c r="A29" s="10"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>21</v>
@@ -4353,7 +4339,7 @@
         <v>38</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I29" s="15">
         <v>1</v>
@@ -4370,7 +4356,7 @@
         <v>24</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>21</v>
@@ -4379,7 +4365,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I30" s="15">
         <v>1</v>
@@ -4396,7 +4382,7 @@
         <v>24</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>21</v>
@@ -4405,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -4423,7 +4409,7 @@
     <row r="33" spans="1:11" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="15"/>
       <c r="C33" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -4465,7 +4451,7 @@
         <v>38</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
@@ -4491,7 +4477,7 @@
         <v>38</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
@@ -4517,7 +4503,7 @@
         <v>38</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
@@ -4542,13 +4528,13 @@
     <row r="39" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>21</v>
@@ -4557,7 +4543,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
@@ -4574,7 +4560,7 @@
         <v>24</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>21</v>
@@ -4583,7 +4569,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -4600,7 +4586,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>21</v>
@@ -4609,7 +4595,7 @@
         <v>38</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -4646,32 +4632,32 @@
       <c r="C44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="54" t="s">
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
     </row>
     <row r="45" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="13"/>
       <c r="C45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="D45" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="1:11" s="23" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
@@ -4682,7 +4668,7 @@
       <c r="A47" s="10"/>
       <c r="B47" s="7"/>
       <c r="C47" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4696,7 +4682,7 @@
       <c r="A48" s="10"/>
       <c r="B48" s="7"/>
       <c r="C48" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4706,7 +4692,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E50" s="53"/>
       <c r="I50" s="10"/>
@@ -4718,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E51" s="48"/>
       <c r="I51" s="10"/>
@@ -4730,7 +4716,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" s="48"/>
       <c r="I52" s="10"/>
@@ -4782,10 +4768,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D44" r:id="rId1" xr:uid="{208E31E2-2640-4D81-9027-B2F17313BB8B}"/>
-    <hyperlink ref="D45" r:id="rId2" xr:uid="{B32AF812-3BFB-469A-9863-017C86D4F0C1}"/>
-    <hyperlink ref="D51" r:id="rId3" xr:uid="{07644ECA-3698-4AA6-8BAA-0576974F5914}"/>
-    <hyperlink ref="C3" r:id="rId4" display="学习：如何部署操作系统" xr:uid="{C53701FD-8E13-434C-BBC8-35A383E9B75A}"/>
+    <hyperlink ref="D51" r:id="rId1" xr:uid="{07644ECA-3698-4AA6-8BAA-0576974F5914}"/>
+    <hyperlink ref="C3" r:id="rId2" display="学习：如何部署操作系统" xr:uid="{C53701FD-8E13-434C-BBC8-35A383E9B75A}"/>
+    <hyperlink ref="D45:E45" r:id="rId3" display="https://www.123pan.com/s/zitA-9U9l" xr:uid="{E28BD83B-2CEA-4FED-8AD4-DC8EF9A6916E}"/>
+    <hyperlink ref="D44:E44" r:id="rId4" display="https://www.aliyundrive.com/s/YijzdWfm18n" xr:uid="{FAE67BA9-7926-4782-B6B9-ECFF80F48597}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="1" header="0.3" footer="0.75"/>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/Documents/_Learn/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="855" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A650FF36-8F8A-4B38-A108-013DCA1A668C}"/>
+  <xr:revisionPtr revIDLastSave="869" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A49720-FC24-4648-89A8-78CF87488E45}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Deployment engine: </t>
+      <t>部署引擎：</t>
     </r>
     <r>
       <rPr>
@@ -241,6 +241,351 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> | v1.1.1.3</t>
+    </r>
+  </si>
+  <si>
+    <t>包含（ 类别 | 名称 | 版本 ）</t>
+  </si>
+  <si>
+    <t>Includes ( Category | Name | Version )</t>
+  </si>
+  <si>
+    <t>Yi ( https://fengyi.tel )</t>
+  </si>
+  <si>
+    <t>https://fengyi.tel/pgp</t>
+  </si>
+  <si>
+    <t>2025 / 11</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_2l1_17in1_x975fz5q_november_2025.iso
+05AE74D23D6644BA6AB4956BAF467D3A17D4ABB6F5F1A30ED2A6929C89CECA4B</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_With_Office_2024_x64_2l1_17in1_f0b9h4x4_november_2025.iso
+97EFE863F3EF8D1E4E01C96F33840D15B7E4EB401D74FBDC058D353EE942F4FB</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_With_Office_365_x64_2l1_17in1_ureebrm5_november_2025.iso
+A2E7E82924C8DB0E81C4D3D16DC1B351E03ABFE3D8DC353181DEFE2DBB58C67E</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_3l1_17in1_4te4bo8c_november_2025.iso
+439F9F1DFF311D4D009C193A89677C24EBE0FB38F5990CB8940F42F1435F13BF</t>
+  </si>
+  <si>
+    <t>ISO（ 文件名 | SHA256 ）</t>
+  </si>
+  <si>
+    <t>ISO ( File name | SHA256 )</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_5l1_17in1_ihpr4x31_november_2025.iso
+1B26016CE2F361884D356A1B9F093A915B9FADBE361B10420B612EC3F610DA99</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_38l1_2in1_hqane34p_november_2025.iso
+353820D4AA7DD6F63D91576D787F8239D728E2E8600425206F09A945FFD535E9</t>
+  </si>
+  <si>
+    <r>
+      <t>封装事件代号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>25S4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（ 25 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 年、S = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>季度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>第 4 季度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ），此系统由 Yi's Solutions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>v1.0.2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 自动驾驶仪封装，前往学习或自定义封装：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://fengyi.tel/solutions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/ilikeyi/solutions</t>
+    </r>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>Illustrate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Package event code: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>25S4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( 25 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, S = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>quarter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ), this system is packaged by Yi's Solutions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>v1.0.2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> autopilot, go to learn or customize the package: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://fengyi.tel/solutions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/ilikeyi/solutions</t>
+    </r>
+  </si>
+  <si>
+    <t>Learn: Microsoft Windows "Attain" series, optional integration of Office 365/2024 ( https://fengyi.tel/os )</t>
+  </si>
+  <si>
+    <t>了解：Microsoft Windows 臻系列，可选集成 Office 365/2024 ( https://fengyi.tel/os )</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>File name
+SHA-256</t>
+  </si>
+  <si>
+    <t>Arch</t>
+  </si>
+  <si>
+    <t>Learning: How to deploy an operating system ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )</t>
+  </si>
+  <si>
+    <t>学习：如何部署操作系统 ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )</t>
+  </si>
+  <si>
+    <t>Encapsulated Events</t>
+  </si>
+  <si>
+    <t>封 装 事 件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Yi's Studio</t>
+  </si>
+  <si>
+    <t>关于</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deployment engine: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Multilingual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> | v1.1.1.3
 Office software: </t>
     </r>
@@ -259,7 +604,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> | 16.0.17932.20602</t>
+      <t xml:space="preserve"> | 17932.20602</t>
     </r>
   </si>
   <si>
@@ -299,7 +644,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> | 16.0.19328.20232</t>
+      <t xml:space="preserve"> | 19328.20232</t>
     </r>
   </si>
   <si>
@@ -339,7 +684,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> | 16.0.17932.20602</t>
+      <t xml:space="preserve"> | 17932.20602</t>
     </r>
   </si>
   <si>
@@ -379,342 +724,315 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> | 16.0.19328.20232</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>部署引擎：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve"> | 19328.20232</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">臻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Multilingual</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | v1.1.1.3</t>
-    </r>
-  </si>
-  <si>
-    <t>包含（ 类别 | 名称 | 版本 ）</t>
-  </si>
-  <si>
-    <t>Includes ( Category | Name | Version )</t>
-  </si>
-  <si>
-    <t>Yi ( https://fengyi.tel )</t>
-  </si>
-  <si>
-    <t>https://fengyi.tel/pgp</t>
-  </si>
-  <si>
-    <t>2025 / 11</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_2l1_17in1_x975fz5q_november_2025.iso
-05AE74D23D6644BA6AB4956BAF467D3A17D4ABB6F5F1A30ED2A6929C89CECA4B</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_With_Office_2024_x64_2l1_17in1_f0b9h4x4_november_2025.iso
-97EFE863F3EF8D1E4E01C96F33840D15B7E4EB401D74FBDC058D353EE942F4FB</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_With_Office_365_x64_2l1_17in1_ureebrm5_november_2025.iso
-A2E7E82924C8DB0E81C4D3D16DC1B351E03ABFE3D8DC353181DEFE2DBB58C67E</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_3l1_17in1_4te4bo8c_november_2025.iso
-439F9F1DFF311D4D009C193A89677C24EBE0FB38F5990CB8940F42F1435F13BF</t>
-  </si>
-  <si>
-    <t>ISO（ 文件名 | SHA256 ）</t>
-  </si>
-  <si>
-    <t>ISO ( File name | SHA256 )</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_5l1_17in1_ihpr4x31_november_2025.iso
-1B26016CE2F361884D356A1B9F093A915B9FADBE361B10420B612EC3F610DA99</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_38l1_2in1_hqane34p_november_2025.iso
-353820D4AA7DD6F63D91576D787F8239D728E2E8600425206F09A945FFD535E9</t>
-  </si>
-  <si>
-    <r>
-      <t>封装事件代号：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>25S4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（ 25 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 年、S = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>季度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>第 4 季度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ），此系统由 Yi's Solutions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>v1.0.2.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 自动驾驶仪封装，前往学习或自定义封装：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://fengyi.tel/solutions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 语合 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>，多语言：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>United States - English ( en-US )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한민국 - 한국어 ( ko-KR )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>日本 - 日本語 (  ja-JP )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>中国 - 繁体中文 (  zh-TW )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>中国 - 简体中文</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>zh-CN )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">臻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 语合 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>，多语言：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>United States - English ( en-US )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>中国 - 繁体中文 (  zh-TW )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>中国 - 简体中文</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>zh-CN )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">臻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 语合 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
       <t>，</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/ilikeyi/solutions</t>
-    </r>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>Illustrate</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Package event code: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>25S4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ( 25 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, S = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>quarter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ), this system is packaged by Yi's Solutions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>v1.0.2.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> autopilot, go to learn or customize the package: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://fengyi.tel/solutions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/ilikeyi/solutions</t>
-    </r>
-  </si>
-  <si>
-    <t>Learn: Microsoft Windows "Attain" series, optional integration of Office 365/2024 ( https://fengyi.tel/os )</t>
-  </si>
-  <si>
-    <t>了解：Microsoft Windows 臻系列，可选集成 Office 365/2024 ( https://fengyi.tel/os )</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>File name
-SHA-256</t>
-  </si>
-  <si>
-    <t>Arch</t>
-  </si>
-  <si>
-    <t>Learning: How to deploy an operating system ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )</t>
-  </si>
-  <si>
-    <t>学习：如何部署操作系统 ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Branch </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">分支 </t>
     </r>
     <r>
       <rPr>
@@ -724,29 +1042,31 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="14"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, Multilingual: </t>
-    </r>
-    <r>
-      <rPr>
+      <t>，多语言：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>United States - English ( en-US ) | 中国 - 简体中文 ( zh-CN )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Branch </t>
+      <t>United States - English ( en-US ) | 中国 - 繁体中文 (  zh-TW )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">分支 </t>
     </r>
     <r>
       <rPr>
@@ -756,24 +1076,60 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="14"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, Multilingual: </t>
-    </r>
-    <r>
-      <rPr>
+      <t>，多语言：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>United States - English ( en-US ) | 中国 - 繁体中文 (  zh-TW )</t>
+      <t>United States - English ( en-US ) | 中国 - 简体中文 ( zh-CN )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Branch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Multilingual: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>United States - English ( en-US ) | 中国 - 简体中文 ( zh-CN )</t>
     </r>
   </si>
   <si>
@@ -792,6 +1148,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
@@ -801,6 +1158,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
@@ -810,6 +1168,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
@@ -820,6 +1179,40 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Branch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Multilingual: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>United States - English ( en-US ) | 中国 - 繁体中文 (  zh-TW )</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Attained </t>
     </r>
     <r>
@@ -834,6 +1227,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -842,6 +1236,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
@@ -851,6 +1246,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -859,6 +1255,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
@@ -883,6 +1280,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
@@ -892,6 +1290,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
@@ -901,6 +1300,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
@@ -910,6 +1310,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
@@ -917,361 +1318,6 @@
       </rPr>
       <t>United States - English ( en-US ) | 대한민국 - 한국어 ( ko-KR ) | 日本 - 日本語 (  ja-JP ) | 中国 - 繁体中文 (  zh-TW ) | 中国 - 简体中文 ( zh-CN )</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">分支 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>，多语言：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>United States - English ( en-US ) | 中国 - 简体中文 ( zh-CN )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">分支 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>，多语言：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>United States - English ( en-US ) | 中国 - 繁体中文 (  zh-TW )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">臻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 语合 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>，</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">臻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 语合 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>，多语言：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>United States - English ( en-US )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>中国 - 繁体中文 (  zh-TW )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>中国 - 简体中文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>zh-CN )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">臻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 语合 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>，多语言：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>United States - English ( en-US )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>대한민국 - 한국어 ( ko-KR )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>日本 - 日本語 (  ja-JP )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>中国 - 繁体中文 (  zh-TW )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>中国 - 简体中文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>zh-CN )</t>
-    </r>
-  </si>
-  <si>
-    <t>Encapsulated Events</t>
-  </si>
-  <si>
-    <t>封 装 事 件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Yi's Studio</t>
-  </si>
-  <si>
-    <t>关于</t>
-  </si>
-  <si>
-    <t>About</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1329,7 @@
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,23 +1488,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF931E"/>
       <name val="Aptos Narrow"/>
@@ -1497,6 +1526,32 @@
     <font>
       <sz val="36"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -1765,7 +1820,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1853,10 +1908,6 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1877,22 +1928,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
       <protection locked="0"/>
     </xf>
@@ -1908,10 +1948,10 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1951,15 +1991,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1974,7 +2014,7 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
@@ -2024,6 +2064,27 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2996,70 +3057,69 @@
     <col min="7" max="8" width="10.7265625" style="18" customWidth="1"/>
     <col min="9" max="9" width="52.7265625" style="4" customWidth="1"/>
     <col min="10" max="11" width="11.7265625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="0.81640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="2.7265625" style="5" customWidth="1"/>
-    <col min="15" max="61" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0.81640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="2.7265625" style="5" customWidth="1"/>
+    <col min="14" max="60" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="0" style="3" hidden="1"/>
     <col min="62" max="16384" width="9.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="39" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="35" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-    </row>
-    <row r="4" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="67"/>
+        <v>69</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="63"/>
       <c r="G4" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>12</v>
@@ -3068,11 +3128,10 @@
         <v>19</v>
       </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
-      <c r="D5" s="33" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="40"/>
+      <c r="D5" s="78" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="16"/>
@@ -3082,10 +3141,9 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="44"/>
+    </row>
+    <row r="6" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="40"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -3094,15 +3152,14 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="44"/>
-      <c r="D7" s="32" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="40"/>
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -3122,18 +3179,17 @@
       <c r="K7" s="10">
         <v>1</v>
       </c>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="44"/>
-      <c r="D8" s="32" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="40"/>
+      <c r="D8" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>21</v>
@@ -3150,23 +3206,21 @@
       <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="46"/>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="42"/>
       <c r="C9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="46"/>
-      <c r="D10" s="33" t="s">
-        <v>82</v>
+      <c r="B10" s="42"/>
+      <c r="D10" s="78" t="s">
+        <v>92</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -3175,12 +3229,11 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="46"/>
+      <c r="B11" s="42"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -3189,17 +3242,16 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="45"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="41"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>37</v>
@@ -3220,18 +3272,17 @@
         <v>1</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="45"/>
-      <c r="D13" s="32" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="41"/>
+      <c r="D13" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>21</v>
@@ -3248,22 +3299,20 @@
       <c r="K13" s="10">
         <v>1</v>
       </c>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="47"/>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="43"/>
       <c r="C14" s="4"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="47"/>
-      <c r="D15" s="34" t="s">
-        <v>81</v>
+    </row>
+    <row r="15" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="43"/>
+      <c r="D15" s="77" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3272,11 +3321,10 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="43"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -3285,16 +3333,15 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="47"/>
-      <c r="D17" s="32" t="s">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="43"/>
+      <c r="D17" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>35</v>
@@ -3314,18 +3361,17 @@
       <c r="K17" s="10">
         <v>1</v>
       </c>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="47"/>
-      <c r="D18" s="32" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="43"/>
+      <c r="D18" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>21</v>
@@ -3342,23 +3388,21 @@
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="48"/>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="44"/>
       <c r="C19" s="4"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="20" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="48"/>
-      <c r="D20" s="33" t="s">
-        <v>80</v>
+      <c r="B20" s="44"/>
+      <c r="D20" s="78" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -3367,12 +3411,11 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="50"/>
+      <c r="B21" s="46"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -3381,13 +3424,12 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="48"/>
-      <c r="D22" s="35" t="s">
-        <v>79</v>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="44"/>
+      <c r="D22" s="79" t="s">
+        <v>90</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3396,11 +3438,10 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="48"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="44"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -3409,16 +3450,15 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="48"/>
-      <c r="D24" s="32" t="s">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="44"/>
+      <c r="D24" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>29</v>
@@ -3438,13 +3478,12 @@
       <c r="K24" s="10">
         <v>1</v>
       </c>
-      <c r="M24" s="48"/>
-    </row>
-    <row r="25" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="48"/>
+    </row>
+    <row r="25" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="44"/>
       <c r="D25" s="10"/>
       <c r="E25" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>30</v>
@@ -3456,7 +3495,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -3464,13 +3503,12 @@
       <c r="K25" s="10">
         <v>1</v>
       </c>
-      <c r="M25" s="48"/>
-    </row>
-    <row r="26" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="48"/>
+    </row>
+    <row r="26" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="44"/>
       <c r="D26" s="10"/>
       <c r="E26" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>31</v>
@@ -3482,7 +3520,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J26" s="10">
         <v>1</v>
@@ -3490,10 +3528,9 @@
       <c r="K26" s="10">
         <v>1</v>
       </c>
-      <c r="M26" s="48"/>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48"/>
+    </row>
+    <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="44"/>
       <c r="D27" s="17"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3502,18 +3539,17 @@
       <c r="I27" s="11"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
-      <c r="M27" s="48"/>
-    </row>
-    <row r="28" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="48"/>
-      <c r="D28" s="32" t="s">
+    </row>
+    <row r="28" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="44"/>
+      <c r="D28" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>21</v>
@@ -3530,17 +3566,16 @@
       <c r="K28" s="10">
         <v>1</v>
       </c>
-      <c r="M28" s="48"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="48"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="44"/>
       <c r="D29" s="10"/>
       <c r="E29" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>21</v>
@@ -3549,7 +3584,7 @@
         <v>36</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J29" s="10">
         <v>1</v>
@@ -3557,16 +3592,15 @@
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="M29" s="48"/>
-    </row>
-    <row r="30" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="48"/>
+    </row>
+    <row r="30" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="44"/>
       <c r="D30" s="10"/>
       <c r="E30" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>21</v>
@@ -3575,7 +3609,7 @@
         <v>36</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -3583,22 +3617,20 @@
       <c r="K30" s="10">
         <v>1</v>
       </c>
-      <c r="M30" s="48"/>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="52"/>
+    </row>
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="48"/>
       <c r="C31" s="4"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="52"/>
-    </row>
-    <row r="32" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="52"/>
-      <c r="D32" s="35" t="s">
-        <v>78</v>
+    </row>
+    <row r="32" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="48"/>
+      <c r="D32" s="79" t="s">
+        <v>88</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3607,11 +3639,10 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="52"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="48"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -3620,16 +3651,15 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52"/>
-      <c r="D34" s="32" t="s">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="48"/>
+      <c r="D34" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>32</v>
@@ -3649,13 +3679,12 @@
       <c r="K34" s="10">
         <v>1</v>
       </c>
-      <c r="M34" s="52"/>
-    </row>
-    <row r="35" spans="2:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="52"/>
+    </row>
+    <row r="35" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="48"/>
       <c r="D35" s="10"/>
       <c r="E35" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>33</v>
@@ -3667,7 +3696,7 @@
         <v>36</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J35" s="10">
         <v>1</v>
@@ -3675,13 +3704,12 @@
       <c r="K35" s="10">
         <v>1</v>
       </c>
-      <c r="M35" s="52"/>
-    </row>
-    <row r="36" spans="2:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="52"/>
+    </row>
+    <row r="36" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="48"/>
       <c r="D36" s="10"/>
       <c r="E36" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>34</v>
@@ -3693,7 +3721,7 @@
         <v>36</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J36" s="10">
         <v>1</v>
@@ -3701,10 +3729,9 @@
       <c r="K36" s="10">
         <v>1</v>
       </c>
-      <c r="M36" s="52"/>
-    </row>
-    <row r="37" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="52"/>
+    </row>
+    <row r="37" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="48"/>
       <c r="D37" s="17"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -3713,15 +3740,14 @@
       <c r="I37" s="11"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
-      <c r="M37" s="52"/>
-    </row>
-    <row r="38" spans="2:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="52"/>
-      <c r="D38" s="32" t="s">
+    </row>
+    <row r="38" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="48"/>
+      <c r="D38" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>44</v>
@@ -3741,13 +3767,12 @@
       <c r="K38" s="10">
         <v>1</v>
       </c>
-      <c r="M38" s="52"/>
-    </row>
-    <row r="39" spans="2:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="52"/>
+    </row>
+    <row r="39" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="48"/>
       <c r="D39" s="10"/>
       <c r="E39" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>45</v>
@@ -3759,7 +3784,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J39" s="10">
         <v>1</v>
@@ -3767,13 +3792,12 @@
       <c r="K39" s="10">
         <v>1</v>
       </c>
-      <c r="M39" s="52"/>
-    </row>
-    <row r="40" spans="2:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="52"/>
+    </row>
+    <row r="40" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="48"/>
       <c r="D40" s="10"/>
       <c r="E40" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>46</v>
@@ -3785,7 +3809,7 @@
         <v>36</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J40" s="10">
         <v>1</v>
@@ -3793,70 +3817,66 @@
       <c r="K40" s="10">
         <v>1</v>
       </c>
-      <c r="M40" s="52"/>
-    </row>
-    <row r="41" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67" t="s">
+      <c r="F42" s="63"/>
+      <c r="G42" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67" t="s">
+      <c r="H42" s="63"/>
+      <c r="I42" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="69" t="s">
+      <c r="D43" s="62"/>
+      <c r="E43" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="69"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="34"/>
+    </row>
+    <row r="44" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="69"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="65"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -3867,13 +3887,12 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="60"/>
+    </row>
+    <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="56"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="27" t="s">
-        <v>68</v>
+      <c r="D46" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -3883,45 +3902,42 @@
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="60"/>
-    </row>
-    <row r="47" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="60"/>
+    </row>
+    <row r="47" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="56"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
+      <c r="D47" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="60"/>
-    </row>
-    <row r="48" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="60"/>
+    </row>
+    <row r="48" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="56"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
+      <c r="D48" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="60"/>
-    </row>
-    <row r="49" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="60"/>
+    </row>
+    <row r="49" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="56"/>
       <c r="C49" s="5"/>
       <c r="D49" s="25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -3930,9 +3946,8 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="60"/>
-    </row>
-    <row r="50" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3943,70 +3958,65 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="2:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="2:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="19"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="2:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="2:12" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="19"/>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="29" t="s">
-        <v>55</v>
+      <c r="D52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-    </row>
-    <row r="53" spans="2:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="2:12" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="19"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="28" t="s">
-        <v>56</v>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="2:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="2:12" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="19"/>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="28" t="s">
-        <v>57</v>
+      <c r="D54" s="60"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -4014,9 +4024,8 @@
       <c r="H55" s="6"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="57" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -4028,9 +4037,8 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -4042,9 +4050,8 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -4056,9 +4063,8 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -4070,9 +4076,8 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -4084,9 +4089,8 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -4098,9 +4102,8 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -4112,9 +4115,8 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -4126,9 +4128,8 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -4140,9 +4141,8 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -4154,9 +4154,8 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -4168,9 +4167,8 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -4182,9 +4180,8 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -4196,9 +4193,8 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -4210,9 +4206,8 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -4224,9 +4219,8 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -4238,9 +4232,8 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -4252,9 +4245,8 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -4266,9 +4258,8 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -4280,9 +4271,8 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -4294,9 +4284,8 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="2:13" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="2:12" s="5" customFormat="1" ht="40" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -4308,7 +4297,6 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -4329,47 +4317,47 @@
     <mergeCell ref="C44:D44"/>
   </mergeCells>
   <conditionalFormatting sqref="C43:C44 E43:E44 G43:L44">
-    <cfRule type="expression" dxfId="15" priority="38">
+    <cfRule type="expression" dxfId="15" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:K8">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K13">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:K18">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:K26">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:K30">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:K36">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:K40">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K40 J7:K8 J12:K13 J17:K18 J24:K26 J34:K36 J28:K30">
-    <cfRule type="iconSet" priority="332">
+    <cfRule type="iconSet" priority="335">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -4425,63 +4413,62 @@
     <col min="7" max="8" width="10.7265625" style="18" customWidth="1"/>
     <col min="9" max="9" width="52.7265625" style="4" customWidth="1"/>
     <col min="10" max="11" width="11.7265625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="0.81640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="2.7265625" style="5" customWidth="1"/>
-    <col min="15" max="61" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0.81640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="2.7265625" style="5" customWidth="1"/>
+    <col min="14" max="60" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="0" style="3" hidden="1"/>
     <col min="62" max="16384" width="9.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="39" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="35" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="37"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="67"/>
+        <v>68</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="63"/>
       <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
@@ -4489,7 +4476,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>6</v>
@@ -4498,12 +4485,11 @@
         <v>4</v>
       </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
+    </row>
+    <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="40"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2"/>
@@ -4514,11 +4500,10 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="44"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="40"/>
       <c r="C6" s="10"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -4529,13 +4514,12 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="44"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="40"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -4551,7 +4535,7 @@
         <v>36</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J7" s="10">
         <v>1</v>
@@ -4560,20 +4544,19 @@
         <v>1</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="44"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="40"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>21</v>
@@ -4582,7 +4565,7 @@
         <v>36</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -4591,24 +4574,22 @@
         <v>1</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="45"/>
-      <c r="C9" s="53"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="41"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="45"/>
+      <c r="L9" s="49"/>
+    </row>
+    <row r="10" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="41"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="34" t="s">
-        <v>87</v>
+      <c r="D10" s="77" t="s">
+        <v>83</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4618,11 +4599,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="45"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="41"/>
       <c r="C11" s="10"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4633,13 +4613,12 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="45"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="41"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="23" t="s">
@@ -4655,7 +4634,7 @@
         <v>36</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J12" s="10">
         <v>1</v>
@@ -4664,20 +4643,19 @@
         <v>1</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="45"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="41"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>21</v>
@@ -4686,7 +4664,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -4695,24 +4673,22 @@
         <v>1</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="47"/>
-      <c r="C14" s="53"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="47"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="43"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="34" t="s">
-        <v>86</v>
+      <c r="D15" s="77" t="s">
+        <v>84</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -4722,11 +4698,10 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="43"/>
       <c r="C16" s="10"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -4737,13 +4712,12 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="47"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="43"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="23" t="s">
@@ -4759,7 +4733,7 @@
         <v>36</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J17" s="10">
         <v>1</v>
@@ -4768,20 +4742,19 @@
         <v>1</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="47"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="43"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>21</v>
@@ -4790,7 +4763,7 @@
         <v>36</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -4799,12 +4772,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="48"/>
-      <c r="C19" s="53"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="44"/>
+      <c r="C19" s="49"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -4812,14 +4784,13 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="20" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="48"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="78" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="16"/>
@@ -4830,13 +4801,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -4845,15 +4815,14 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="48"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="44"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="35" t="s">
-        <v>84</v>
+      <c r="D22" s="79" t="s">
+        <v>86</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -4863,12 +4832,11 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="49"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4879,11 +4847,10 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="48"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="44"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
         <v>28</v>
@@ -4901,7 +4868,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J24" s="10">
         <v>1</v>
@@ -4910,11 +4877,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="48"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="44"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="23" t="s">
@@ -4930,7 +4896,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -4939,11 +4905,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="48"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="44"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="23" t="s">
@@ -4959,7 +4924,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J26" s="10">
         <v>1</v>
@@ -4968,11 +4933,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="10"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="44"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -4983,20 +4947,19 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="48"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="44"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>21</v>
@@ -5005,7 +4968,7 @@
         <v>36</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J28" s="10">
         <v>1</v>
@@ -5014,18 +4977,17 @@
         <v>1</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="48"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="44"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>21</v>
@@ -5034,7 +4996,7 @@
         <v>36</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J29" s="10">
         <v>1</v>
@@ -5043,18 +5005,17 @@
         <v>1</v>
       </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="48"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="44"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>21</v>
@@ -5063,7 +5024,7 @@
         <v>36</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -5072,24 +5033,22 @@
         <v>1</v>
       </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="52"/>
-    </row>
-    <row r="32" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="52"/>
+      <c r="L31" s="49"/>
+    </row>
+    <row r="32" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="48"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="35" t="s">
-        <v>83</v>
+      <c r="D32" s="79" t="s">
+        <v>87</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -5099,12 +5058,11 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
-      <c r="B33" s="51"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -5115,13 +5073,12 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="48"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="23" t="s">
@@ -5137,7 +5094,7 @@
         <v>36</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J34" s="10">
         <v>1</v>
@@ -5146,11 +5103,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="52"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="48"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="23" t="s">
@@ -5166,7 +5122,7 @@
         <v>36</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J35" s="10">
         <v>1</v>
@@ -5175,11 +5131,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="52"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="48"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="23" t="s">
@@ -5195,7 +5150,7 @@
         <v>36</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J36" s="10">
         <v>1</v>
@@ -5204,11 +5159,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="10"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="52"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="48"/>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -5219,13 +5173,12 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="52"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="48"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="23" t="s">
@@ -5241,7 +5194,7 @@
         <v>36</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J38" s="10">
         <v>1</v>
@@ -5250,11 +5203,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="10"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="52"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="48"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="23" t="s">
@@ -5270,7 +5222,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J39" s="10">
         <v>1</v>
@@ -5279,11 +5231,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="10"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="52"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="48"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="23" t="s">
@@ -5299,7 +5250,7 @@
         <v>36</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J40" s="10">
         <v>1</v>
@@ -5308,87 +5259,82 @@
         <v>1</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L41" s="10"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67" t="s">
+      <c r="F42" s="63"/>
+      <c r="G42" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67" t="s">
+      <c r="H42" s="63"/>
+      <c r="I42" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="71" t="s">
+      <c r="D43" s="69"/>
+      <c r="E43" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="70" t="s">
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
-      <c r="C44" s="73" t="s">
+      <c r="C44" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:14" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:14" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
-      <c r="B46" s="60"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="26" t="s">
-        <v>67</v>
+      <c r="D46" s="76" t="s">
+        <v>63</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -5398,110 +5344,106 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="60"/>
-    </row>
-    <row r="47" spans="1:14" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
-      <c r="B47" s="60"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
+      <c r="D47" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="60"/>
-    </row>
-    <row r="48" spans="1:14" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
-      <c r="B48" s="60"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
+      <c r="D48" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="60"/>
-    </row>
-    <row r="49" spans="1:14" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
-      <c r="B49" s="60"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="4"/>
       <c r="D49" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="60"/>
-    </row>
-    <row r="50" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="1:14" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="19"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="1:14" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="19"/>
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="29" t="s">
-        <v>55</v>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="1:14" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="19"/>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="28" t="s">
-        <v>56</v>
+      <c r="D53" s="70"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="N53" s="4"/>
-    </row>
-    <row r="54" spans="1:14" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="19"/>
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="28" t="s">
-        <v>57</v>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="N54" s="4"/>
-    </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -5530,47 +5472,47 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D7:K8 C43:C44 E43:E44">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K13">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:K18">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:K26">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:K30">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:K36">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:K40">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:K43 G43:G44 I44">
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K40 J17:K18 J34:K36 J28:K30 J24:K26 J7:K8 J12:K13">
-    <cfRule type="iconSet" priority="328">
+    <cfRule type="iconSet" priority="331">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/Documents/_Learn/Yi.Studio.event/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Yi/_Learn/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="869" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A49720-FC24-4648-89A8-78CF87488E45}"/>
+  <xr:revisionPtr revIDLastSave="985" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45881B9-AD5B-474C-A70E-A6015B091269}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
   <si>
     <t>分享连接</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>验证是否由 Yi 发布的</t>
-  </si>
-  <si>
-    <t>Aliyundrive</t>
   </si>
   <si>
     <t>发行年份</t>
@@ -276,12 +273,6 @@
 439F9F1DFF311D4D009C193A89677C24EBE0FB38F5990CB8940F42F1435F13BF</t>
   </si>
   <si>
-    <t>ISO（ 文件名 | SHA256 ）</t>
-  </si>
-  <si>
-    <t>ISO ( File name | SHA256 )</t>
-  </si>
-  <si>
     <t>mul_Yi_Windows_10_22h2_x64_5l1_17in1_ihpr4x31_november_2025.iso
 1B26016CE2F361884D356A1B9F093A915B9FADBE361B10420B612EC3F610DA99</t>
   </si>
@@ -534,12 +525,6 @@
     <t>了解：Microsoft Windows 臻系列，可选集成 Office 365/2024 ( https://fengyi.tel/os )</t>
   </si>
   <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
     <t>File name
 SHA-256</t>
   </si>
@@ -556,9 +541,6 @@
     <t>Encapsulated Events</t>
   </si>
   <si>
-    <t>封 装 事 件</t>
-  </si>
-  <si>
     <t xml:space="preserve">                 Yi's Studio</t>
   </si>
   <si>
@@ -1318,6 +1300,62 @@
       </rPr>
       <t>United States - English ( en-US ) | 대한민국 - 한국어 ( ko-KR ) | 日本 - 日本語 (  ja-JP ) | 中国 - 繁体中文 (  zh-TW ) | 中国 - 简体中文 ( zh-CN )</t>
     </r>
+  </si>
+  <si>
+    <t>描述 ( 操作系统版本 | 版本号 )</t>
+  </si>
+  <si>
+    <t>ISO ( File name | SHA-256 )</t>
+  </si>
+  <si>
+    <t>ISO（ 文件名 | SHA-256 ）</t>
+  </si>
+  <si>
+    <t>阿里
+云盘</t>
+  </si>
+  <si>
+    <t>123 
+云盘</t>
+  </si>
+  <si>
+    <t>Alipan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">封 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">装 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">事 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>件</t>
+    </r>
+  </si>
+  <si>
+    <t>Description ( Operating System Version
+ | Version Number )</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1367,7 @@
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1555,6 +1593,18 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -1820,7 +1870,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1921,10 +1971,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1973,107 +2019,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2085,6 +2048,132 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2109,163 +2198,7 @@
     <cellStyle name="Total" xfId="4" builtinId="25" customBuiltin="1"/>
     <cellStyle name="z Hidden Text" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -2429,17 +2362,17 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Home Inventory" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Home Inventory" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="lastColumn" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstTotalCell" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="firstTotalCell" dxfId="6"/>
     </tableStyle>
     <tableStyle name="Home Inventory Slicer" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2510,16 +2443,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="FFFF931E"/>
-      <color rgb="FFD665ED"/>
-      <color rgb="FF812EA2"/>
-      <color rgb="FF204E49"/>
-      <color rgb="FF76CD3B"/>
-      <color rgb="FFF3F3F3"/>
-      <color rgb="FF7D700D"/>
-      <color rgb="FFE8A9F5"/>
-      <color rgb="FFDD1AF2"/>
-      <color rgb="FF80D67C"/>
+      <color rgb="FF785FA0"/>
+      <color rgb="FFA598BF"/>
+      <color rgb="FFB8ADCD"/>
+      <color rgb="FFBE75CD"/>
+      <color rgb="FF743B80"/>
+      <color rgb="FFD8A9D4"/>
+      <color rgb="FF7D4E9E"/>
+      <color rgb="FFFBBB73"/>
+      <color rgb="FFFEAA47"/>
+      <color rgb="FFFFA500"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3049,90 +2982,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" style="5" customWidth="1"/>
     <col min="2" max="3" width="0.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="85.7265625" style="18" customWidth="1"/>
-    <col min="7" max="8" width="10.7265625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="52.7265625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="11.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="88.6328125" style="18" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="53.6328125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.6328125" style="4" customWidth="1"/>
     <col min="12" max="12" width="0.81640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="2.7265625" style="5" customWidth="1"/>
-    <col min="14" max="60" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="0" style="3" hidden="1"/>
+    <col min="13" max="13" width="2.6328125" style="5" customWidth="1"/>
+    <col min="14" max="61" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="62" max="16384" width="9.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="35" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+    <row r="1" spans="1:13" s="34" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="9" t="s">
-        <v>71</v>
+      <c r="D4" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="78" t="s">
+        <v>66</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="D5" s="78" t="s">
-        <v>18</v>
+      <c r="B5" s="39"/>
+      <c r="D5" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -3143,7 +3075,7 @@
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="40"/>
+      <c r="B6" s="39"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -3154,24 +3086,24 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
-      <c r="D7" s="31" t="s">
-        <v>28</v>
+      <c r="B7" s="39"/>
+      <c r="D7" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="10">
         <v>1</v>
@@ -3181,24 +3113,24 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="40"/>
-      <c r="D8" s="31" t="s">
-        <v>43</v>
+      <c r="B8" s="39"/>
+      <c r="D8" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -3208,7 +3140,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="42"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -3218,9 +3150,9 @@
     </row>
     <row r="10" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="42"/>
-      <c r="D10" s="78" t="s">
-        <v>92</v>
+      <c r="B10" s="41"/>
+      <c r="D10" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -3233,7 +3165,7 @@
     </row>
     <row r="11" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="42"/>
+      <c r="B11" s="41"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -3245,25 +3177,25 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="41"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="31" t="s">
-        <v>28</v>
+      <c r="D12" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="10">
         <v>1</v>
@@ -3274,24 +3206,24 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="41"/>
-      <c r="D13" s="31" t="s">
-        <v>43</v>
+      <c r="B13" s="40"/>
+      <c r="D13" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -3301,7 +3233,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="43"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="4"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -3310,9 +3242,9 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="43"/>
-      <c r="D15" s="77" t="s">
-        <v>91</v>
+      <c r="B15" s="42"/>
+      <c r="D15" s="50" t="s">
+        <v>85</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3324,7 +3256,7 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="43"/>
+      <c r="B16" s="42"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -3336,24 +3268,24 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="43"/>
-      <c r="D17" s="31" t="s">
-        <v>28</v>
+      <c r="B17" s="42"/>
+      <c r="D17" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="I17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="10">
         <v>1</v>
@@ -3363,24 +3295,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="43"/>
-      <c r="D18" s="31" t="s">
-        <v>43</v>
+      <c r="B18" s="42"/>
+      <c r="D18" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -3390,7 +3322,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="4"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -3400,9 +3332,9 @@
     </row>
     <row r="20" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="44"/>
-      <c r="D20" s="78" t="s">
-        <v>89</v>
+      <c r="B20" s="43"/>
+      <c r="D20" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -3415,7 +3347,7 @@
     </row>
     <row r="21" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="46"/>
+      <c r="B21" s="44"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -3427,9 +3359,9 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="44"/>
-      <c r="D22" s="79" t="s">
-        <v>90</v>
+      <c r="B22" s="43"/>
+      <c r="D22" s="52" t="s">
+        <v>84</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3441,7 +3373,7 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -3453,24 +3385,24 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="44"/>
-      <c r="D24" s="31" t="s">
+      <c r="B24" s="43"/>
+      <c r="D24" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>29</v>
-      </c>
       <c r="G24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" s="10">
         <v>1</v>
@@ -3480,22 +3412,22 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44"/>
+      <c r="B25" s="43"/>
       <c r="D25" s="10"/>
       <c r="E25" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -3505,22 +3437,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="44"/>
+      <c r="B26" s="43"/>
       <c r="D26" s="10"/>
       <c r="E26" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J26" s="10">
         <v>1</v>
@@ -3530,7 +3462,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="44"/>
+      <c r="B27" s="43"/>
       <c r="D27" s="17"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3541,24 +3473,24 @@
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="44"/>
-      <c r="D28" s="31" t="s">
-        <v>43</v>
+      <c r="B28" s="43"/>
+      <c r="D28" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" s="10">
         <v>1</v>
@@ -3569,22 +3501,22 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="44"/>
+      <c r="B29" s="43"/>
       <c r="D29" s="10"/>
       <c r="E29" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J29" s="10">
         <v>1</v>
@@ -3594,22 +3526,22 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="44"/>
+      <c r="B30" s="43"/>
       <c r="D30" s="10"/>
       <c r="E30" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -3619,7 +3551,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="48"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="4"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -3628,9 +3560,9 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="48"/>
-      <c r="D32" s="79" t="s">
-        <v>88</v>
+      <c r="B32" s="45"/>
+      <c r="D32" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3641,8 +3573,9 @@
       <c r="K32" s="2"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="2:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="48"/>
+    <row r="33" spans="2:13" s="3" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="45"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -3651,27 +3584,28 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="48"/>
-      <c r="D34" s="31" t="s">
-        <v>28</v>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="2:13" s="3" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="45"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="10">
         <v>1</v>
@@ -3679,24 +3613,27 @@
       <c r="K34" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="48"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="2:13" s="3" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="45"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="10"/>
       <c r="E35" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J35" s="10">
         <v>1</v>
@@ -3704,24 +3641,26 @@
       <c r="K35" s="10">
         <v>1</v>
       </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="48"/>
+      <c r="B36" s="45"/>
       <c r="D36" s="10"/>
       <c r="E36" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J36" s="10">
         <v>1</v>
@@ -3731,7 +3670,7 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="48"/>
+      <c r="B37" s="45"/>
       <c r="D37" s="17"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -3742,24 +3681,24 @@
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="48"/>
-      <c r="D38" s="31" t="s">
+      <c r="B38" s="45"/>
+      <c r="D38" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="G38" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J38" s="10">
         <v>1</v>
@@ -3769,22 +3708,22 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="48"/>
+      <c r="B39" s="45"/>
       <c r="D39" s="10"/>
       <c r="E39" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J39" s="10">
         <v>1</v>
@@ -3794,22 +3733,22 @@
       </c>
     </row>
     <row r="40" spans="2:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="48"/>
+      <c r="B40" s="45"/>
       <c r="D40" s="10"/>
       <c r="E40" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J40" s="10">
         <v>1</v>
@@ -3823,57 +3762,57 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63" t="s">
+      <c r="F42" s="79"/>
+      <c r="G42" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="79"/>
+      <c r="I42" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
-      <c r="C43" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="65" t="s">
+      <c r="C43" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="82"/>
+      <c r="E43" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="65"/>
+      <c r="F43" s="81"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="34"/>
+      <c r="I43" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="33"/>
     </row>
     <row r="44" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
-      <c r="C44" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="65"/>
+      <c r="C44" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="82"/>
+      <c r="E44" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="81"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -3889,10 +3828,10 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="56"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="5"/>
       <c r="D46" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -3904,10 +3843,10 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="56"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="32" t="s">
-        <v>72</v>
+      <c r="D47" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
@@ -3919,10 +3858,10 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="56"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="33" t="s">
-        <v>66</v>
+      <c r="D48" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
@@ -3934,10 +3873,10 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="56"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="5"/>
       <c r="D49" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -3961,12 +3900,12 @@
     </row>
     <row r="51" spans="2:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="19"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -3976,13 +3915,13 @@
     </row>
     <row r="52" spans="2:12" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="19"/>
-      <c r="C52" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="59"/>
+      <c r="C52" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="83"/>
+      <c r="E52" s="84"/>
       <c r="F52" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -3990,13 +3929,13 @@
     </row>
     <row r="53" spans="2:12" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="19"/>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -4004,13 +3943,13 @@
     </row>
     <row r="54" spans="2:12" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="19"/>
-      <c r="C54" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="61"/>
+      <c r="C54" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="85"/>
+      <c r="E54" s="86"/>
       <c r="F54" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -4302,6 +4241,11 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="I42:K42"/>
@@ -4310,54 +4254,14 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
   </mergeCells>
-  <conditionalFormatting sqref="C43:C44 E43:E44 G43:L44">
-    <cfRule type="expression" dxfId="15" priority="41">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:K8">
-    <cfRule type="expression" dxfId="14" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:K13">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:K18">
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:K26">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:K30">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:K36">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:K40">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="D7:K8 D12:K13 D17:K18 D24:K26 D28:K30 D34:K36 D38:K40 C43:K44">
+    <cfRule type="expression" dxfId="0" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K40 J7:K8 J12:K13 J17:K18 J24:K26 J34:K36 J28:K30">
-    <cfRule type="iconSet" priority="335">
+    <cfRule type="iconSet" priority="336">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -4380,7 +4284,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="57" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="8" scale="56" fitToHeight="0" orientation="portrait" r:id="rId7"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;R&amp;"Aptos Narrow,Regular"&amp;10Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -4405,378 +4309,377 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" style="5" customWidth="1"/>
     <col min="2" max="3" width="0.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="85.7265625" style="18" customWidth="1"/>
-    <col min="7" max="8" width="10.7265625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="52.7265625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="11.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="88.6328125" style="18" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="53.6328125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.6328125" style="4" customWidth="1"/>
     <col min="12" max="12" width="0.81640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="2.7265625" style="5" customWidth="1"/>
-    <col min="14" max="60" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="0" style="3" hidden="1"/>
+    <col min="13" max="13" width="2.6328125" style="5" customWidth="1"/>
+    <col min="14" max="61" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="62" max="16384" width="9.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="35" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+    <row r="1" spans="1:13" s="34" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="37"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="53"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="53"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="53"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="53"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="9" t="s">
+      <c r="G8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="40"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="40"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10"/>
+      <c r="H8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="41"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="L9" s="49"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="41"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="10"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="41"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="10"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="41"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="10">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10"/>
+      <c r="G12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="41"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10"/>
+      <c r="F13" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="43"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="61"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="L14" s="49"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="43"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="10"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="43"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="10"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="43"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="I17" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="62"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="10">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="43"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10"/>
+      <c r="F18" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="18"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="44"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="61"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -4784,14 +4687,14 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="49"/>
+      <c r="L19" s="61"/>
     </row>
     <row r="20" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="78" t="s">
-        <v>85</v>
+      <c r="B20" s="63"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -4800,13 +4703,13 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -4815,574 +4718,573 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="35"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="44"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="10"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="44"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="G24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="63"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="63"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="10">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="24" t="s">
+      <c r="F26" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1</v>
+      </c>
+      <c r="L26" s="18"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="63"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="63"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="10">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="44"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F28" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="63"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="10">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="44"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="44"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="24" t="s">
+      <c r="F29" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="63"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="10">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="44"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="24" t="s">
+      <c r="F30" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="10">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="44"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="10">
-        <v>1</v>
-      </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10"/>
+      <c r="G30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1</v>
+      </c>
+      <c r="L30" s="18"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="61"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
-      <c r="L31" s="49"/>
+      <c r="L31" s="61"/>
     </row>
     <row r="32" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="48"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="10"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="48"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="24" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="E34" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="10">
-        <v>1</v>
-      </c>
-      <c r="K34" s="10">
-        <v>1</v>
-      </c>
-      <c r="L34" s="10"/>
+      <c r="F34" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1</v>
+      </c>
+      <c r="K34" s="18">
+        <v>1</v>
+      </c>
+      <c r="L34" s="18"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="48"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J35" s="10">
-        <v>1</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10"/>
+      <c r="F35" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1</v>
+      </c>
+      <c r="L35" s="18"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="48"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="10">
-        <v>1</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10"/>
+      <c r="F36" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1</v>
+      </c>
+      <c r="L36" s="18"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="48"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="10"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="18"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="48"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="31" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="24" t="s">
+      <c r="G38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="68"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1</v>
+      </c>
+      <c r="K39" s="18">
+        <v>1</v>
+      </c>
+      <c r="L39" s="18"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="68"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="10">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="48"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="24" t="s">
+      <c r="F40" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J39" s="10">
-        <v>1</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="48"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J40" s="10">
-        <v>1</v>
-      </c>
-      <c r="K40" s="10">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10"/>
+      <c r="G40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1</v>
+      </c>
+      <c r="K40" s="18">
+        <v>1</v>
+      </c>
+      <c r="L40" s="18"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L41" s="10"/>
+      <c r="L41" s="18"/>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63" t="s">
+      <c r="F42" s="79"/>
+      <c r="G42" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="79"/>
+      <c r="I42" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="67" t="s">
+      <c r="D43" s="91"/>
+      <c r="E43" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="10"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="10"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="18"/>
     </row>
     <row r="45" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
-      <c r="B46" s="56"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="D46" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
-      <c r="B47" s="56"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
+      <c r="D47" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
-      <c r="B48" s="56"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
+      <c r="D48" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:13" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
-      <c r="B49" s="56"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="25" t="s">
-        <v>62</v>
+      <c r="D49" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="L49" s="4"/>
     </row>
@@ -5391,25 +5293,25 @@
     </row>
     <row r="51" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="19"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="19"/>
-      <c r="C52" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="73"/>
+      <c r="C52" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="89"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -5417,13 +5319,13 @@
     </row>
     <row r="53" spans="1:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="19"/>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="71"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="88"/>
       <c r="F53" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -5431,13 +5333,13 @@
     </row>
     <row r="54" spans="1:13" ht="40" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="19"/>
-      <c r="C54" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
+      <c r="C54" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="87"/>
+      <c r="E54" s="88"/>
       <c r="F54" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -5454,13 +5356,6 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
     <mergeCell ref="I42:K42"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="I43:K43"/>
@@ -5469,50 +5364,22 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="I44:K44"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="D7:K8 C43:C44 E43:E44">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:K13">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:K18">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:K26">
-    <cfRule type="expression" dxfId="4" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:K30">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:K36">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:K40">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:K43 G43:G44 I44">
-    <cfRule type="expression" dxfId="0" priority="20">
+  <conditionalFormatting sqref="D7:K8 D12:K13 D17:K18 D24:K26 D28:K30 D34:K36 D38:K40 C43:K44">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K40 J17:K18 J34:K36 J28:K30 J24:K26 J7:K8 J12:K13">
-    <cfRule type="iconSet" priority="331">
+    <cfRule type="iconSet" priority="333">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -5520,7 +5387,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:K18 J24:K26 J28:K30 J34:K36 J12:K13 J7:K8 J38:K40" xr:uid="{52D4EF48-41FD-4442-B400-959EC5964D13}">
       <formula1>"1,0"</formula1>
     </dataValidation>
@@ -5534,7 +5401,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="57" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="8" scale="56" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;R&amp;"Microsoft YaHei,Regular"&amp;10第 &amp;P 页  共 &amp;N 页</oddFooter>
   </headerFooter>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924F5D6BCB7C7FC/_Feng/_Yi/_Learn/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2339" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606C68EE-C743-4E93-AEEE-8CF4E64AB57A}"/>
+  <xr:revisionPtr revIDLastSave="2342" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144F324B-CBD2-4228-8DD6-A9B723E1761C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,21 +748,6 @@
     <t>Badiupan</t>
   </si>
   <si>
-    <t>mul_Yi_Windows_11_25H2_x64_2l1_20in1_5pv6avi3_january_2026_98AD27B24AEB74DE6ECD7181133ED030B011102FFFF7D8F4F8A9C63023BAEC03.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_25H2_x64_3l1_20in1_y6fx4z7q_january_2026_837CB4908B850998063B9EC2A53F1FF8182371AEB55FDF5D8FF16CC8C187493D.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_january_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_25H2_x64_2l1_20in1_z0gp0tns_january_2026_AE246F1634CF137C2F6C2216651A44C000E66F30AA0D8D25AA7B2AFA60330E6F.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_11_25H2_x64_38l1_2in1_acv8rfr0_january_2026_1AE457C4D90A1A35D77760155C87544ADEA59A862EE1A9948CF8BFCB799122BE.iso</t>
-  </si>
-  <si>
     <t>Microsoft Windows 11 25H2 26200.7623</t>
   </si>
   <si>
@@ -781,15 +766,6 @@
     </r>
   </si>
   <si>
-    <t>mul_Yi_Windows_10_22h2_x64_2l1_20in1_mrth9mpi_january_2026_EE1D259A33AB7BEB63B5CA3E9643D5BDD17D2AF52EBE7BEC376E4EDAEFEEC9C6.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_3l1_20in1_hmu9j031_january_2026_56024F6EBC74587A475AEE02EB864B6E0C507B65F7F99AEF36D6E64A5A8B91D0.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_2l1_20in1_lhbih52r_january_2026_3038F16B6C5E93F62A0A9DF2BA709A54305EDDCB1DD7DB80BE8E255F2031431D.iso</t>
-  </si>
-  <si>
     <r>
       <t>部署引擎：</t>
     </r>
@@ -1090,9 +1066,6 @@
     <t>v04pxsdn</t>
   </si>
   <si>
-    <t>january</t>
-  </si>
-  <si>
     <t>下载后请验证下载</t>
   </si>
   <si>
@@ -1103,21 +1076,21 @@
   </si>
   <si>
     <r>
-      <t>ISO 文件名命名规则：</t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_january_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ISO file naming rules: </t>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Windows 11, </t>
     </r>
     <r>
       <rPr>
@@ -1126,7 +1099,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_january_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Windows 10</t>
     </r>
   </si>
   <si>
@@ -1137,6 +1118,72 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>25H2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>22H2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = multilingual, the prefix indicates a known version language is monolingual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 多语，前缀是已知版本区域是指单语</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>11</t>
     </r>
     <r>
@@ -1145,7 +1192,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> = Windows 11, </t>
+      <t xml:space="preserve"> = Windows 11，</t>
     </r>
     <r>
       <rPr>
@@ -1173,7 +1220,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>25H2</t>
+      <t>arm64</t>
     </r>
     <r>
       <rPr>
@@ -1190,10 +1237,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>22H2</t>
-    </r>
-  </si>
-  <si>
+      <t>x64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1201,18 +1254,21 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>mul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = multilingual, the prefix indicates a known version language is monolingual</t>
-    </r>
-  </si>
-  <si>
+      <t>x86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 架构</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">集成了 </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1220,18 +1276,21 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>mul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 多语，前缀是已知版本区域是指单语</t>
-    </r>
-  </si>
-  <si>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 个已知语言，多合 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">已知映像版本有 </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1239,15 +1298,20 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Windows 11，</t>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 个，多合 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">随机生成的 </t>
     </r>
     <r>
       <rPr>
@@ -1256,18 +1320,24 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Windows 10</t>
-    </r>
-  </si>
-  <si>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 位字符</t>
+    </r>
+  </si>
+  <si>
+    <t>1 月</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发行时间 </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1275,6 +1345,47 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integrated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> known languages, combined 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>arm64</t>
     </r>
     <r>
@@ -1317,12 +1428,12 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> = 架构</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">集成了 </t>
+      <t xml:space="preserve"> = architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are </t>
     </r>
     <r>
       <rPr>
@@ -1331,20 +1442,20 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 个已知语言，多合 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">已知映像版本有 </t>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> known image versions, combined 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Randomly generated </t>
     </r>
     <r>
       <rPr>
@@ -1353,20 +1464,20 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 个，多合 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">随机生成的 </t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-character string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Release date </t>
     </r>
     <r>
       <rPr>
@@ -1375,24 +1486,13 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 位字符</t>
-    </r>
-  </si>
-  <si>
-    <t>1 月</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">发行时间 </t>
-    </r>
+      <t>2026</t>
+    </r>
+  </si>
+  <si>
+    <t>.ISO .ASC</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1400,20 +1500,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>2026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 年</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Integrated with </t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
     </r>
     <r>
       <rPr>
@@ -1422,15 +1517,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> known languages, combined 1</t>
+      <t xml:space="preserve"> SHA-256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 字串</t>
     </r>
   </si>
   <si>
@@ -1441,15 +1536,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>arm64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-bit </t>
     </r>
     <r>
       <rPr>
@@ -1458,16 +1553,18 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>x64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
+      <t>SHA-256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> string</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1475,20 +1572,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>x86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = architecture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There are </t>
+      <t>.ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = ISO file; </t>
     </r>
     <r>
       <rPr>
@@ -1497,20 +1589,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> known image versions, combined 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Randomly generated </t>
+      <t>.ASC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = PGP signature file, which can verify whether it was released by Yi. Learn more at: </t>
     </r>
     <r>
       <rPr>
@@ -1519,21 +1606,10 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>-character string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Release date </t>
-    </r>
+      <t>https://fengyi.tel/pgp</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1541,13 +1617,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>2026</t>
-    </r>
-  </si>
-  <si>
-    <t>.ISO .ASC</t>
-  </si>
-  <si>
+      <t>.ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = ISO 文件；</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1555,15 +1634,15 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
+      <t>.ASC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：</t>
     </r>
     <r>
       <rPr>
@@ -1572,148 +1651,8 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> SHA-256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 字串</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-bit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>SHA-256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ISO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = ISO file; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ASC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = PGP signature file, which can verify whether it was released by Yi. Learn more at: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
       <t>https://fengyi.tel/pgp</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ISO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = ISO 文件；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ASC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://fengyi.tel/pgp</t>
-    </r>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_5l1_20in1_1bglaq1u_january_2026_0D732D73879CA09294E89CA3822EBADD576F115E9D9005789683B61C04E230F6.iso</t>
-  </si>
-  <si>
-    <t>mul_Yi_Windows_10_22h2_x64_38l1_2in1_5oxpoo1v_january_2026_FA31C1F9BBEF66BC3735D30F4ECFA0A1D1D066F751401A7ECA6DA225D0C77377.iso</t>
   </si>
   <si>
     <t>健康</t>
@@ -2310,6 +2249,45 @@
       </rPr>
       <t>[ 最终版本 ]</t>
     </r>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_11_25H2_x64_38l1_2in1_acv8rfr0_jan_2026_1AE457C4D90A1A35D77760155C87544ADEA59A862EE1A9948CF8BFCB799122BE.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_38l1_2in1_5oxpoo1v_jan_2026_FA31C1F9BBEF66BC3735D30F4ECFA0A1D1D066F751401A7ECA6DA225D0C77377.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_5l1_20in1_1bglaq1u_jan_2026_0D732D73879CA09294E89CA3822EBADD576F115E9D9005789683B61C04E230F6.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_11_25H2_x64_3l1_20in1_y6fx4z7q_jan_2026_837CB4908B850998063B9EC2A53F1FF8182371AEB55FDF5D8FF16CC8C187493D.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_3l1_20in1_hmu9j031_jan_2026_56024F6EBC74587A475AEE02EB864B6E0C507B65F7F99AEF36D6E64A5A8B91D0.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_11_25H2_x64_2l1_20in1_z0gp0tns_jan_2026_AE246F1634CF137C2F6C2216651A44C000E66F30AA0D8D25AA7B2AFA60330E6F.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_2l1_20in1_lhbih52r_jan_2026_3038F16B6C5E93F62A0A9DF2BA709A54305EDDCB1DD7DB80BE8E255F2031431D.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_11_25H2_x64_2l1_20in1_5pv6avi3_jan_2026_98AD27B24AEB74DE6ECD7181133ED030B011102FFFF7D8F4F8A9C63023BAEC03.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_10_22h2_x64_2l1_20in1_mrth9mpi_jan_2026_EE1D259A33AB7BEB63B5CA3E9643D5BDD17D2AF52EBE7BEC376E4EDAEFEEC9C6.iso</t>
+  </si>
+  <si>
+    <t>ISO file naming rules: mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>ISO 文件名命名规则：mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
   </si>
 </sst>
 </file>
@@ -4010,13 +3988,13 @@
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
       <c r="D5" s="39" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>22</v>
@@ -4072,10 +4050,10 @@
     <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19"/>
       <c r="D8" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -4087,7 +4065,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -4103,10 +4081,10 @@
     <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="D9" s="110" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F9" s="111">
         <v>1</v>
@@ -4118,7 +4096,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="112" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J9" s="111">
         <v>1</v>
@@ -4144,7 +4122,7 @@
       <c r="A11" s="47"/>
       <c r="B11" s="21"/>
       <c r="D11" s="48" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -4176,10 +4154,10 @@
       <c r="B13" s="20"/>
       <c r="C13" s="2"/>
       <c r="D13" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -4191,7 +4169,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
@@ -4208,10 +4186,10 @@
     <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20"/>
       <c r="D14" s="110" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F14" s="111">
         <v>1</v>
@@ -4223,7 +4201,7 @@
         <v>33</v>
       </c>
       <c r="I14" s="112" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J14" s="111">
         <v>1</v>
@@ -4248,7 +4226,7 @@
     <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="22"/>
       <c r="D16" s="49" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4278,10 +4256,10 @@
     <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="22"/>
       <c r="D18" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -4293,7 +4271,7 @@
         <v>33</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J18" s="6">
         <v>1</v>
@@ -4309,10 +4287,10 @@
     <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="22"/>
       <c r="D19" s="110" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E19" s="107" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="F19" s="111">
         <v>1</v>
@@ -4324,7 +4302,7 @@
         <v>33</v>
       </c>
       <c r="I19" s="112" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J19" s="111">
         <v>1</v>
@@ -4350,7 +4328,7 @@
       <c r="A21" s="47"/>
       <c r="B21" s="23"/>
       <c r="D21" s="48" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -4381,7 +4359,7 @@
     <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="23"/>
       <c r="D23" s="50" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4411,10 +4389,10 @@
     <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="23"/>
       <c r="D25" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
@@ -4426,7 +4404,7 @@
         <v>33</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J25" s="6">
         <v>1</v>
@@ -4442,10 +4420,10 @@
     <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="23"/>
       <c r="D26" s="110" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="F26" s="111">
         <v>1</v>
@@ -4457,7 +4435,7 @@
         <v>33</v>
       </c>
       <c r="I26" s="112" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" s="111">
         <v>1</v>
@@ -4483,7 +4461,7 @@
     <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="25"/>
       <c r="D28" s="50" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4514,10 +4492,10 @@
     <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="25"/>
       <c r="D30" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="F30" s="6">
         <v>1</v>
@@ -4529,7 +4507,7 @@
         <v>33</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J30" s="6">
         <v>1</v>
@@ -4546,10 +4524,10 @@
       <c r="A31" s="47"/>
       <c r="B31" s="25"/>
       <c r="D31" s="110" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F31" s="111">
         <v>1</v>
@@ -4561,7 +4539,7 @@
         <v>33</v>
       </c>
       <c r="I31" s="112" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J31" s="111">
         <v>1</v>
@@ -4824,7 +4802,7 @@
     <row r="49" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="89"/>
       <c r="D49" s="84" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="E49" s="85"/>
       <c r="F49" s="85"/>
@@ -4839,30 +4817,30 @@
     <row r="50" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="89"/>
       <c r="D50" s="88" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E50" s="87" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F50" s="87"/>
     </row>
     <row r="51" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="89"/>
       <c r="D51" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="87" t="s">
         <v>91</v>
-      </c>
-      <c r="E51" s="87" t="s">
-        <v>100</v>
       </c>
       <c r="F51" s="87"/>
     </row>
     <row r="52" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="89"/>
       <c r="D52" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="87" t="s">
         <v>93</v>
-      </c>
-      <c r="E52" s="87" t="s">
-        <v>104</v>
       </c>
       <c r="F52" s="87"/>
       <c r="G52" s="86"/>
@@ -4876,10 +4854,10 @@
     <row r="53" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="89"/>
       <c r="D53" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="87" t="s">
         <v>94</v>
-      </c>
-      <c r="E53" s="87" t="s">
-        <v>105</v>
       </c>
       <c r="F53" s="87"/>
     </row>
@@ -4889,44 +4867,44 @@
         <v>13</v>
       </c>
       <c r="E54" s="87" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F54" s="87"/>
     </row>
     <row r="55" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="89"/>
       <c r="D55" s="88" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E55" s="87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F55" s="87"/>
     </row>
     <row r="56" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="89"/>
       <c r="D56" s="92" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E56" s="87" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F56" s="87"/>
     </row>
     <row r="57" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="89"/>
       <c r="D57" s="92" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E57" s="87" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F57" s="87"/>
     </row>
     <row r="58" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="89"/>
       <c r="D58" s="92" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="E58" s="87">
         <v>1</v>
@@ -4939,7 +4917,7 @@
         <v>2026</v>
       </c>
       <c r="E59" s="87" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F59" s="87"/>
     </row>
@@ -4948,10 +4926,10 @@
       <c r="B60" s="90"/>
       <c r="C60" s="81"/>
       <c r="D60" s="93" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E60" s="91" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F60" s="91"/>
       <c r="G60" s="81"/>
@@ -5017,10 +4995,10 @@
     <row r="61" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="89"/>
       <c r="D61" s="94" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E61" s="95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F61" s="95"/>
     </row>
@@ -5226,7 +5204,7 @@
       <c r="B76" s="79"/>
       <c r="C76" s="78"/>
       <c r="D76" s="82" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E76" s="78"/>
       <c r="F76" s="78"/>
@@ -5295,7 +5273,7 @@
       <c r="B77" s="79"/>
       <c r="C77" s="78"/>
       <c r="D77" s="97" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E77" s="78"/>
       <c r="F77" s="78"/>
@@ -5363,7 +5341,7 @@
       <c r="B78" s="26"/>
       <c r="C78" s="44"/>
       <c r="D78" s="121" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E78" s="121"/>
       <c r="F78" s="121"/>
@@ -5874,7 +5852,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>12</v>
@@ -5895,7 +5873,7 @@
         <v>31</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="N5" s="46"/>
     </row>
@@ -5937,10 +5915,10 @@
       <c r="B8" s="27"/>
       <c r="C8" s="12"/>
       <c r="D8" s="30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -5952,7 +5930,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J8" s="12">
         <v>1</v>
@@ -5971,10 +5949,10 @@
       <c r="B9" s="27"/>
       <c r="C9" s="12"/>
       <c r="D9" s="106" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F9" s="108">
         <v>1</v>
@@ -5986,7 +5964,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="109" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J9" s="108">
         <v>1</v>
@@ -6014,7 +5992,7 @@
       <c r="B11" s="32"/>
       <c r="C11" s="12"/>
       <c r="D11" s="52" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -6048,10 +6026,10 @@
       <c r="B13" s="32"/>
       <c r="C13" s="12"/>
       <c r="D13" s="30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="F13" s="12">
         <v>1</v>
@@ -6063,7 +6041,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J13" s="12">
         <v>1</v>
@@ -6082,10 +6060,10 @@
       <c r="B14" s="32"/>
       <c r="C14" s="12"/>
       <c r="D14" s="106" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F14" s="108">
         <v>1</v>
@@ -6097,7 +6075,7 @@
         <v>33</v>
       </c>
       <c r="I14" s="109" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J14" s="108">
         <v>1</v>
@@ -6125,7 +6103,7 @@
       <c r="B16" s="33"/>
       <c r="C16" s="12"/>
       <c r="D16" s="52" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -6159,10 +6137,10 @@
       <c r="B18" s="33"/>
       <c r="C18" s="12"/>
       <c r="D18" s="30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F18" s="12">
         <v>1</v>
@@ -6174,7 +6152,7 @@
         <v>33</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J18" s="12">
         <v>1</v>
@@ -6193,10 +6171,10 @@
       <c r="B19" s="33"/>
       <c r="C19" s="12"/>
       <c r="D19" s="106" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E19" s="107" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="F19" s="108">
         <v>1</v>
@@ -6208,7 +6186,7 @@
         <v>33</v>
       </c>
       <c r="I19" s="109" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J19" s="108">
         <v>1</v>
@@ -6242,7 +6220,7 @@
       <c r="B21" s="34"/>
       <c r="C21" s="12"/>
       <c r="D21" s="48" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6277,7 +6255,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="12"/>
       <c r="D23" s="53" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -6312,10 +6290,10 @@
       <c r="B25" s="34"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="F25" s="12">
         <v>1</v>
@@ -6327,7 +6305,7 @@
         <v>33</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J25" s="12">
         <v>1</v>
@@ -6346,10 +6324,10 @@
       <c r="B26" s="34"/>
       <c r="C26" s="12"/>
       <c r="D26" s="106" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="F26" s="108">
         <v>1</v>
@@ -6361,7 +6339,7 @@
         <v>33</v>
       </c>
       <c r="I26" s="109" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J26" s="108">
         <v>1</v>
@@ -6389,7 +6367,7 @@
       <c r="B28" s="36"/>
       <c r="C28" s="12"/>
       <c r="D28" s="53" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -6424,10 +6402,10 @@
       <c r="B30" s="36"/>
       <c r="C30" s="12"/>
       <c r="D30" s="30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="F30" s="12">
         <v>1</v>
@@ -6439,7 +6417,7 @@
         <v>33</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J30" s="12">
         <v>1</v>
@@ -6458,10 +6436,10 @@
       <c r="B31" s="36"/>
       <c r="C31" s="12"/>
       <c r="D31" s="106" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F31" s="108">
         <v>1</v>
@@ -6473,7 +6451,7 @@
         <v>33</v>
       </c>
       <c r="I31" s="109" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J31" s="108">
         <v>1</v>
@@ -6685,7 +6663,7 @@
       <c r="B49" s="89"/>
       <c r="C49" s="10"/>
       <c r="D49" s="84" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E49" s="85"/>
       <c r="F49" s="85"/>
@@ -6754,10 +6732,10 @@
       <c r="B50" s="89"/>
       <c r="C50" s="10"/>
       <c r="D50" s="88" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E50" s="87" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F50" s="87"/>
       <c r="G50" s="10"/>
@@ -6825,10 +6803,10 @@
       <c r="B51" s="89"/>
       <c r="C51" s="10"/>
       <c r="D51" s="88" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E51" s="87" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F51" s="87"/>
       <c r="G51" s="10"/>
@@ -6896,10 +6874,10 @@
       <c r="B52" s="89"/>
       <c r="C52" s="10"/>
       <c r="D52" s="92" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E52" s="87" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F52" s="87"/>
       <c r="G52" s="86"/>
@@ -6967,10 +6945,10 @@
       <c r="B53" s="89"/>
       <c r="C53" s="10"/>
       <c r="D53" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="87" t="s">
         <v>94</v>
-      </c>
-      <c r="E53" s="87" t="s">
-        <v>105</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="10"/>
@@ -7041,7 +7019,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="87" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F54" s="87"/>
       <c r="G54" s="10"/>
@@ -7109,10 +7087,10 @@
       <c r="B55" s="89"/>
       <c r="C55" s="10"/>
       <c r="D55" s="88" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E55" s="87" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F55" s="87"/>
       <c r="G55" s="10"/>
@@ -7180,10 +7158,10 @@
       <c r="B56" s="89"/>
       <c r="C56" s="10"/>
       <c r="D56" s="92" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E56" s="87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F56" s="87"/>
       <c r="G56" s="10"/>
@@ -7251,10 +7229,10 @@
       <c r="B57" s="89"/>
       <c r="C57" s="10"/>
       <c r="D57" s="92" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E57" s="87" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F57" s="87"/>
       <c r="G57" s="10"/>
@@ -7322,10 +7300,10 @@
       <c r="B58" s="89"/>
       <c r="C58" s="10"/>
       <c r="D58" s="92" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="E58" s="87" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F58" s="87"/>
       <c r="G58" s="10"/>
@@ -7396,7 +7374,7 @@
         <v>2026</v>
       </c>
       <c r="E59" s="87" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F59" s="87"/>
       <c r="G59" s="10"/>
@@ -7464,10 +7442,10 @@
       <c r="B60" s="89"/>
       <c r="C60" s="10"/>
       <c r="D60" s="92" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E60" s="87" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F60" s="87"/>
       <c r="G60" s="10"/>
@@ -7535,10 +7513,10 @@
       <c r="B61" s="89"/>
       <c r="C61" s="10"/>
       <c r="D61" s="94" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E61" s="95" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F61" s="95"/>
       <c r="G61" s="10"/>
@@ -7808,7 +7786,7 @@
       <c r="B76" s="79"/>
       <c r="C76" s="78"/>
       <c r="D76" s="80" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E76" s="81"/>
       <c r="F76" s="81"/>
@@ -7877,7 +7855,7 @@
       <c r="B77" s="79"/>
       <c r="C77" s="78"/>
       <c r="D77" s="96" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E77" s="81"/>
       <c r="F77" s="81"/>
@@ -7946,7 +7924,7 @@
       <c r="B78" s="26"/>
       <c r="C78" s="2"/>
       <c r="D78" s="126" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E78" s="126"/>
       <c r="F78" s="126"/>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2554" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE111B50-D5C3-4528-98D4-FD2E3BD79206}"/>
+  <xr:revisionPtr revIDLastSave="2702" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF08FA4-FACE-46B2-90A9-E7A6454BDEE3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encapsulated Events'!$D$2:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">封装事件!$D$2:$K$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Encapsulated Events'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">封装事件!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Encapsulated Events'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">封装事件!$1:$3</definedName>
     <definedName name="RowTitleRegion1..E2" localSheetId="0">'Encapsulated Events'!#REF!</definedName>
     <definedName name="RowTitleRegion1..E2" localSheetId="1">封装事件!#REF!</definedName>
     <definedName name="RowTitleRegion2..I2" localSheetId="0">'Encapsulated Events'!#REF!</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
   <si>
     <t>https://www.123pan.com/s/zitA-9U9l</t>
   </si>
@@ -170,9 +170,6 @@
   <si>
     <t>PGP
 verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           Yi's Studio</t>
   </si>
   <si>
     <t>验证下载</t>
@@ -2621,7 +2618,7 @@
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2766,12 +2763,6 @@
     </font>
     <font>
       <sz val="28"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -2945,7 +2936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0066"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3057,7 +3048,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3071,9 +3062,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3209,24 +3197,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3263,7 +3251,7 @@
       <alignment horizontal="left" vertical="center" indent="8"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3275,51 +3263,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3340,16 +3328,16 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
@@ -3410,10 +3398,10 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3438,15 +3426,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3473,13 +3452,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3498,6 +3477,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
       <protection locked="0"/>
@@ -3514,6 +3499,9 @@
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -3527,6 +3515,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3989,20 +3983,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>311683</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5207533</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>330733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>920216</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183616</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>939266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="3" name="Picture 2" descr="sss">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8A51B6-B75D-4C90-ACB9-C5D60FC09851}"/>
@@ -4026,7 +4020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="578383" y="457733"/>
+          <a:off x="8661933" y="457733"/>
           <a:ext cx="608533" cy="608533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4036,30 +4030,96 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>511175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1552575" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9A126A-A307-DD10-D457-6C037A7B0C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344024" y="638175"/>
+          <a:ext cx="1552575" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="45720" rIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Yi's Studio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>309907</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5207000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>330735</xdr:rowOff>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>918440</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183083</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>939268</xdr:rowOff>
+      <xdr:rowOff>938733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4" descr="sss">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A851B8-8ECC-4BDD-9642-707A36198162}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60276E15-DC78-4F6C-8654-3FCF77EA32A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4080,7 +4140,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="576607" y="457735"/>
+          <a:off x="8661400" y="457200"/>
           <a:ext cx="608533" cy="608533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4090,6 +4150,75 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1552575" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E33AC9-AD08-4760-8015-97DB0FEF4DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9347200" y="641350"/>
+          <a:ext cx="1552575" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Yi's Studio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4273,1496 +4402,1494 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO100"/>
+  <dimension ref="A1:BO101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" style="42" customWidth="1"/>
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.6328125" style="11" customWidth="1"/>
-    <col min="6" max="7" width="11.6328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="38.6328125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="80.6328125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.6328125" style="27" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11.6328125" style="2" customWidth="1"/>
     <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="43" customWidth="1"/>
-    <col min="16" max="67" width="0" style="46" hidden="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.1796875" style="46" hidden="1"/>
+    <col min="15" max="15" width="2.6328125" style="42" customWidth="1"/>
+    <col min="16" max="67" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.1796875" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="123"/>
-    </row>
-    <row r="2" spans="1:15" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="121" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="119"/>
+    </row>
+    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
+      <c r="B3" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="119"/>
-    </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="38" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="44"/>
+    </row>
+    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="118"/>
+    </row>
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="17"/>
+      <c r="D6" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="17"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="17"/>
+      <c r="D8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="45" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="17"/>
+      <c r="D9" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="103">
+        <v>1</v>
+      </c>
+      <c r="G9" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="103">
+        <v>1</v>
+      </c>
+      <c r="K9" s="103">
+        <v>1</v>
+      </c>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="17"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="45"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="45"/>
+      <c r="B11" s="19"/>
+      <c r="D11" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45"/>
+      <c r="B12" s="19"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="O12" s="45"/>
+    </row>
+    <row r="13" spans="1:15" s="42" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="18"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+      <c r="D14" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="103">
+        <v>1</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="103">
+        <v>1</v>
+      </c>
+      <c r="K14" s="103">
+        <v>1</v>
+      </c>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="18"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="45"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="20"/>
+      <c r="D16" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="45"/>
+    </row>
+    <row r="17" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="20"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="45"/>
+    </row>
+    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="20"/>
+      <c r="D18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="20"/>
+      <c r="D19" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="103">
+        <v>1</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="103">
+        <v>1</v>
+      </c>
+      <c r="K19" s="103">
+        <v>1</v>
+      </c>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="45"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="45"/>
+      <c r="B21" s="21"/>
+      <c r="D21" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="O21" s="45"/>
+    </row>
+    <row r="22" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="45"/>
+      <c r="B22" s="22"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="O22" s="45"/>
+    </row>
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21"/>
+      <c r="D23" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="45"/>
+    </row>
+    <row r="24" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="21"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="21"/>
+      <c r="D25" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="21"/>
+      <c r="D26" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="103">
+        <v>1</v>
+      </c>
+      <c r="G26" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="103">
+        <v>1</v>
+      </c>
+      <c r="K26" s="103">
+        <v>1</v>
+      </c>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103">
+        <v>1</v>
+      </c>
+      <c r="O26" s="45"/>
+    </row>
+    <row r="27" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="21"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="45"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="23"/>
+      <c r="D28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="O28" s="45"/>
+    </row>
+    <row r="29" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="45"/>
+      <c r="B29" s="23"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="O29" s="45"/>
+    </row>
+    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="23"/>
+      <c r="D30" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="45"/>
+      <c r="B31" s="23"/>
+      <c r="D31" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="103">
+        <v>1</v>
+      </c>
+      <c r="G31" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="134" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" s="103">
+        <v>1</v>
+      </c>
+      <c r="K31" s="103">
+        <v>1</v>
+      </c>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="23"/>
+    </row>
+    <row r="33" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="44"/>
+    </row>
+    <row r="34" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="148"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="E34" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="96"/>
+    </row>
+    <row r="35" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="149"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
-      <c r="D5" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-      <c r="D7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="127" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18"/>
-      <c r="D8" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="104">
-        <v>1</v>
-      </c>
-      <c r="G8" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="104">
-        <v>1</v>
-      </c>
-      <c r="K8" s="104">
-        <v>1</v>
-      </c>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="46"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
-      <c r="B10" s="20"/>
-      <c r="D10" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="O10" s="46"/>
-    </row>
-    <row r="11" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
-      <c r="B11" s="20"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="O11" s="46"/>
-    </row>
-    <row r="12" spans="1:15" s="43" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
-      <c r="D13" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="104">
-        <v>1</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="138" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="104">
-        <v>1</v>
-      </c>
-      <c r="K13" s="104">
-        <v>1</v>
-      </c>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-      <c r="C14" s="2"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="46"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
-      <c r="D15" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="O15" s="46"/>
-    </row>
-    <row r="16" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="O16" s="46"/>
-    </row>
-    <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
-      <c r="D17" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-      <c r="D18" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="104">
-        <v>1</v>
-      </c>
-      <c r="G18" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="138" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="104">
-        <v>1</v>
-      </c>
-      <c r="K18" s="104">
-        <v>1</v>
-      </c>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="46"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46"/>
-      <c r="B20" s="22"/>
-      <c r="D20" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="O20" s="46"/>
-    </row>
-    <row r="21" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46"/>
-      <c r="B21" s="23"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="O21" s="46"/>
-    </row>
-    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22"/>
-      <c r="D22" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="O22" s="46"/>
-    </row>
-    <row r="23" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="O23" s="46"/>
-    </row>
-    <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22"/>
-      <c r="D24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="22"/>
-      <c r="D25" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="104">
-        <v>1</v>
-      </c>
-      <c r="G25" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="138" t="s">
-        <v>154</v>
-      </c>
-      <c r="I25" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="J25" s="104">
-        <v>1</v>
-      </c>
-      <c r="K25" s="104">
-        <v>1</v>
-      </c>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104">
-        <v>1</v>
-      </c>
-      <c r="O25" s="46"/>
-    </row>
-    <row r="26" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="22"/>
-      <c r="C26" s="2"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="46"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="24"/>
-      <c r="D27" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="O27" s="46"/>
-    </row>
-    <row r="28" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="24"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="O28" s="46"/>
-    </row>
-    <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="24"/>
-      <c r="D29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46"/>
-      <c r="B30" s="24"/>
-      <c r="D30" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="104">
-        <v>1</v>
-      </c>
-      <c r="G30" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="138" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="104">
-        <v>1</v>
-      </c>
-      <c r="K30" s="104">
-        <v>1</v>
-      </c>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="24"/>
-    </row>
-    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="45"/>
-    </row>
-    <row r="33" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="97"/>
-    </row>
-    <row r="34" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="122"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="106" t="s">
+      <c r="E35" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="107"/>
-    </row>
-    <row r="35" spans="2:13" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="40" t="s">
+      <c r="F35" s="105"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="106"/>
+    </row>
+    <row r="36" spans="2:13" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="140" t="s">
+      <c r="F36" s="39"/>
+      <c r="G36" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="140"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-    </row>
-    <row r="36" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="45"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="138"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
       <c r="M36" s="43"/>
     </row>
     <row r="37" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="58"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="59" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="M37" s="42"/>
+    </row>
+    <row r="38" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="57"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+    </row>
+    <row r="39" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="57"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="M39" s="42"/>
+    </row>
+    <row r="40" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="57"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-    </row>
-    <row r="38" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="58"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="M38" s="43"/>
-    </row>
-    <row r="39" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="58"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="54" t="s">
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="M40" s="42"/>
+    </row>
+    <row r="41" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="57"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="M39" s="43"/>
-    </row>
-    <row r="40" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="58"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="54" t="s">
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="M41" s="42"/>
+    </row>
+    <row r="42" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="57"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="M40" s="43"/>
-    </row>
-    <row r="41" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="58"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="M41" s="43"/>
-    </row>
-    <row r="42" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="58"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="M42" s="43"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="M42" s="42"/>
     </row>
     <row r="43" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="58"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="129"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="58"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="67" t="s">
+      <c r="B44" s="57"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="125"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+    </row>
+    <row r="45" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="57"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="M45" s="42"/>
+    </row>
+    <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="57"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="M44" s="43"/>
-    </row>
-    <row r="45" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="58"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="67" t="s">
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="M46" s="42"/>
+    </row>
+    <row r="47" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="57"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="M45" s="43"/>
-    </row>
-    <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="58"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="M46" s="43"/>
-    </row>
-    <row r="47" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="58"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="M47" s="43"/>
-    </row>
-    <row r="48" spans="2:13" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="88"/>
-      <c r="D48" s="83" t="s">
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="M47" s="42"/>
+    </row>
+    <row r="48" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="57"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="M48" s="42"/>
+    </row>
+    <row r="49" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="87"/>
+      <c r="D49" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+    </row>
+    <row r="50" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="87"/>
+      <c r="D50" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="85"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="87"/>
+      <c r="D51" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="85"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="87"/>
+      <c r="D52" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="85"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="7"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+    </row>
+    <row r="53" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="87"/>
+      <c r="D53" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="85"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="87"/>
+      <c r="D54" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="85"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="87"/>
+      <c r="D55" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="85"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="87"/>
+      <c r="D56" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="85"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="87"/>
+      <c r="D57" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="85"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="87"/>
+      <c r="D58" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-    </row>
-    <row r="49" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="88"/>
-      <c r="D49" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="86"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="88"/>
-      <c r="D50" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="86" t="s">
+      <c r="E58" s="85">
+        <v>1</v>
+      </c>
+      <c r="F58" s="85"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="87"/>
+      <c r="D59" s="90">
+        <v>2026</v>
+      </c>
+      <c r="E59" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="85"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="79"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="86"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="88"/>
-      <c r="D51" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="8"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-    </row>
-    <row r="52" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="88"/>
-      <c r="D52" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="86"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="88"/>
-      <c r="D53" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="86"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="88"/>
-      <c r="D54" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" s="86"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="88"/>
-      <c r="D55" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="86"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="88"/>
-      <c r="D56" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="86"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="88"/>
-      <c r="D57" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="86">
-        <v>1</v>
-      </c>
-      <c r="F57" s="86"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="88"/>
-      <c r="D58" s="91">
-        <v>2026</v>
-      </c>
-      <c r="E58" s="86" t="s">
+      <c r="F60" s="89"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="79"/>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="79"/>
+      <c r="AB60" s="79"/>
+      <c r="AC60" s="79"/>
+      <c r="AD60" s="79"/>
+      <c r="AE60" s="79"/>
+      <c r="AF60" s="79"/>
+      <c r="AG60" s="79"/>
+      <c r="AH60" s="79"/>
+      <c r="AI60" s="79"/>
+      <c r="AJ60" s="79"/>
+      <c r="AK60" s="79"/>
+      <c r="AL60" s="79"/>
+      <c r="AM60" s="79"/>
+      <c r="AN60" s="79"/>
+      <c r="AO60" s="79"/>
+      <c r="AP60" s="79"/>
+      <c r="AQ60" s="79"/>
+      <c r="AR60" s="79"/>
+      <c r="AS60" s="79"/>
+      <c r="AT60" s="79"/>
+      <c r="AU60" s="79"/>
+      <c r="AV60" s="79"/>
+      <c r="AW60" s="79"/>
+      <c r="AX60" s="79"/>
+      <c r="AY60" s="79"/>
+      <c r="AZ60" s="79"/>
+      <c r="BA60" s="79"/>
+      <c r="BB60" s="79"/>
+      <c r="BC60" s="79"/>
+      <c r="BD60" s="79"/>
+      <c r="BE60" s="79"/>
+      <c r="BF60" s="79"/>
+      <c r="BG60" s="79"/>
+      <c r="BH60" s="79"/>
+      <c r="BI60" s="79"/>
+      <c r="BJ60" s="79"/>
+      <c r="BK60" s="79"/>
+      <c r="BL60" s="79"/>
+      <c r="BM60" s="79"/>
+    </row>
+    <row r="61" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="87"/>
+      <c r="D61" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="86"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="80"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="92" t="s">
+      <c r="E61" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="90"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="80"/>
-      <c r="S59" s="80"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="80"/>
-      <c r="V59" s="80"/>
-      <c r="W59" s="80"/>
-      <c r="X59" s="80"/>
-      <c r="Y59" s="80"/>
-      <c r="Z59" s="80"/>
-      <c r="AA59" s="80"/>
-      <c r="AB59" s="80"/>
-      <c r="AC59" s="80"/>
-      <c r="AD59" s="80"/>
-      <c r="AE59" s="80"/>
-      <c r="AF59" s="80"/>
-      <c r="AG59" s="80"/>
-      <c r="AH59" s="80"/>
-      <c r="AI59" s="80"/>
-      <c r="AJ59" s="80"/>
-      <c r="AK59" s="80"/>
-      <c r="AL59" s="80"/>
-      <c r="AM59" s="80"/>
-      <c r="AN59" s="80"/>
-      <c r="AO59" s="80"/>
-      <c r="AP59" s="80"/>
-      <c r="AQ59" s="80"/>
-      <c r="AR59" s="80"/>
-      <c r="AS59" s="80"/>
-      <c r="AT59" s="80"/>
-      <c r="AU59" s="80"/>
-      <c r="AV59" s="80"/>
-      <c r="AW59" s="80"/>
-      <c r="AX59" s="80"/>
-      <c r="AY59" s="80"/>
-      <c r="AZ59" s="80"/>
-      <c r="BA59" s="80"/>
-      <c r="BB59" s="80"/>
-      <c r="BC59" s="80"/>
-      <c r="BD59" s="80"/>
-      <c r="BE59" s="80"/>
-      <c r="BF59" s="80"/>
-      <c r="BG59" s="80"/>
-      <c r="BH59" s="80"/>
-      <c r="BI59" s="80"/>
-      <c r="BJ59" s="80"/>
-      <c r="BK59" s="80"/>
-      <c r="BL59" s="80"/>
-      <c r="BM59" s="80"/>
-    </row>
-    <row r="60" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="88"/>
-      <c r="D60" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="94"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:65" s="80" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="88"/>
-      <c r="H61" s="131"/>
-    </row>
-    <row r="62" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="58"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="59" t="s">
+      <c r="F61" s="93"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:65" s="79" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="87"/>
+      <c r="H62" s="127"/>
+    </row>
+    <row r="63" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="57"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+    </row>
+    <row r="64" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="57"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="128"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-    </row>
-    <row r="63" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="58"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="M63" s="43"/>
-    </row>
-    <row r="64" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="58"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="M64" s="43"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="M64" s="42"/>
     </row>
     <row r="65" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="58"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="M65" s="42"/>
     </row>
     <row r="66" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="58"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="M66" s="43"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
     </row>
     <row r="67" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="58"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="M67" s="43"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="M67" s="42"/>
     </row>
     <row r="68" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="58"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="M68" s="43"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="M68" s="42"/>
     </row>
     <row r="69" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="58"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="M69" s="43"/>
-    </row>
-    <row r="70" spans="1:65" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="1:65" s="9" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="57"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="M69" s="42"/>
+    </row>
+    <row r="70" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="57"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="M70" s="42"/>
+    </row>
+    <row r="71" spans="1:65" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
-      <c r="B71" s="32"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="D71" s="69"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="132"/>
+      <c r="H71" s="128"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="11"/>
+      <c r="N71" s="10"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="32"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="M72" s="43"/>
+    <row r="72" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="25"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="50" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="M73" s="42"/>
+    </row>
+    <row r="74" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="24"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-    </row>
-    <row r="74" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="25"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="121"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="77"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="133"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
-      <c r="M75" s="77"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="77"/>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="77"/>
-      <c r="R75" s="77"/>
-      <c r="S75" s="77"/>
-      <c r="T75" s="77"/>
-      <c r="U75" s="77"/>
-      <c r="V75" s="77"/>
-      <c r="W75" s="77"/>
-      <c r="X75" s="77"/>
-      <c r="Y75" s="77"/>
-      <c r="Z75" s="77"/>
-      <c r="AA75" s="77"/>
-      <c r="AB75" s="77"/>
-      <c r="AC75" s="77"/>
-      <c r="AD75" s="77"/>
-      <c r="AE75" s="77"/>
-      <c r="AF75" s="77"/>
-      <c r="AG75" s="77"/>
-      <c r="AH75" s="77"/>
-      <c r="AI75" s="77"/>
-      <c r="AJ75" s="77"/>
-      <c r="AK75" s="77"/>
-      <c r="AL75" s="77"/>
-      <c r="AM75" s="77"/>
-      <c r="AN75" s="77"/>
-      <c r="AO75" s="77"/>
-      <c r="AP75" s="77"/>
-      <c r="AQ75" s="77"/>
-      <c r="AR75" s="77"/>
-      <c r="AS75" s="77"/>
-      <c r="AT75" s="77"/>
-      <c r="AU75" s="77"/>
-      <c r="AV75" s="77"/>
-      <c r="AW75" s="77"/>
-      <c r="AX75" s="77"/>
-      <c r="AY75" s="77"/>
-      <c r="AZ75" s="77"/>
-      <c r="BA75" s="77"/>
-      <c r="BB75" s="77"/>
-      <c r="BC75" s="77"/>
-      <c r="BD75" s="77"/>
-      <c r="BE75" s="77"/>
-      <c r="BF75" s="77"/>
-      <c r="BG75" s="77"/>
-      <c r="BH75" s="77"/>
-      <c r="BI75" s="77"/>
-      <c r="BJ75" s="77"/>
-      <c r="BK75" s="77"/>
-      <c r="BL75" s="77"/>
-      <c r="BM75" s="77"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="133"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="77"/>
-      <c r="N76" s="77"/>
-      <c r="O76" s="77"/>
-      <c r="P76" s="77"/>
-      <c r="Q76" s="77"/>
-      <c r="R76" s="77"/>
-      <c r="S76" s="77"/>
-      <c r="T76" s="77"/>
-      <c r="U76" s="77"/>
-      <c r="V76" s="77"/>
-      <c r="W76" s="77"/>
-      <c r="X76" s="77"/>
-      <c r="Y76" s="77"/>
-      <c r="Z76" s="77"/>
-      <c r="AA76" s="77"/>
-      <c r="AB76" s="77"/>
-      <c r="AC76" s="77"/>
-      <c r="AD76" s="77"/>
-      <c r="AE76" s="77"/>
-      <c r="AF76" s="77"/>
-      <c r="AG76" s="77"/>
-      <c r="AH76" s="77"/>
-      <c r="AI76" s="77"/>
-      <c r="AJ76" s="77"/>
-      <c r="AK76" s="77"/>
-      <c r="AL76" s="77"/>
-      <c r="AM76" s="77"/>
-      <c r="AN76" s="77"/>
-      <c r="AO76" s="77"/>
-      <c r="AP76" s="77"/>
-      <c r="AQ76" s="77"/>
-      <c r="AR76" s="77"/>
-      <c r="AS76" s="77"/>
-      <c r="AT76" s="77"/>
-      <c r="AU76" s="77"/>
-      <c r="AV76" s="77"/>
-      <c r="AW76" s="77"/>
-      <c r="AX76" s="77"/>
-      <c r="AY76" s="77"/>
-      <c r="AZ76" s="77"/>
-      <c r="BA76" s="77"/>
-      <c r="BB76" s="77"/>
-      <c r="BC76" s="77"/>
-      <c r="BD76" s="77"/>
-      <c r="BE76" s="77"/>
-      <c r="BF76" s="77"/>
-      <c r="BG76" s="77"/>
-      <c r="BH76" s="77"/>
-      <c r="BI76" s="77"/>
-      <c r="BJ76" s="77"/>
-      <c r="BK76" s="77"/>
-      <c r="BL76" s="77"/>
-      <c r="BM76" s="77"/>
-    </row>
-    <row r="77" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="25"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="E77" s="139"/>
-      <c r="F77" s="139"/>
-      <c r="G77" s="139"/>
-      <c r="H77" s="139"/>
-      <c r="I77" s="139"/>
-      <c r="J77" s="139"/>
-      <c r="K77" s="139"/>
-      <c r="L77" s="139"/>
-      <c r="M77" s="139"/>
-    </row>
-    <row r="78" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="132"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="M78" s="43"/>
-    </row>
-    <row r="80" spans="1:65" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="76"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="129"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="76"/>
+      <c r="O76" s="76"/>
+      <c r="P76" s="76"/>
+      <c r="Q76" s="76"/>
+      <c r="R76" s="76"/>
+      <c r="S76" s="76"/>
+      <c r="T76" s="76"/>
+      <c r="U76" s="76"/>
+      <c r="V76" s="76"/>
+      <c r="W76" s="76"/>
+      <c r="X76" s="76"/>
+      <c r="Y76" s="76"/>
+      <c r="Z76" s="76"/>
+      <c r="AA76" s="76"/>
+      <c r="AB76" s="76"/>
+      <c r="AC76" s="76"/>
+      <c r="AD76" s="76"/>
+      <c r="AE76" s="76"/>
+      <c r="AF76" s="76"/>
+      <c r="AG76" s="76"/>
+      <c r="AH76" s="76"/>
+      <c r="AI76" s="76"/>
+      <c r="AJ76" s="76"/>
+      <c r="AK76" s="76"/>
+      <c r="AL76" s="76"/>
+      <c r="AM76" s="76"/>
+      <c r="AN76" s="76"/>
+      <c r="AO76" s="76"/>
+      <c r="AP76" s="76"/>
+      <c r="AQ76" s="76"/>
+      <c r="AR76" s="76"/>
+      <c r="AS76" s="76"/>
+      <c r="AT76" s="76"/>
+      <c r="AU76" s="76"/>
+      <c r="AV76" s="76"/>
+      <c r="AW76" s="76"/>
+      <c r="AX76" s="76"/>
+      <c r="AY76" s="76"/>
+      <c r="AZ76" s="76"/>
+      <c r="BA76" s="76"/>
+      <c r="BB76" s="76"/>
+      <c r="BC76" s="76"/>
+      <c r="BD76" s="76"/>
+      <c r="BE76" s="76"/>
+      <c r="BF76" s="76"/>
+      <c r="BG76" s="76"/>
+      <c r="BH76" s="76"/>
+      <c r="BI76" s="76"/>
+      <c r="BJ76" s="76"/>
+      <c r="BK76" s="76"/>
+      <c r="BL76" s="76"/>
+      <c r="BM76" s="76"/>
+    </row>
+    <row r="77" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="76"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="129"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="76"/>
+      <c r="O77" s="76"/>
+      <c r="P77" s="76"/>
+      <c r="Q77" s="76"/>
+      <c r="R77" s="76"/>
+      <c r="S77" s="76"/>
+      <c r="T77" s="76"/>
+      <c r="U77" s="76"/>
+      <c r="V77" s="76"/>
+      <c r="W77" s="76"/>
+      <c r="X77" s="76"/>
+      <c r="Y77" s="76"/>
+      <c r="Z77" s="76"/>
+      <c r="AA77" s="76"/>
+      <c r="AB77" s="76"/>
+      <c r="AC77" s="76"/>
+      <c r="AD77" s="76"/>
+      <c r="AE77" s="76"/>
+      <c r="AF77" s="76"/>
+      <c r="AG77" s="76"/>
+      <c r="AH77" s="76"/>
+      <c r="AI77" s="76"/>
+      <c r="AJ77" s="76"/>
+      <c r="AK77" s="76"/>
+      <c r="AL77" s="76"/>
+      <c r="AM77" s="76"/>
+      <c r="AN77" s="76"/>
+      <c r="AO77" s="76"/>
+      <c r="AP77" s="76"/>
+      <c r="AQ77" s="76"/>
+      <c r="AR77" s="76"/>
+      <c r="AS77" s="76"/>
+      <c r="AT77" s="76"/>
+      <c r="AU77" s="76"/>
+      <c r="AV77" s="76"/>
+      <c r="AW77" s="76"/>
+      <c r="AX77" s="76"/>
+      <c r="AY77" s="76"/>
+      <c r="AZ77" s="76"/>
+      <c r="BA77" s="76"/>
+      <c r="BB77" s="76"/>
+      <c r="BC77" s="76"/>
+      <c r="BD77" s="76"/>
+      <c r="BE77" s="76"/>
+      <c r="BF77" s="76"/>
+      <c r="BG77" s="76"/>
+      <c r="BH77" s="76"/>
+      <c r="BI77" s="76"/>
+      <c r="BJ77" s="76"/>
+      <c r="BK77" s="76"/>
+      <c r="BL77" s="76"/>
+      <c r="BM77" s="76"/>
+    </row>
+    <row r="78" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="24"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="137"/>
+      <c r="M78" s="137"/>
+    </row>
+    <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="128"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="M79" s="42"/>
+    </row>
+    <row r="81" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="28"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="27"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -5770,14 +5897,14 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="28"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="27"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -5785,14 +5912,14 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="28"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="27"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -5800,14 +5927,14 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="28"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="27"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -5815,14 +5942,14 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="28"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -5830,14 +5957,14 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="28"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="27"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5845,14 +5972,14 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="28"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="27"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5860,14 +5987,14 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="28"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="27"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -5875,14 +6002,14 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="28"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="27"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5890,14 +6017,14 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="28"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="27"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5905,14 +6032,14 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="28"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="27"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5920,14 +6047,14 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="28"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="27"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5935,14 +6062,14 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="28"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="27"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -5950,14 +6077,14 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="28"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="27"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -5965,14 +6092,14 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="28"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="27"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -5980,14 +6107,14 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="28"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="27"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -5995,14 +6122,14 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="28"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="27"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -6010,14 +6137,14 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="28"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="27"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -6025,14 +6152,14 @@
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="28"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="27"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -6040,14 +6167,14 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="2:14" s="43" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="28"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="27"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -6055,20 +6182,36 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
+    <row r="101" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
-  <mergeCells count="8">
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:L32"/>
+  <mergeCells count="9">
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:L33"/>
     <mergeCell ref="I34:L34"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:F8 F12:F13 F17:F18 F24:F25 F29:F30">
+  <conditionalFormatting sqref="F8:F9 F13:F14 F18:F19 F25:F26 F30:F31">
     <cfRule type="iconSet" priority="2">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
@@ -6077,7 +6220,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:K8 J12:K13 J17:K18 J24:K25 J29:K30">
+  <conditionalFormatting sqref="J8:K9 J13:K14 J18:K19 J25:K26 J30:K31">
     <cfRule type="iconSet" priority="420">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -6086,7 +6229,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M8 M12:M13 M17:M18 M24:M25 M29:M30">
+  <conditionalFormatting sqref="M8:M9 M13:M14 M18:M19 M25:M26 M30:M31">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -6095,33 +6238,33 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8 F12:F13 F17:F18 F24:F25 F29:F30 J17:M18 J29:M30 J24:M25 J7:M8 J12:M13" xr:uid="{23AE6323-BC7F-40E9-A5AD-9DE77137CC3B}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F9 F13:F14 F18:F19 F25:F26 F30:F31 J18:M19 J30:M31 J25:M26 J8:M9 J13:M14" xr:uid="{23AE6323-BC7F-40E9-A5AD-9DE77137CC3B}">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I31" r:id="rId1" display="https://www.aliyundrive.com/s/YijzdWfm18n" xr:uid="{835EB78C-226C-49EA-A62A-94B842F8E249}"/>
-    <hyperlink ref="E34" r:id="rId2" xr:uid="{8F19ACC2-7D7D-4F23-A461-BE431C9774DD}"/>
-    <hyperlink ref="E33" r:id="rId3" xr:uid="{0ACC2286-43BC-446A-8F21-5F74500FA79E}"/>
-    <hyperlink ref="D74" r:id="rId4" xr:uid="{5C54CA99-D324-49ED-A61D-16022DD5224D}"/>
-    <hyperlink ref="D65" r:id="rId5" display="Learning: How to deploy an operating system" xr:uid="{2A775E0C-99A5-4A5C-A40D-64E8EA8CB591}"/>
-    <hyperlink ref="E35" r:id="rId6" xr:uid="{04227A1E-803F-49E4-A483-BEDBB0C9649E}"/>
-    <hyperlink ref="D69" r:id="rId7" xr:uid="{5806D3CF-A4C9-40AA-9CA5-E02AE48C5609}"/>
-    <hyperlink ref="D66" r:id="rId8" xr:uid="{12DEFC6E-F8C1-4742-B234-4FE8338EA338}"/>
-    <hyperlink ref="D71" r:id="rId9" xr:uid="{E0B6390E-CCDA-4FF2-9731-33C80DDEB364}"/>
-    <hyperlink ref="D38" r:id="rId10" xr:uid="{D9136AB0-4C5D-4ECD-879B-AC512FE35C63}"/>
-    <hyperlink ref="D77:K77" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
-    <hyperlink ref="E60" r:id="rId12" display="ISO = ISO file; .ASC = PGP signature file, which can verify whether it was released by Yi. Learn more at: https://fengyi.tel/pgp" xr:uid="{7EFEEFB5-60BB-4141-8185-A8B70CB17187}"/>
+    <hyperlink ref="I32" r:id="rId1" display="https://www.aliyundrive.com/s/YijzdWfm18n" xr:uid="{835EB78C-226C-49EA-A62A-94B842F8E249}"/>
+    <hyperlink ref="E35" r:id="rId2" xr:uid="{8F19ACC2-7D7D-4F23-A461-BE431C9774DD}"/>
+    <hyperlink ref="E34" r:id="rId3" xr:uid="{0ACC2286-43BC-446A-8F21-5F74500FA79E}"/>
+    <hyperlink ref="D75" r:id="rId4" xr:uid="{5C54CA99-D324-49ED-A61D-16022DD5224D}"/>
+    <hyperlink ref="D66" r:id="rId5" display="Learning: How to deploy an operating system" xr:uid="{2A775E0C-99A5-4A5C-A40D-64E8EA8CB591}"/>
+    <hyperlink ref="E36" r:id="rId6" xr:uid="{04227A1E-803F-49E4-A483-BEDBB0C9649E}"/>
+    <hyperlink ref="D70" r:id="rId7" xr:uid="{5806D3CF-A4C9-40AA-9CA5-E02AE48C5609}"/>
+    <hyperlink ref="D67" r:id="rId8" xr:uid="{12DEFC6E-F8C1-4742-B234-4FE8338EA338}"/>
+    <hyperlink ref="D72" r:id="rId9" xr:uid="{E0B6390E-CCDA-4FF2-9731-33C80DDEB364}"/>
+    <hyperlink ref="D39" r:id="rId10" xr:uid="{D9136AB0-4C5D-4ECD-879B-AC512FE35C63}"/>
+    <hyperlink ref="D78:K78" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
+    <hyperlink ref="E61" r:id="rId12" display="ISO = ISO file; .ASC = PGP signature file, which can verify whether it was released by Yi. Learn more at: https://fengyi.tel/pgp" xr:uid="{7EFEEFB5-60BB-4141-8185-A8B70CB17187}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="8" scale="51" fitToHeight="0" orientation="portrait" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Aptos Narrow,Regular"&amp;10Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="16383" man="1"/>
+    <brk id="48" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId14"/>
 </worksheet>
@@ -6133,2212 +6276,2226 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO78"/>
+  <dimension ref="A1:BO79"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" style="42" customWidth="1"/>
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.6328125" style="11" customWidth="1"/>
-    <col min="6" max="7" width="11.6328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="38.6328125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="80.6328125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.6328125" style="27" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11.6328125" style="2" customWidth="1"/>
     <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="43" customWidth="1"/>
-    <col min="16" max="67" width="0" style="46" hidden="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.1796875" style="46" hidden="1"/>
+    <col min="15" max="15" width="2.6328125" style="42" customWidth="1"/>
+    <col min="16" max="67" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.1796875" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="123"/>
-    </row>
-    <row r="2" spans="1:15" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="119"/>
+    </row>
+    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
+      <c r="B3" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="44"/>
+    </row>
+    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="45"/>
+    </row>
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="25"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="25"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="132" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10">
+        <v>1</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="25"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="101">
+        <v>1</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="101">
+        <v>1</v>
+      </c>
+      <c r="K9" s="101">
+        <v>1</v>
+      </c>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="45"/>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="25"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="45"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="30"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="45"/>
+    </row>
+    <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="30"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10">
+        <v>1</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="30"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="101">
+        <v>1</v>
+      </c>
+      <c r="G14" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="133" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="101">
+        <v>1</v>
+      </c>
+      <c r="K14" s="101">
+        <v>1</v>
+      </c>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="45"/>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="30"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="45"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="31"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="45"/>
+    </row>
+    <row r="17" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="31"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="45"/>
+    </row>
+    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="31"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="132" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="45"/>
+    </row>
+    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="31"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="101">
+        <v>1</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="101">
+        <v>1</v>
+      </c>
+      <c r="K19" s="101">
+        <v>1</v>
+      </c>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="45"/>
+    </row>
+    <row r="20" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="31"/>
+      <c r="C20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="45"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="45"/>
+    </row>
+    <row r="22" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="45"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="45"/>
+    </row>
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="32"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="45"/>
+    </row>
+    <row r="24" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="32"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="132" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10">
+        <v>1</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="45"/>
+    </row>
+    <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="32"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="101">
+        <v>1</v>
+      </c>
+      <c r="G26" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="101">
+        <v>1</v>
+      </c>
+      <c r="K26" s="101">
+        <v>1</v>
+      </c>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101">
+        <v>1</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="45"/>
+    </row>
+    <row r="27" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="32"/>
+      <c r="C27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="45"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="34"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="45"/>
+    </row>
+    <row r="29" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="27"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="45"/>
+    </row>
+    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="34"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10">
+        <v>1</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="45"/>
+    </row>
+    <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="34"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="101">
+        <v>1</v>
+      </c>
+      <c r="G31" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="101">
+        <v>1</v>
+      </c>
+      <c r="K31" s="101">
+        <v>1</v>
+      </c>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101">
+        <v>1</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="45"/>
+    </row>
+    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="34"/>
+      <c r="C32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="45"/>
+    </row>
+    <row r="33" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="148"/>
+      <c r="D34" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="144"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="149"/>
+      <c r="D35" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="108"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="41"/>
+      <c r="D36" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="146"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="42"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+    </row>
+    <row r="39" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="42"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="42"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="42"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="42"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="42"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="42"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="42"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="42"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="57"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="8"/>
+      <c r="AO49" s="8"/>
+      <c r="AP49" s="8"/>
+      <c r="AQ49" s="8"/>
+      <c r="AR49" s="8"/>
+      <c r="AS49" s="8"/>
+      <c r="AT49" s="8"/>
+      <c r="AU49" s="8"/>
+      <c r="AV49" s="8"/>
+      <c r="AW49" s="8"/>
+      <c r="AX49" s="8"/>
+      <c r="AY49" s="8"/>
+      <c r="AZ49" s="8"/>
+      <c r="BA49" s="8"/>
+      <c r="BB49" s="8"/>
+      <c r="BC49" s="8"/>
+      <c r="BD49" s="8"/>
+      <c r="BE49" s="8"/>
+      <c r="BF49" s="8"/>
+      <c r="BG49" s="8"/>
+      <c r="BH49" s="8"/>
+      <c r="BI49" s="8"/>
+      <c r="BJ49" s="8"/>
+      <c r="BK49" s="8"/>
+      <c r="BL49" s="8"/>
+      <c r="BM49" s="8"/>
+    </row>
+    <row r="50" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="85"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+      <c r="AP50" s="8"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="8"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="8"/>
+      <c r="AU50" s="8"/>
+      <c r="AV50" s="8"/>
+      <c r="AW50" s="8"/>
+      <c r="AX50" s="8"/>
+      <c r="AY50" s="8"/>
+      <c r="AZ50" s="8"/>
+      <c r="BA50" s="8"/>
+      <c r="BB50" s="8"/>
+      <c r="BC50" s="8"/>
+      <c r="BD50" s="8"/>
+      <c r="BE50" s="8"/>
+      <c r="BF50" s="8"/>
+      <c r="BG50" s="8"/>
+      <c r="BH50" s="8"/>
+      <c r="BI50" s="8"/>
+      <c r="BJ50" s="8"/>
+      <c r="BK50" s="8"/>
+      <c r="BL50" s="8"/>
+      <c r="BM50" s="8"/>
+    </row>
+    <row r="51" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="85"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8"/>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="8"/>
+      <c r="AS51" s="8"/>
+      <c r="AT51" s="8"/>
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="8"/>
+      <c r="AW51" s="8"/>
+      <c r="AX51" s="8"/>
+      <c r="AY51" s="8"/>
+      <c r="AZ51" s="8"/>
+      <c r="BA51" s="8"/>
+      <c r="BB51" s="8"/>
+      <c r="BC51" s="8"/>
+      <c r="BD51" s="8"/>
+      <c r="BE51" s="8"/>
+      <c r="BF51" s="8"/>
+      <c r="BG51" s="8"/>
+      <c r="BH51" s="8"/>
+      <c r="BI51" s="8"/>
+      <c r="BJ51" s="8"/>
+      <c r="BK51" s="8"/>
+      <c r="BL51" s="8"/>
+      <c r="BM51" s="8"/>
+    </row>
+    <row r="52" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="85"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="8"/>
+      <c r="AR52" s="8"/>
+      <c r="AS52" s="8"/>
+      <c r="AT52" s="8"/>
+      <c r="AU52" s="8"/>
+      <c r="AV52" s="8"/>
+      <c r="AW52" s="8"/>
+      <c r="AX52" s="8"/>
+      <c r="AY52" s="8"/>
+      <c r="AZ52" s="8"/>
+      <c r="BA52" s="8"/>
+      <c r="BB52" s="8"/>
+      <c r="BC52" s="8"/>
+      <c r="BD52" s="8"/>
+      <c r="BE52" s="8"/>
+      <c r="BF52" s="8"/>
+      <c r="BG52" s="8"/>
+      <c r="BH52" s="8"/>
+      <c r="BI52" s="8"/>
+      <c r="BJ52" s="8"/>
+      <c r="BK52" s="8"/>
+      <c r="BL52" s="8"/>
+      <c r="BM52" s="8"/>
+    </row>
+    <row r="53" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="85"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="8"/>
+      <c r="AP53" s="8"/>
+      <c r="AQ53" s="8"/>
+      <c r="AR53" s="8"/>
+      <c r="AS53" s="8"/>
+      <c r="AT53" s="8"/>
+      <c r="AU53" s="8"/>
+      <c r="AV53" s="8"/>
+      <c r="AW53" s="8"/>
+      <c r="AX53" s="8"/>
+      <c r="AY53" s="8"/>
+      <c r="AZ53" s="8"/>
+      <c r="BA53" s="8"/>
+      <c r="BB53" s="8"/>
+      <c r="BC53" s="8"/>
+      <c r="BD53" s="8"/>
+      <c r="BE53" s="8"/>
+      <c r="BF53" s="8"/>
+      <c r="BG53" s="8"/>
+      <c r="BH53" s="8"/>
+      <c r="BI53" s="8"/>
+      <c r="BJ53" s="8"/>
+      <c r="BK53" s="8"/>
+      <c r="BL53" s="8"/>
+      <c r="BM53" s="8"/>
+    </row>
+    <row r="54" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="85"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="8"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" s="8"/>
+      <c r="AS54" s="8"/>
+      <c r="AT54" s="8"/>
+      <c r="AU54" s="8"/>
+      <c r="AV54" s="8"/>
+      <c r="AW54" s="8"/>
+      <c r="AX54" s="8"/>
+      <c r="AY54" s="8"/>
+      <c r="AZ54" s="8"/>
+      <c r="BA54" s="8"/>
+      <c r="BB54" s="8"/>
+      <c r="BC54" s="8"/>
+      <c r="BD54" s="8"/>
+      <c r="BE54" s="8"/>
+      <c r="BF54" s="8"/>
+      <c r="BG54" s="8"/>
+      <c r="BH54" s="8"/>
+      <c r="BI54" s="8"/>
+      <c r="BJ54" s="8"/>
+      <c r="BK54" s="8"/>
+      <c r="BL54" s="8"/>
+      <c r="BM54" s="8"/>
+    </row>
+    <row r="55" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="85"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="8"/>
+      <c r="AO55" s="8"/>
+      <c r="AP55" s="8"/>
+      <c r="AQ55" s="8"/>
+      <c r="AR55" s="8"/>
+      <c r="AS55" s="8"/>
+      <c r="AT55" s="8"/>
+      <c r="AU55" s="8"/>
+      <c r="AV55" s="8"/>
+      <c r="AW55" s="8"/>
+      <c r="AX55" s="8"/>
+      <c r="AY55" s="8"/>
+      <c r="AZ55" s="8"/>
+      <c r="BA55" s="8"/>
+      <c r="BB55" s="8"/>
+      <c r="BC55" s="8"/>
+      <c r="BD55" s="8"/>
+      <c r="BE55" s="8"/>
+      <c r="BF55" s="8"/>
+      <c r="BG55" s="8"/>
+      <c r="BH55" s="8"/>
+      <c r="BI55" s="8"/>
+      <c r="BJ55" s="8"/>
+      <c r="BK55" s="8"/>
+      <c r="BL55" s="8"/>
+      <c r="BM55" s="8"/>
+    </row>
+    <row r="56" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="85"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="8"/>
+      <c r="AN56" s="8"/>
+      <c r="AO56" s="8"/>
+      <c r="AP56" s="8"/>
+      <c r="AQ56" s="8"/>
+      <c r="AR56" s="8"/>
+      <c r="AS56" s="8"/>
+      <c r="AT56" s="8"/>
+      <c r="AU56" s="8"/>
+      <c r="AV56" s="8"/>
+      <c r="AW56" s="8"/>
+      <c r="AX56" s="8"/>
+      <c r="AY56" s="8"/>
+      <c r="AZ56" s="8"/>
+      <c r="BA56" s="8"/>
+      <c r="BB56" s="8"/>
+      <c r="BC56" s="8"/>
+      <c r="BD56" s="8"/>
+      <c r="BE56" s="8"/>
+      <c r="BF56" s="8"/>
+      <c r="BG56" s="8"/>
+      <c r="BH56" s="8"/>
+      <c r="BI56" s="8"/>
+      <c r="BJ56" s="8"/>
+      <c r="BK56" s="8"/>
+      <c r="BL56" s="8"/>
+      <c r="BM56" s="8"/>
+    </row>
+    <row r="57" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="85"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="8"/>
+      <c r="AN57" s="8"/>
+      <c r="AO57" s="8"/>
+      <c r="AP57" s="8"/>
+      <c r="AQ57" s="8"/>
+      <c r="AR57" s="8"/>
+      <c r="AS57" s="8"/>
+      <c r="AT57" s="8"/>
+      <c r="AU57" s="8"/>
+      <c r="AV57" s="8"/>
+      <c r="AW57" s="8"/>
+      <c r="AX57" s="8"/>
+      <c r="AY57" s="8"/>
+      <c r="AZ57" s="8"/>
+      <c r="BA57" s="8"/>
+      <c r="BB57" s="8"/>
+      <c r="BC57" s="8"/>
+      <c r="BD57" s="8"/>
+      <c r="BE57" s="8"/>
+      <c r="BF57" s="8"/>
+      <c r="BG57" s="8"/>
+      <c r="BH57" s="8"/>
+      <c r="BI57" s="8"/>
+      <c r="BJ57" s="8"/>
+      <c r="BK57" s="8"/>
+      <c r="BL57" s="8"/>
+      <c r="BM57" s="8"/>
+    </row>
+    <row r="58" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="85"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="8"/>
+      <c r="AN58" s="8"/>
+      <c r="AO58" s="8"/>
+      <c r="AP58" s="8"/>
+      <c r="AQ58" s="8"/>
+      <c r="AR58" s="8"/>
+      <c r="AS58" s="8"/>
+      <c r="AT58" s="8"/>
+      <c r="AU58" s="8"/>
+      <c r="AV58" s="8"/>
+      <c r="AW58" s="8"/>
+      <c r="AX58" s="8"/>
+      <c r="AY58" s="8"/>
+      <c r="AZ58" s="8"/>
+      <c r="BA58" s="8"/>
+      <c r="BB58" s="8"/>
+      <c r="BC58" s="8"/>
+      <c r="BD58" s="8"/>
+      <c r="BE58" s="8"/>
+      <c r="BF58" s="8"/>
+      <c r="BG58" s="8"/>
+      <c r="BH58" s="8"/>
+      <c r="BI58" s="8"/>
+      <c r="BJ58" s="8"/>
+      <c r="BK58" s="8"/>
+      <c r="BL58" s="8"/>
+      <c r="BM58" s="8"/>
+    </row>
+    <row r="59" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="90">
+        <v>2026</v>
+      </c>
+      <c r="E59" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="85"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="8"/>
+      <c r="AN59" s="8"/>
+      <c r="AO59" s="8"/>
+      <c r="AP59" s="8"/>
+      <c r="AQ59" s="8"/>
+      <c r="AR59" s="8"/>
+      <c r="AS59" s="8"/>
+      <c r="AT59" s="8"/>
+      <c r="AU59" s="8"/>
+      <c r="AV59" s="8"/>
+      <c r="AW59" s="8"/>
+      <c r="AX59" s="8"/>
+      <c r="AY59" s="8"/>
+      <c r="AZ59" s="8"/>
+      <c r="BA59" s="8"/>
+      <c r="BB59" s="8"/>
+      <c r="BC59" s="8"/>
+      <c r="BD59" s="8"/>
+      <c r="BE59" s="8"/>
+      <c r="BF59" s="8"/>
+      <c r="BG59" s="8"/>
+      <c r="BH59" s="8"/>
+      <c r="BI59" s="8"/>
+      <c r="BJ59" s="8"/>
+      <c r="BK59" s="8"/>
+      <c r="BL59" s="8"/>
+      <c r="BM59" s="8"/>
+    </row>
+    <row r="60" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="85"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="8"/>
+      <c r="AN60" s="8"/>
+      <c r="AO60" s="8"/>
+      <c r="AP60" s="8"/>
+      <c r="AQ60" s="8"/>
+      <c r="AR60" s="8"/>
+      <c r="AS60" s="8"/>
+      <c r="AT60" s="8"/>
+      <c r="AU60" s="8"/>
+      <c r="AV60" s="8"/>
+      <c r="AW60" s="8"/>
+      <c r="AX60" s="8"/>
+      <c r="AY60" s="8"/>
+      <c r="AZ60" s="8"/>
+      <c r="BA60" s="8"/>
+      <c r="BB60" s="8"/>
+      <c r="BC60" s="8"/>
+      <c r="BD60" s="8"/>
+      <c r="BE60" s="8"/>
+      <c r="BF60" s="8"/>
+      <c r="BG60" s="8"/>
+      <c r="BH60" s="8"/>
+      <c r="BI60" s="8"/>
+      <c r="BJ60" s="8"/>
+      <c r="BK60" s="8"/>
+      <c r="BL60" s="8"/>
+      <c r="BM60" s="8"/>
+    </row>
+    <row r="61" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="93"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="8"/>
+      <c r="AP61" s="8"/>
+      <c r="AQ61" s="8"/>
+      <c r="AR61" s="8"/>
+      <c r="AS61" s="8"/>
+      <c r="AT61" s="8"/>
+      <c r="AU61" s="8"/>
+      <c r="AV61" s="8"/>
+      <c r="AW61" s="8"/>
+      <c r="AX61" s="8"/>
+      <c r="AY61" s="8"/>
+      <c r="AZ61" s="8"/>
+      <c r="BA61" s="8"/>
+      <c r="BB61" s="8"/>
+      <c r="BC61" s="8"/>
+      <c r="BD61" s="8"/>
+      <c r="BE61" s="8"/>
+      <c r="BF61" s="8"/>
+      <c r="BG61" s="8"/>
+      <c r="BH61" s="8"/>
+      <c r="BI61" s="8"/>
+      <c r="BJ61" s="8"/>
+      <c r="BK61" s="8"/>
+      <c r="BL61" s="8"/>
+      <c r="BM61" s="8"/>
+    </row>
+    <row r="62" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="8"/>
+      <c r="AO62" s="8"/>
+      <c r="AP62" s="8"/>
+      <c r="AQ62" s="8"/>
+      <c r="AR62" s="8"/>
+      <c r="AS62" s="8"/>
+      <c r="AT62" s="8"/>
+      <c r="AU62" s="8"/>
+      <c r="AV62" s="8"/>
+      <c r="AW62" s="8"/>
+      <c r="AX62" s="8"/>
+      <c r="AY62" s="8"/>
+      <c r="AZ62" s="8"/>
+      <c r="BA62" s="8"/>
+      <c r="BB62" s="8"/>
+      <c r="BC62" s="8"/>
+      <c r="BD62" s="8"/>
+      <c r="BE62" s="8"/>
+      <c r="BF62" s="8"/>
+      <c r="BG62" s="8"/>
+      <c r="BH62" s="8"/>
+      <c r="BI62" s="8"/>
+      <c r="BJ62" s="8"/>
+      <c r="BK62" s="8"/>
+      <c r="BL62" s="8"/>
+      <c r="BM62" s="8"/>
+    </row>
+    <row r="63" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="42"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="46"/>
-    </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="46"/>
-    </row>
-    <row r="7" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="136" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11">
-        <v>1</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="26"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="102">
-        <v>1</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="102">
-        <v>1</v>
-      </c>
-      <c r="K8" s="102">
-        <v>1</v>
-      </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102">
-        <v>1</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="46"/>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26"/>
-      <c r="C9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="46"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="31"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="46"/>
-    </row>
-    <row r="11" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="31"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="46"/>
-    </row>
-    <row r="12" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="31"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11">
-        <v>1</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="46"/>
-    </row>
-    <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="31"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="102">
-        <v>1</v>
-      </c>
-      <c r="G13" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="137" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" s="102">
-        <v>1</v>
-      </c>
-      <c r="K13" s="102">
-        <v>1</v>
-      </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102">
-        <v>1</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="46"/>
-    </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31"/>
-      <c r="C14" s="11"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="46"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="32"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="46"/>
-    </row>
-    <row r="16" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="46"/>
-    </row>
-    <row r="17" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="32"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="136" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J17" s="11">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11">
-        <v>1</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11">
-        <v>1</v>
-      </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="46"/>
-    </row>
-    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="102">
-        <v>1</v>
-      </c>
-      <c r="G18" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="137" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18" s="102">
-        <v>1</v>
-      </c>
-      <c r="K18" s="102">
-        <v>1</v>
-      </c>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102">
-        <v>1</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="46"/>
-    </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
-      <c r="C19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="46"/>
-    </row>
-    <row r="21" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="46"/>
-    </row>
-    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="33"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="46"/>
-    </row>
-    <row r="23" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="46"/>
-    </row>
-    <row r="24" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="33"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="136" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" s="11">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11">
-        <v>1</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11">
-        <v>1</v>
-      </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="46"/>
-    </row>
-    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="33"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="102">
-        <v>1</v>
-      </c>
-      <c r="G25" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="102">
-        <v>1</v>
-      </c>
-      <c r="K25" s="102">
-        <v>1</v>
-      </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102">
-        <v>1</v>
-      </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="46"/>
-    </row>
-    <row r="26" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="33"/>
-      <c r="C26" s="11"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="46"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="35"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="46"/>
-    </row>
-    <row r="28" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="46"/>
-    </row>
-    <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="35"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="11">
-        <v>1</v>
-      </c>
-      <c r="K29" s="11">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11">
-        <v>1</v>
-      </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="46"/>
-    </row>
-    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="35"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="102">
-        <v>1</v>
-      </c>
-      <c r="G30" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="137" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="102">
-        <v>1</v>
-      </c>
-      <c r="K30" s="102">
-        <v>1</v>
-      </c>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102">
-        <v>1</v>
-      </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="46"/>
-    </row>
-    <row r="31" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="35"/>
-      <c r="C31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="46"/>
-    </row>
-    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-      <c r="D33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="122"/>
-      <c r="D34" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:65" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="42"/>
-      <c r="D35" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="147" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="147"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="43"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-    </row>
-    <row r="38" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="43"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="43"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="43"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="43"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="43"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="43"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="43"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="28"/>
-    </row>
-    <row r="45" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="28"/>
-    </row>
-    <row r="46" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="58"/>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9"/>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="9"/>
-      <c r="AL48" s="9"/>
-      <c r="AM48" s="9"/>
-      <c r="AN48" s="9"/>
-      <c r="AO48" s="9"/>
-      <c r="AP48" s="9"/>
-      <c r="AQ48" s="9"/>
-      <c r="AR48" s="9"/>
-      <c r="AS48" s="9"/>
-      <c r="AT48" s="9"/>
-      <c r="AU48" s="9"/>
-      <c r="AV48" s="9"/>
-      <c r="AW48" s="9"/>
-      <c r="AX48" s="9"/>
-      <c r="AY48" s="9"/>
-      <c r="AZ48" s="9"/>
-      <c r="BA48" s="9"/>
-      <c r="BB48" s="9"/>
-      <c r="BC48" s="9"/>
-      <c r="BD48" s="9"/>
-      <c r="BE48" s="9"/>
-      <c r="BF48" s="9"/>
-      <c r="BG48" s="9"/>
-      <c r="BH48" s="9"/>
-      <c r="BI48" s="9"/>
-      <c r="BJ48" s="9"/>
-      <c r="BK48" s="9"/>
-      <c r="BL48" s="9"/>
-      <c r="BM48" s="9"/>
-    </row>
-    <row r="49" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="86"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="9"/>
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="9"/>
-      <c r="AL49" s="9"/>
-      <c r="AM49" s="9"/>
-      <c r="AN49" s="9"/>
-      <c r="AO49" s="9"/>
-      <c r="AP49" s="9"/>
-      <c r="AQ49" s="9"/>
-      <c r="AR49" s="9"/>
-      <c r="AS49" s="9"/>
-      <c r="AT49" s="9"/>
-      <c r="AU49" s="9"/>
-      <c r="AV49" s="9"/>
-      <c r="AW49" s="9"/>
-      <c r="AX49" s="9"/>
-      <c r="AY49" s="9"/>
-      <c r="AZ49" s="9"/>
-      <c r="BA49" s="9"/>
-      <c r="BB49" s="9"/>
-      <c r="BC49" s="9"/>
-      <c r="BD49" s="9"/>
-      <c r="BE49" s="9"/>
-      <c r="BF49" s="9"/>
-      <c r="BG49" s="9"/>
-      <c r="BH49" s="9"/>
-      <c r="BI49" s="9"/>
-      <c r="BJ49" s="9"/>
-      <c r="BK49" s="9"/>
-      <c r="BL49" s="9"/>
-      <c r="BM49" s="9"/>
-    </row>
-    <row r="50" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="86"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="9"/>
-      <c r="AJ50" s="9"/>
-      <c r="AK50" s="9"/>
-      <c r="AL50" s="9"/>
-      <c r="AM50" s="9"/>
-      <c r="AN50" s="9"/>
-      <c r="AO50" s="9"/>
-      <c r="AP50" s="9"/>
-      <c r="AQ50" s="9"/>
-      <c r="AR50" s="9"/>
-      <c r="AS50" s="9"/>
-      <c r="AT50" s="9"/>
-      <c r="AU50" s="9"/>
-      <c r="AV50" s="9"/>
-      <c r="AW50" s="9"/>
-      <c r="AX50" s="9"/>
-      <c r="AY50" s="9"/>
-      <c r="AZ50" s="9"/>
-      <c r="BA50" s="9"/>
-      <c r="BB50" s="9"/>
-      <c r="BC50" s="9"/>
-      <c r="BD50" s="9"/>
-      <c r="BE50" s="9"/>
-      <c r="BF50" s="9"/>
-      <c r="BG50" s="9"/>
-      <c r="BH50" s="9"/>
-      <c r="BI50" s="9"/>
-      <c r="BJ50" s="9"/>
-      <c r="BK50" s="9"/>
-      <c r="BL50" s="9"/>
-      <c r="BM50" s="9"/>
-    </row>
-    <row r="51" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="9"/>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="9"/>
-      <c r="AL51" s="9"/>
-      <c r="AM51" s="9"/>
-      <c r="AN51" s="9"/>
-      <c r="AO51" s="9"/>
-      <c r="AP51" s="9"/>
-      <c r="AQ51" s="9"/>
-      <c r="AR51" s="9"/>
-      <c r="AS51" s="9"/>
-      <c r="AT51" s="9"/>
-      <c r="AU51" s="9"/>
-      <c r="AV51" s="9"/>
-      <c r="AW51" s="9"/>
-      <c r="AX51" s="9"/>
-      <c r="AY51" s="9"/>
-      <c r="AZ51" s="9"/>
-      <c r="BA51" s="9"/>
-      <c r="BB51" s="9"/>
-      <c r="BC51" s="9"/>
-      <c r="BD51" s="9"/>
-      <c r="BE51" s="9"/>
-      <c r="BF51" s="9"/>
-      <c r="BG51" s="9"/>
-      <c r="BH51" s="9"/>
-      <c r="BI51" s="9"/>
-      <c r="BJ51" s="9"/>
-      <c r="BK51" s="9"/>
-      <c r="BL51" s="9"/>
-      <c r="BM51" s="9"/>
-    </row>
-    <row r="52" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="9"/>
-      <c r="AJ52" s="9"/>
-      <c r="AK52" s="9"/>
-      <c r="AL52" s="9"/>
-      <c r="AM52" s="9"/>
-      <c r="AN52" s="9"/>
-      <c r="AO52" s="9"/>
-      <c r="AP52" s="9"/>
-      <c r="AQ52" s="9"/>
-      <c r="AR52" s="9"/>
-      <c r="AS52" s="9"/>
-      <c r="AT52" s="9"/>
-      <c r="AU52" s="9"/>
-      <c r="AV52" s="9"/>
-      <c r="AW52" s="9"/>
-      <c r="AX52" s="9"/>
-      <c r="AY52" s="9"/>
-      <c r="AZ52" s="9"/>
-      <c r="BA52" s="9"/>
-      <c r="BB52" s="9"/>
-      <c r="BC52" s="9"/>
-      <c r="BD52" s="9"/>
-      <c r="BE52" s="9"/>
-      <c r="BF52" s="9"/>
-      <c r="BG52" s="9"/>
-      <c r="BH52" s="9"/>
-      <c r="BI52" s="9"/>
-      <c r="BJ52" s="9"/>
-      <c r="BK52" s="9"/>
-      <c r="BL52" s="9"/>
-      <c r="BM52" s="9"/>
-    </row>
-    <row r="53" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="9"/>
-      <c r="AJ53" s="9"/>
-      <c r="AK53" s="9"/>
-      <c r="AL53" s="9"/>
-      <c r="AM53" s="9"/>
-      <c r="AN53" s="9"/>
-      <c r="AO53" s="9"/>
-      <c r="AP53" s="9"/>
-      <c r="AQ53" s="9"/>
-      <c r="AR53" s="9"/>
-      <c r="AS53" s="9"/>
-      <c r="AT53" s="9"/>
-      <c r="AU53" s="9"/>
-      <c r="AV53" s="9"/>
-      <c r="AW53" s="9"/>
-      <c r="AX53" s="9"/>
-      <c r="AY53" s="9"/>
-      <c r="AZ53" s="9"/>
-      <c r="BA53" s="9"/>
-      <c r="BB53" s="9"/>
-      <c r="BC53" s="9"/>
-      <c r="BD53" s="9"/>
-      <c r="BE53" s="9"/>
-      <c r="BF53" s="9"/>
-      <c r="BG53" s="9"/>
-      <c r="BH53" s="9"/>
-      <c r="BI53" s="9"/>
-      <c r="BJ53" s="9"/>
-      <c r="BK53" s="9"/>
-      <c r="BL53" s="9"/>
-      <c r="BM53" s="9"/>
-    </row>
-    <row r="54" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="86"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="9"/>
-      <c r="AJ54" s="9"/>
-      <c r="AK54" s="9"/>
-      <c r="AL54" s="9"/>
-      <c r="AM54" s="9"/>
-      <c r="AN54" s="9"/>
-      <c r="AO54" s="9"/>
-      <c r="AP54" s="9"/>
-      <c r="AQ54" s="9"/>
-      <c r="AR54" s="9"/>
-      <c r="AS54" s="9"/>
-      <c r="AT54" s="9"/>
-      <c r="AU54" s="9"/>
-      <c r="AV54" s="9"/>
-      <c r="AW54" s="9"/>
-      <c r="AX54" s="9"/>
-      <c r="AY54" s="9"/>
-      <c r="AZ54" s="9"/>
-      <c r="BA54" s="9"/>
-      <c r="BB54" s="9"/>
-      <c r="BC54" s="9"/>
-      <c r="BD54" s="9"/>
-      <c r="BE54" s="9"/>
-      <c r="BF54" s="9"/>
-      <c r="BG54" s="9"/>
-      <c r="BH54" s="9"/>
-      <c r="BI54" s="9"/>
-      <c r="BJ54" s="9"/>
-      <c r="BK54" s="9"/>
-      <c r="BL54" s="9"/>
-      <c r="BM54" s="9"/>
-    </row>
-    <row r="55" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="9"/>
-      <c r="AJ55" s="9"/>
-      <c r="AK55" s="9"/>
-      <c r="AL55" s="9"/>
-      <c r="AM55" s="9"/>
-      <c r="AN55" s="9"/>
-      <c r="AO55" s="9"/>
-      <c r="AP55" s="9"/>
-      <c r="AQ55" s="9"/>
-      <c r="AR55" s="9"/>
-      <c r="AS55" s="9"/>
-      <c r="AT55" s="9"/>
-      <c r="AU55" s="9"/>
-      <c r="AV55" s="9"/>
-      <c r="AW55" s="9"/>
-      <c r="AX55" s="9"/>
-      <c r="AY55" s="9"/>
-      <c r="AZ55" s="9"/>
-      <c r="BA55" s="9"/>
-      <c r="BB55" s="9"/>
-      <c r="BC55" s="9"/>
-      <c r="BD55" s="9"/>
-      <c r="BE55" s="9"/>
-      <c r="BF55" s="9"/>
-      <c r="BG55" s="9"/>
-      <c r="BH55" s="9"/>
-      <c r="BI55" s="9"/>
-      <c r="BJ55" s="9"/>
-      <c r="BK55" s="9"/>
-      <c r="BL55" s="9"/>
-      <c r="BM55" s="9"/>
-    </row>
-    <row r="56" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="86"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="9"/>
-      <c r="AJ56" s="9"/>
-      <c r="AK56" s="9"/>
-      <c r="AL56" s="9"/>
-      <c r="AM56" s="9"/>
-      <c r="AN56" s="9"/>
-      <c r="AO56" s="9"/>
-      <c r="AP56" s="9"/>
-      <c r="AQ56" s="9"/>
-      <c r="AR56" s="9"/>
-      <c r="AS56" s="9"/>
-      <c r="AT56" s="9"/>
-      <c r="AU56" s="9"/>
-      <c r="AV56" s="9"/>
-      <c r="AW56" s="9"/>
-      <c r="AX56" s="9"/>
-      <c r="AY56" s="9"/>
-      <c r="AZ56" s="9"/>
-      <c r="BA56" s="9"/>
-      <c r="BB56" s="9"/>
-      <c r="BC56" s="9"/>
-      <c r="BD56" s="9"/>
-      <c r="BE56" s="9"/>
-      <c r="BF56" s="9"/>
-      <c r="BG56" s="9"/>
-      <c r="BH56" s="9"/>
-      <c r="BI56" s="9"/>
-      <c r="BJ56" s="9"/>
-      <c r="BK56" s="9"/>
-      <c r="BL56" s="9"/>
-      <c r="BM56" s="9"/>
-    </row>
-    <row r="57" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="86"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="9"/>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="9"/>
-      <c r="AJ57" s="9"/>
-      <c r="AK57" s="9"/>
-      <c r="AL57" s="9"/>
-      <c r="AM57" s="9"/>
-      <c r="AN57" s="9"/>
-      <c r="AO57" s="9"/>
-      <c r="AP57" s="9"/>
-      <c r="AQ57" s="9"/>
-      <c r="AR57" s="9"/>
-      <c r="AS57" s="9"/>
-      <c r="AT57" s="9"/>
-      <c r="AU57" s="9"/>
-      <c r="AV57" s="9"/>
-      <c r="AW57" s="9"/>
-      <c r="AX57" s="9"/>
-      <c r="AY57" s="9"/>
-      <c r="AZ57" s="9"/>
-      <c r="BA57" s="9"/>
-      <c r="BB57" s="9"/>
-      <c r="BC57" s="9"/>
-      <c r="BD57" s="9"/>
-      <c r="BE57" s="9"/>
-      <c r="BF57" s="9"/>
-      <c r="BG57" s="9"/>
-      <c r="BH57" s="9"/>
-      <c r="BI57" s="9"/>
-      <c r="BJ57" s="9"/>
-      <c r="BK57" s="9"/>
-      <c r="BL57" s="9"/>
-      <c r="BM57" s="9"/>
-    </row>
-    <row r="58" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="91">
-        <v>2026</v>
-      </c>
-      <c r="E58" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="86"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
-      <c r="AI58" s="9"/>
-      <c r="AJ58" s="9"/>
-      <c r="AK58" s="9"/>
-      <c r="AL58" s="9"/>
-      <c r="AM58" s="9"/>
-      <c r="AN58" s="9"/>
-      <c r="AO58" s="9"/>
-      <c r="AP58" s="9"/>
-      <c r="AQ58" s="9"/>
-      <c r="AR58" s="9"/>
-      <c r="AS58" s="9"/>
-      <c r="AT58" s="9"/>
-      <c r="AU58" s="9"/>
-      <c r="AV58" s="9"/>
-      <c r="AW58" s="9"/>
-      <c r="AX58" s="9"/>
-      <c r="AY58" s="9"/>
-      <c r="AZ58" s="9"/>
-      <c r="BA58" s="9"/>
-      <c r="BB58" s="9"/>
-      <c r="BC58" s="9"/>
-      <c r="BD58" s="9"/>
-      <c r="BE58" s="9"/>
-      <c r="BF58" s="9"/>
-      <c r="BG58" s="9"/>
-      <c r="BH58" s="9"/>
-      <c r="BI58" s="9"/>
-      <c r="BJ58" s="9"/>
-      <c r="BK58" s="9"/>
-      <c r="BL58" s="9"/>
-      <c r="BM58" s="9"/>
-    </row>
-    <row r="59" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="86"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="9"/>
-      <c r="AH59" s="9"/>
-      <c r="AI59" s="9"/>
-      <c r="AJ59" s="9"/>
-      <c r="AK59" s="9"/>
-      <c r="AL59" s="9"/>
-      <c r="AM59" s="9"/>
-      <c r="AN59" s="9"/>
-      <c r="AO59" s="9"/>
-      <c r="AP59" s="9"/>
-      <c r="AQ59" s="9"/>
-      <c r="AR59" s="9"/>
-      <c r="AS59" s="9"/>
-      <c r="AT59" s="9"/>
-      <c r="AU59" s="9"/>
-      <c r="AV59" s="9"/>
-      <c r="AW59" s="9"/>
-      <c r="AX59" s="9"/>
-      <c r="AY59" s="9"/>
-      <c r="AZ59" s="9"/>
-      <c r="BA59" s="9"/>
-      <c r="BB59" s="9"/>
-      <c r="BC59" s="9"/>
-      <c r="BD59" s="9"/>
-      <c r="BE59" s="9"/>
-      <c r="BF59" s="9"/>
-      <c r="BG59" s="9"/>
-      <c r="BH59" s="9"/>
-      <c r="BI59" s="9"/>
-      <c r="BJ59" s="9"/>
-      <c r="BK59" s="9"/>
-      <c r="BL59" s="9"/>
-      <c r="BM59" s="9"/>
-    </row>
-    <row r="60" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="94"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-      <c r="AB60" s="9"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="9"/>
-      <c r="AF60" s="9"/>
-      <c r="AG60" s="9"/>
-      <c r="AH60" s="9"/>
-      <c r="AI60" s="9"/>
-      <c r="AJ60" s="9"/>
-      <c r="AK60" s="9"/>
-      <c r="AL60" s="9"/>
-      <c r="AM60" s="9"/>
-      <c r="AN60" s="9"/>
-      <c r="AO60" s="9"/>
-      <c r="AP60" s="9"/>
-      <c r="AQ60" s="9"/>
-      <c r="AR60" s="9"/>
-      <c r="AS60" s="9"/>
-      <c r="AT60" s="9"/>
-      <c r="AU60" s="9"/>
-      <c r="AV60" s="9"/>
-      <c r="AW60" s="9"/>
-      <c r="AX60" s="9"/>
-      <c r="AY60" s="9"/>
-      <c r="AZ60" s="9"/>
-      <c r="BA60" s="9"/>
-      <c r="BB60" s="9"/>
-      <c r="BC60" s="9"/>
-      <c r="BD60" s="9"/>
-      <c r="BE60" s="9"/>
-      <c r="BF60" s="9"/>
-      <c r="BG60" s="9"/>
-      <c r="BH60" s="9"/>
-      <c r="BI60" s="9"/>
-      <c r="BJ60" s="9"/>
-      <c r="BK60" s="9"/>
-      <c r="BL60" s="9"/>
-      <c r="BM60" s="9"/>
-    </row>
-    <row r="61" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
-      <c r="AH61" s="9"/>
-      <c r="AI61" s="9"/>
-      <c r="AJ61" s="9"/>
-      <c r="AK61" s="9"/>
-      <c r="AL61" s="9"/>
-      <c r="AM61" s="9"/>
-      <c r="AN61" s="9"/>
-      <c r="AO61" s="9"/>
-      <c r="AP61" s="9"/>
-      <c r="AQ61" s="9"/>
-      <c r="AR61" s="9"/>
-      <c r="AS61" s="9"/>
-      <c r="AT61" s="9"/>
-      <c r="AU61" s="9"/>
-      <c r="AV61" s="9"/>
-      <c r="AW61" s="9"/>
-      <c r="AX61" s="9"/>
-      <c r="AY61" s="9"/>
-      <c r="AZ61" s="9"/>
-      <c r="BA61" s="9"/>
-      <c r="BB61" s="9"/>
-      <c r="BC61" s="9"/>
-      <c r="BD61" s="9"/>
-      <c r="BE61" s="9"/>
-      <c r="BF61" s="9"/>
-      <c r="BG61" s="9"/>
-      <c r="BH61" s="9"/>
-      <c r="BI61" s="9"/>
-      <c r="BJ61" s="9"/>
-      <c r="BK61" s="9"/>
-      <c r="BL61" s="9"/>
-      <c r="BM61" s="9"/>
-    </row>
-    <row r="62" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="43"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="61" t="s">
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+    </row>
+    <row r="64" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="42"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-    </row>
-    <row r="63" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="54" t="s">
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="42"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="42"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="27"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+    </row>
+    <row r="67" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="42"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="42"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="42"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="42"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="H63" s="28"/>
-    </row>
-    <row r="64" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="43"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="66" t="s">
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" spans="1:65" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="42"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="72"/>
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="31"/>
+      <c r="D72" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H64" s="28"/>
-    </row>
-    <row r="65" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="43"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="28"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-    </row>
-    <row r="66" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="43"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" s="28"/>
-    </row>
-    <row r="67" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="43"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="H67" s="28"/>
-    </row>
-    <row r="68" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="43"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H68" s="28"/>
-    </row>
-    <row r="69" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="43"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H69" s="28"/>
-    </row>
-    <row r="70" spans="1:65" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="43"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="73"/>
-      <c r="H70" s="28"/>
-    </row>
-    <row r="71" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="32"/>
-      <c r="D71" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="28"/>
-    </row>
-    <row r="72" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="43"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="H72" s="28"/>
-    </row>
-    <row r="73" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="43"/>
-      <c r="B73" s="25"/>
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="42"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="2"/>
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="42"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-    </row>
-    <row r="74" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="43"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="28"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-    </row>
-    <row r="75" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="77"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="131"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="80"/>
-      <c r="L75" s="80"/>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="80"/>
-      <c r="Q75" s="80"/>
-      <c r="R75" s="80"/>
-      <c r="S75" s="80"/>
-      <c r="T75" s="80"/>
-      <c r="U75" s="80"/>
-      <c r="V75" s="80"/>
-      <c r="W75" s="80"/>
-      <c r="X75" s="80"/>
-      <c r="Y75" s="80"/>
-      <c r="Z75" s="80"/>
-      <c r="AA75" s="80"/>
-      <c r="AB75" s="80"/>
-      <c r="AC75" s="80"/>
-      <c r="AD75" s="80"/>
-      <c r="AE75" s="80"/>
-      <c r="AF75" s="80"/>
-      <c r="AG75" s="80"/>
-      <c r="AH75" s="80"/>
-      <c r="AI75" s="80"/>
-      <c r="AJ75" s="80"/>
-      <c r="AK75" s="80"/>
-      <c r="AL75" s="80"/>
-      <c r="AM75" s="80"/>
-      <c r="AN75" s="80"/>
-      <c r="AO75" s="80"/>
-      <c r="AP75" s="80"/>
-      <c r="AQ75" s="80"/>
-      <c r="AR75" s="80"/>
-      <c r="AS75" s="80"/>
-      <c r="AT75" s="80"/>
-      <c r="AU75" s="80"/>
-      <c r="AV75" s="80"/>
-      <c r="AW75" s="80"/>
-      <c r="AX75" s="80"/>
-      <c r="AY75" s="80"/>
-      <c r="AZ75" s="80"/>
-      <c r="BA75" s="80"/>
-      <c r="BB75" s="80"/>
-      <c r="BC75" s="80"/>
-      <c r="BD75" s="80"/>
-      <c r="BE75" s="80"/>
-      <c r="BF75" s="80"/>
-      <c r="BG75" s="80"/>
-      <c r="BH75" s="80"/>
-      <c r="BI75" s="80"/>
-      <c r="BJ75" s="80"/>
-      <c r="BK75" s="80"/>
-      <c r="BL75" s="80"/>
-      <c r="BM75" s="80"/>
-    </row>
-    <row r="76" spans="1:65" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="95" t="s">
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="116"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+    </row>
+    <row r="75" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="42"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="27"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+    </row>
+    <row r="76" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="76"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="127"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
+      <c r="Q76" s="79"/>
+      <c r="R76" s="79"/>
+      <c r="S76" s="79"/>
+      <c r="T76" s="79"/>
+      <c r="U76" s="79"/>
+      <c r="V76" s="79"/>
+      <c r="W76" s="79"/>
+      <c r="X76" s="79"/>
+      <c r="Y76" s="79"/>
+      <c r="Z76" s="79"/>
+      <c r="AA76" s="79"/>
+      <c r="AB76" s="79"/>
+      <c r="AC76" s="79"/>
+      <c r="AD76" s="79"/>
+      <c r="AE76" s="79"/>
+      <c r="AF76" s="79"/>
+      <c r="AG76" s="79"/>
+      <c r="AH76" s="79"/>
+      <c r="AI76" s="79"/>
+      <c r="AJ76" s="79"/>
+      <c r="AK76" s="79"/>
+      <c r="AL76" s="79"/>
+      <c r="AM76" s="79"/>
+      <c r="AN76" s="79"/>
+      <c r="AO76" s="79"/>
+      <c r="AP76" s="79"/>
+      <c r="AQ76" s="79"/>
+      <c r="AR76" s="79"/>
+      <c r="AS76" s="79"/>
+      <c r="AT76" s="79"/>
+      <c r="AU76" s="79"/>
+      <c r="AV76" s="79"/>
+      <c r="AW76" s="79"/>
+      <c r="AX76" s="79"/>
+      <c r="AY76" s="79"/>
+      <c r="AZ76" s="79"/>
+      <c r="BA76" s="79"/>
+      <c r="BB76" s="79"/>
+      <c r="BC76" s="79"/>
+      <c r="BD76" s="79"/>
+      <c r="BE76" s="79"/>
+      <c r="BF76" s="79"/>
+      <c r="BG76" s="79"/>
+      <c r="BH76" s="79"/>
+      <c r="BI76" s="79"/>
+      <c r="BJ76" s="79"/>
+      <c r="BK76" s="79"/>
+      <c r="BL76" s="79"/>
+      <c r="BM76" s="79"/>
+    </row>
+    <row r="77" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="76"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="127"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="79"/>
+      <c r="O77" s="79"/>
+      <c r="P77" s="79"/>
+      <c r="Q77" s="79"/>
+      <c r="R77" s="79"/>
+      <c r="S77" s="79"/>
+      <c r="T77" s="79"/>
+      <c r="U77" s="79"/>
+      <c r="V77" s="79"/>
+      <c r="W77" s="79"/>
+      <c r="X77" s="79"/>
+      <c r="Y77" s="79"/>
+      <c r="Z77" s="79"/>
+      <c r="AA77" s="79"/>
+      <c r="AB77" s="79"/>
+      <c r="AC77" s="79"/>
+      <c r="AD77" s="79"/>
+      <c r="AE77" s="79"/>
+      <c r="AF77" s="79"/>
+      <c r="AG77" s="79"/>
+      <c r="AH77" s="79"/>
+      <c r="AI77" s="79"/>
+      <c r="AJ77" s="79"/>
+      <c r="AK77" s="79"/>
+      <c r="AL77" s="79"/>
+      <c r="AM77" s="79"/>
+      <c r="AN77" s="79"/>
+      <c r="AO77" s="79"/>
+      <c r="AP77" s="79"/>
+      <c r="AQ77" s="79"/>
+      <c r="AR77" s="79"/>
+      <c r="AS77" s="79"/>
+      <c r="AT77" s="79"/>
+      <c r="AU77" s="79"/>
+      <c r="AV77" s="79"/>
+      <c r="AW77" s="79"/>
+      <c r="AX77" s="79"/>
+      <c r="AY77" s="79"/>
+      <c r="AZ77" s="79"/>
+      <c r="BA77" s="79"/>
+      <c r="BB77" s="79"/>
+      <c r="BC77" s="79"/>
+      <c r="BD77" s="79"/>
+      <c r="BE77" s="79"/>
+      <c r="BF77" s="79"/>
+      <c r="BG77" s="79"/>
+      <c r="BH77" s="79"/>
+      <c r="BI77" s="79"/>
+      <c r="BJ77" s="79"/>
+      <c r="BK77" s="79"/>
+      <c r="BL77" s="79"/>
+      <c r="BM77" s="79"/>
+    </row>
+    <row r="78" spans="1:65" s="10" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="42"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="80"/>
-      <c r="L76" s="80"/>
-      <c r="M76" s="80"/>
-      <c r="N76" s="80"/>
-      <c r="O76" s="80"/>
-      <c r="P76" s="80"/>
-      <c r="Q76" s="80"/>
-      <c r="R76" s="80"/>
-      <c r="S76" s="80"/>
-      <c r="T76" s="80"/>
-      <c r="U76" s="80"/>
-      <c r="V76" s="80"/>
-      <c r="W76" s="80"/>
-      <c r="X76" s="80"/>
-      <c r="Y76" s="80"/>
-      <c r="Z76" s="80"/>
-      <c r="AA76" s="80"/>
-      <c r="AB76" s="80"/>
-      <c r="AC76" s="80"/>
-      <c r="AD76" s="80"/>
-      <c r="AE76" s="80"/>
-      <c r="AF76" s="80"/>
-      <c r="AG76" s="80"/>
-      <c r="AH76" s="80"/>
-      <c r="AI76" s="80"/>
-      <c r="AJ76" s="80"/>
-      <c r="AK76" s="80"/>
-      <c r="AL76" s="80"/>
-      <c r="AM76" s="80"/>
-      <c r="AN76" s="80"/>
-      <c r="AO76" s="80"/>
-      <c r="AP76" s="80"/>
-      <c r="AQ76" s="80"/>
-      <c r="AR76" s="80"/>
-      <c r="AS76" s="80"/>
-      <c r="AT76" s="80"/>
-      <c r="AU76" s="80"/>
-      <c r="AV76" s="80"/>
-      <c r="AW76" s="80"/>
-      <c r="AX76" s="80"/>
-      <c r="AY76" s="80"/>
-      <c r="AZ76" s="80"/>
-      <c r="BA76" s="80"/>
-      <c r="BB76" s="80"/>
-      <c r="BC76" s="80"/>
-      <c r="BD76" s="80"/>
-      <c r="BE76" s="80"/>
-      <c r="BF76" s="80"/>
-      <c r="BG76" s="80"/>
-      <c r="BH76" s="80"/>
-      <c r="BI76" s="80"/>
-      <c r="BJ76" s="80"/>
-      <c r="BK76" s="80"/>
-      <c r="BL76" s="80"/>
-      <c r="BM76" s="80"/>
-    </row>
-    <row r="77" spans="1:65" s="11" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="43"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="144" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" s="144"/>
-      <c r="F77" s="144"/>
-      <c r="G77" s="144"/>
-      <c r="H77" s="144"/>
-      <c r="I77" s="144"/>
-      <c r="J77" s="144"/>
-      <c r="K77" s="144"/>
-      <c r="L77" s="144"/>
-      <c r="M77" s="144"/>
-    </row>
-    <row r="78" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D78" s="43"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="M78" s="43"/>
+      <c r="E78" s="143"/>
+      <c r="F78" s="143"/>
+      <c r="G78" s="143"/>
+      <c r="H78" s="143"/>
+      <c r="I78" s="143"/>
+      <c r="J78" s="143"/>
+      <c r="K78" s="143"/>
+      <c r="L78" s="143"/>
+      <c r="M78" s="143"/>
+    </row>
+    <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D79" s="42"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="M79" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
-  <mergeCells count="8">
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="I32:L32"/>
+  <mergeCells count="9">
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="D78:M78"/>
     <mergeCell ref="I33:L33"/>
     <mergeCell ref="I34:L34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="F7:F8 F12:F13 F17:F18 F24:F25 F29:F30">
+  <conditionalFormatting sqref="F8:F9 F13:F14 F18:F19 F25:F26 F30:F31">
     <cfRule type="iconSet" priority="2">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8347,7 +8504,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:K8 J12:K13 J17:K18 J24:K25 J29:K30">
+  <conditionalFormatting sqref="J8:K9 J13:K14 J18:K19 J25:K26 J30:K31">
     <cfRule type="iconSet" priority="433">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8356,7 +8513,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M8 M12:M13 M17:M18 M24:M25 M29:M30">
+  <conditionalFormatting sqref="M8:M9 M13:M14 M18:M19 M25:M26 M30:M31">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8365,32 +8522,32 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8 F12:F13 F17:F18 F24:F25 F29:F30 J17:M18 J29:M30 J7:M8 J12:M13 J24:M25" xr:uid="{52D4EF48-41FD-4442-B400-959EC5964D13}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F9 F13:F14 F18:F19 F25:F26 F30:F31 J18:M19 J30:M31 J8:M9 J13:M14 J25:M26" xr:uid="{52D4EF48-41FD-4442-B400-959EC5964D13}">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D65" r:id="rId1" display="学习：如何部署操作系统 ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )" xr:uid="{C53701FD-8E13-434C-BBC8-35A383E9B75A}"/>
-    <hyperlink ref="E34" r:id="rId2" xr:uid="{E28BD83B-2CEA-4FED-8AD4-DC8EF9A6916E}"/>
-    <hyperlink ref="E33" r:id="rId3" xr:uid="{FAE67BA9-7926-4782-B6B9-ECFF80F48597}"/>
-    <hyperlink ref="D74" r:id="rId4" xr:uid="{46F8BD22-A195-4763-A670-A347CB35058C}"/>
-    <hyperlink ref="E35" r:id="rId5" xr:uid="{9906D963-5C09-437F-A43D-E9CA4489C59F}"/>
-    <hyperlink ref="D69" r:id="rId6" xr:uid="{E76059EB-9255-4EDF-B774-ABA65BA1FECF}"/>
-    <hyperlink ref="D66" r:id="rId7" xr:uid="{F103FCC3-91BB-4DE4-901B-4B0ACC7F0301}"/>
-    <hyperlink ref="D71" r:id="rId8" xr:uid="{C1B02168-BA3E-4A94-B487-CCE274EBB4FE}"/>
-    <hyperlink ref="D38" r:id="rId9" xr:uid="{BA44C632-35EC-47DB-ACA8-5B4B8027B8FC}"/>
-    <hyperlink ref="D77:K77" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
-    <hyperlink ref="E60" r:id="rId11" display="ISO = ISO 文件；.ASC = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：https://fengyi.tel/pgp" xr:uid="{705BB231-D14B-4790-B5E3-1098377CC6B8}"/>
+    <hyperlink ref="D66" r:id="rId1" display="学习：如何部署操作系统 ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )" xr:uid="{C53701FD-8E13-434C-BBC8-35A383E9B75A}"/>
+    <hyperlink ref="E35" r:id="rId2" xr:uid="{E28BD83B-2CEA-4FED-8AD4-DC8EF9A6916E}"/>
+    <hyperlink ref="E34" r:id="rId3" xr:uid="{FAE67BA9-7926-4782-B6B9-ECFF80F48597}"/>
+    <hyperlink ref="D75" r:id="rId4" xr:uid="{46F8BD22-A195-4763-A670-A347CB35058C}"/>
+    <hyperlink ref="E36" r:id="rId5" xr:uid="{9906D963-5C09-437F-A43D-E9CA4489C59F}"/>
+    <hyperlink ref="D70" r:id="rId6" xr:uid="{E76059EB-9255-4EDF-B774-ABA65BA1FECF}"/>
+    <hyperlink ref="D67" r:id="rId7" xr:uid="{F103FCC3-91BB-4DE4-901B-4B0ACC7F0301}"/>
+    <hyperlink ref="D72" r:id="rId8" xr:uid="{C1B02168-BA3E-4A94-B487-CCE274EBB4FE}"/>
+    <hyperlink ref="D39" r:id="rId9" xr:uid="{BA44C632-35EC-47DB-ACA8-5B4B8027B8FC}"/>
+    <hyperlink ref="D78:K78" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
+    <hyperlink ref="E61" r:id="rId11" display="ISO = ISO 文件；.ASC = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：https://fengyi.tel/pgp" xr:uid="{705BB231-D14B-4790-B5E3-1098377CC6B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="8" scale="51" fitToHeight="0" orientation="portrait" r:id="rId12"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;R&amp;"Microsoft YaHei,Regular"&amp;10页 &amp;P | &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="16383" man="1"/>
+    <brk id="48" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId13"/>
 </worksheet>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2702" documentId="13_ncr:1_{E4EDA4B6-FAAD-42E8-9F17-916D772E08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF08FA4-FACE-46B2-90A9-E7A6454BDEE3}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2305464-EF79-48FD-9D20-BB7EF2B8C322}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,21 +516,6 @@
     </r>
   </si>
   <si>
-    <t>描述 [ 操作系统版本 | 版本号 ]</t>
-  </si>
-  <si>
-    <t>ISO [ 文件名 | SHA-256 "后缀 64 位字串" ]</t>
-  </si>
-  <si>
-    <t>包含 [ 类别 | 名称 | 版本 ]</t>
-  </si>
-  <si>
-    <t>Includes [ Category | Name | Version ]</t>
-  </si>
-  <si>
-    <t>ISO [ File name | SHA-256 "Suffix: 64-bit string" ]</t>
-  </si>
-  <si>
     <t>可持续性：</t>
   </si>
   <si>
@@ -2164,9 +2149,6 @@
     </r>
   </si>
   <si>
-    <t>Description [ Operating System Version | Version Number ]</t>
-  </si>
-  <si>
     <t>mul_Yi_Windows_11_25H2_x64_38l1_2in1_acv8rfr0_jan_2026_1AE457C4D90A1A35D77760155C87544ADEA59A862EE1A9948CF8BFCB799122BE.iso</t>
   </si>
   <si>
@@ -2204,12 +2186,6 @@
   </si>
   <si>
     <t>ISO 文件名命名规则：mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
-  </si>
-  <si>
-    <t>事件 [ 命名 | 使用方案 ]</t>
-  </si>
-  <si>
-    <t>Event [ Naming | Usage Scenarios ]</t>
   </si>
   <si>
     <r>
@@ -2607,6 +2583,38 @@
       </rPr>
       <t>1.zh-TW.Additional.Edition.json</t>
     </r>
+  </si>
+  <si>
+    <t>描述
+[ 操作系统版本 | 版本号 ]</t>
+  </si>
+  <si>
+    <t>ISO
+[ 文件名 | SHA-256 "后缀 64 位字串" ]</t>
+  </si>
+  <si>
+    <t>事件
+[ 命名 | 使用方案 ]</t>
+  </si>
+  <si>
+    <t>包含
+[ 类别 | 名称 | 版本 ]</t>
+  </si>
+  <si>
+    <t>Description
+[ Operating System Version | Version Number ]</t>
+  </si>
+  <si>
+    <t>ISO
+[ File name | SHA-256 "Suffix: 64-bit string" ]</t>
+  </si>
+  <si>
+    <t>Event
+[ Naming | Usage Scheme ]</t>
+  </si>
+  <si>
+    <t>Includes
+[ Category | Name | Version ]</t>
   </si>
 </sst>
 </file>
@@ -3480,6 +3488,12 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3515,12 +3529,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3739,6 +3747,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFF3F3F3"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFCC0066"/>
       <color rgb="FF3333CC"/>
@@ -3747,7 +3756,6 @@
       <color rgb="FF9900FF"/>
       <color rgb="FF204E49"/>
       <color rgb="FF68A490"/>
-      <color rgb="FFF3F3F3"/>
       <color rgb="FF22798E"/>
     </mruColors>
   </colors>
@@ -3984,13 +3992,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5207533</xdr:colOff>
+      <xdr:colOff>5550433</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>330733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>183616</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6158966</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>939266</xdr:rowOff>
     </xdr:to>
@@ -4020,7 +4028,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8661933" y="457733"/>
+          <a:off x="9004833" y="457733"/>
           <a:ext cx="608533" cy="608533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4032,8 +4040,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6270624</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>511175</xdr:rowOff>
     </xdr:from>
@@ -4051,7 +4059,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9344024" y="638175"/>
+          <a:off x="9725024" y="638175"/>
           <a:ext cx="1552575" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4083,7 +4091,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1200" strike="noStrike" cap="small" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -4104,13 +4112,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5207000</xdr:colOff>
+      <xdr:colOff>5549900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>330200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>183083</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6158433</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>938733</xdr:rowOff>
     </xdr:to>
@@ -4140,7 +4148,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8661400" y="457200"/>
+          <a:off x="9004300" y="457200"/>
           <a:ext cx="608533" cy="608533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4152,8 +4160,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6267450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
@@ -4171,7 +4179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9347200" y="641350"/>
+          <a:off x="9721850" y="641350"/>
           <a:ext cx="1552575" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4203,7 +4211,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1200" cap="small">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4212,7 +4220,19 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Yi's Studio</a:t>
+            <a:t>Yi's </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" cap="small" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Studio</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4406,7 +4426,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -4415,7 +4435,7 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="90.6328125" style="10" customWidth="1"/>
     <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
     <col min="8" max="8" width="38.6328125" style="27" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
@@ -4453,43 +4473,43 @@
     </row>
     <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
       <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>64</v>
+        <v>150</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>63</v>
+      <c r="H4" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>24</v>
@@ -4498,7 +4518,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>30</v>
@@ -4514,8 +4534,8 @@
       <c r="G5" s="118"/>
       <c r="H5" s="120"/>
       <c r="I5" s="118"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="149"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="137"/>
       <c r="L5" s="41"/>
       <c r="M5" s="109"/>
       <c r="N5" s="118"/>
@@ -4551,10 +4571,10 @@
     <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="D8" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4563,10 +4583,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="123" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4582,10 +4602,10 @@
     <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
       <c r="D9" s="102" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E9" s="100" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F9" s="103">
         <v>1</v>
@@ -4594,10 +4614,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J9" s="103">
         <v>1</v>
@@ -4624,7 +4644,7 @@
       <c r="A11" s="45"/>
       <c r="B11" s="19"/>
       <c r="D11" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -4656,10 +4676,10 @@
       <c r="B13" s="18"/>
       <c r="C13" s="2"/>
       <c r="D13" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -4668,10 +4688,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="123" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -4688,10 +4708,10 @@
     <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="18"/>
       <c r="D14" s="102" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="103">
         <v>1</v>
@@ -4700,10 +4720,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I14" s="103" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J14" s="103">
         <v>1</v>
@@ -4729,7 +4749,7 @@
     <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="D16" s="47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4759,10 +4779,10 @@
     <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="D18" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -4771,10 +4791,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -4790,10 +4810,10 @@
     <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="D19" s="102" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F19" s="103">
         <v>1</v>
@@ -4802,10 +4822,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="103" t="s">
         <v>142</v>
-      </c>
-      <c r="I19" s="103" t="s">
-        <v>150</v>
       </c>
       <c r="J19" s="103">
         <v>1</v>
@@ -4832,7 +4852,7 @@
       <c r="A21" s="45"/>
       <c r="B21" s="21"/>
       <c r="D21" s="46" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -4863,7 +4883,7 @@
     <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="D23" s="48" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4893,10 +4913,10 @@
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21"/>
       <c r="D25" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -4905,10 +4925,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="123" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -4924,10 +4944,10 @@
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21"/>
       <c r="D26" s="102" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F26" s="103">
         <v>1</v>
@@ -4936,10 +4956,10 @@
         <v>13</v>
       </c>
       <c r="H26" s="134" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I26" s="103" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J26" s="103">
         <v>1</v>
@@ -4966,7 +4986,7 @@
     <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
       <c r="D28" s="48" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4997,10 +5017,10 @@
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="23"/>
       <c r="D30" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -5009,10 +5029,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="123" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
@@ -5029,10 +5049,10 @@
       <c r="A31" s="45"/>
       <c r="B31" s="23"/>
       <c r="D31" s="102" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E31" s="100" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F31" s="103">
         <v>1</v>
@@ -5041,10 +5061,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="134" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I31" s="103" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J31" s="103">
         <v>1</v>
@@ -5070,20 +5090,20 @@
         <v>6</v>
       </c>
       <c r="F33" s="38"/>
-      <c r="G33" s="139" t="s">
+      <c r="G33" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139" t="s">
+      <c r="H33" s="141"/>
+      <c r="I33" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
       <c r="M33" s="44"/>
     </row>
     <row r="34" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="148"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42" t="s">
         <v>24</v>
@@ -5092,18 +5112,18 @@
         <v>1</v>
       </c>
       <c r="F34" s="39"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="140" t="s">
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="140"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
       <c r="M34" s="96"/>
     </row>
     <row r="35" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="149"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="42"/>
       <c r="D35" s="104" t="s">
         <v>11</v>
@@ -5112,28 +5132,28 @@
         <v>0</v>
       </c>
       <c r="F35" s="105"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
       <c r="M35" s="106"/>
     </row>
     <row r="36" spans="2:13" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="39"/>
-      <c r="G36" s="138" t="s">
+      <c r="G36" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="138"/>
+      <c r="H36" s="140"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
@@ -5255,7 +5275,7 @@
       <c r="B45" s="57"/>
       <c r="C45" s="42"/>
       <c r="D45" s="66" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
@@ -5269,7 +5289,7 @@
       <c r="B46" s="57"/>
       <c r="C46" s="42"/>
       <c r="D46" s="66" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
@@ -5283,7 +5303,7 @@
       <c r="B47" s="57"/>
       <c r="C47" s="42"/>
       <c r="D47" s="53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
@@ -5308,7 +5328,7 @@
     <row r="49" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="87"/>
       <c r="D49" s="82" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
@@ -5323,10 +5343,10 @@
     <row r="50" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="87"/>
       <c r="D50" s="86" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F50" s="85"/>
       <c r="H50" s="7"/>
@@ -5334,10 +5354,10 @@
     <row r="51" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="87"/>
       <c r="D51" s="86" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E51" s="85" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F51" s="85"/>
       <c r="H51" s="7"/>
@@ -5345,10 +5365,10 @@
     <row r="52" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="87"/>
       <c r="D52" s="90" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="84"/>
@@ -5361,10 +5381,10 @@
     <row r="53" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="87"/>
       <c r="D53" s="90" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F53" s="85"/>
       <c r="H53" s="7"/>
@@ -5375,7 +5395,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F54" s="85"/>
       <c r="H54" s="7"/>
@@ -5383,10 +5403,10 @@
     <row r="55" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="87"/>
       <c r="D55" s="86" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F55" s="85"/>
       <c r="H55" s="7"/>
@@ -5394,10 +5414,10 @@
     <row r="56" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="87"/>
       <c r="D56" s="90" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F56" s="85"/>
       <c r="H56" s="7"/>
@@ -5405,10 +5425,10 @@
     <row r="57" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="87"/>
       <c r="D57" s="90" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F57" s="85"/>
       <c r="H57" s="7"/>
@@ -5416,7 +5436,7 @@
     <row r="58" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="87"/>
       <c r="D58" s="90" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E58" s="85">
         <v>1</v>
@@ -5430,7 +5450,7 @@
         <v>2026</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F59" s="85"/>
       <c r="H59" s="7"/>
@@ -5440,10 +5460,10 @@
       <c r="B60" s="88"/>
       <c r="C60" s="79"/>
       <c r="D60" s="91" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E60" s="89" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F60" s="89"/>
       <c r="G60" s="79"/>
@@ -5509,10 +5529,10 @@
     <row r="61" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="87"/>
       <c r="D61" s="92" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F61" s="93"/>
       <c r="H61" s="7"/>
@@ -5722,7 +5742,7 @@
       <c r="B76" s="77"/>
       <c r="C76" s="76"/>
       <c r="D76" s="80" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E76" s="76"/>
       <c r="F76" s="76"/>
@@ -5791,7 +5811,7 @@
       <c r="B77" s="77"/>
       <c r="C77" s="76"/>
       <c r="D77" s="95" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E77" s="76"/>
       <c r="F77" s="76"/>
@@ -5858,18 +5878,18 @@
     <row r="78" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="24"/>
       <c r="C78" s="42"/>
-      <c r="D78" s="137" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" s="137"/>
-      <c r="F78" s="137"/>
-      <c r="G78" s="137"/>
-      <c r="H78" s="137"/>
-      <c r="I78" s="137"/>
-      <c r="J78" s="137"/>
-      <c r="K78" s="137"/>
-      <c r="L78" s="137"/>
-      <c r="M78" s="137"/>
+      <c r="D78" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="139"/>
+      <c r="F78" s="139"/>
+      <c r="G78" s="139"/>
+      <c r="H78" s="139"/>
+      <c r="I78" s="139"/>
+      <c r="J78" s="139"/>
+      <c r="K78" s="139"/>
+      <c r="L78" s="139"/>
+      <c r="M78" s="139"/>
     </row>
     <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C79" s="42"/>
@@ -6259,7 +6279,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="51" fitToHeight="0" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="8" scale="49" fitToHeight="0" orientation="portrait" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Aptos Narrow,Regular"&amp;10Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
@@ -6280,7 +6300,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -6289,7 +6309,7 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="90.6328125" style="10" customWidth="1"/>
     <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
     <col min="8" max="8" width="38.6328125" style="27" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
@@ -6327,43 +6347,43 @@
     </row>
     <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
       <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>61</v>
+      <c r="D4" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>62</v>
+      <c r="H4" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>149</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>22</v>
@@ -6375,7 +6395,7 @@
         <v>29</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N4" s="44"/>
     </row>
@@ -6388,8 +6408,8 @@
       <c r="G5" s="118"/>
       <c r="H5" s="120"/>
       <c r="I5" s="118"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="149"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="137"/>
       <c r="L5" s="41"/>
       <c r="M5" s="109"/>
       <c r="N5" s="118"/>
@@ -6432,10 +6452,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="10"/>
       <c r="D8" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -6444,10 +6464,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="132" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -6466,10 +6486,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="10"/>
       <c r="D9" s="99" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E9" s="100" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F9" s="101">
         <v>1</v>
@@ -6478,10 +6498,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="133" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I9" s="101" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J9" s="101">
         <v>1</v>
@@ -6510,7 +6530,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="10"/>
       <c r="D11" s="50" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -6543,10 +6563,10 @@
       <c r="B13" s="30"/>
       <c r="C13" s="10"/>
       <c r="D13" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -6555,10 +6575,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="132" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -6577,10 +6597,10 @@
       <c r="B14" s="30"/>
       <c r="C14" s="10"/>
       <c r="D14" s="99" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="101">
         <v>1</v>
@@ -6589,10 +6609,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="133" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J14" s="101">
         <v>1</v>
@@ -6621,7 +6641,7 @@
       <c r="B16" s="31"/>
       <c r="C16" s="10"/>
       <c r="D16" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -6654,10 +6674,10 @@
       <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -6666,10 +6686,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="132" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -6688,10 +6708,10 @@
       <c r="B19" s="31"/>
       <c r="C19" s="10"/>
       <c r="D19" s="99" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F19" s="101">
         <v>1</v>
@@ -6700,10 +6720,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="133" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I19" s="101" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J19" s="101">
         <v>1</v>
@@ -6737,7 +6757,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="10"/>
       <c r="D21" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -6772,7 +6792,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="10"/>
       <c r="D23" s="51" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -6806,10 +6826,10 @@
       <c r="B25" s="32"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -6818,10 +6838,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="132" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -6840,10 +6860,10 @@
       <c r="B26" s="32"/>
       <c r="C26" s="10"/>
       <c r="D26" s="99" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F26" s="101">
         <v>1</v>
@@ -6852,10 +6872,10 @@
         <v>13</v>
       </c>
       <c r="H26" s="133" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J26" s="101">
         <v>1</v>
@@ -6884,7 +6904,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="10"/>
       <c r="D28" s="51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -6918,10 +6938,10 @@
       <c r="B30" s="34"/>
       <c r="C30" s="10"/>
       <c r="D30" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -6930,10 +6950,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="132" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -6952,10 +6972,10 @@
       <c r="B31" s="34"/>
       <c r="C31" s="10"/>
       <c r="D31" s="99" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E31" s="100" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F31" s="101">
         <v>1</v>
@@ -6964,10 +6984,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J31" s="101">
         <v>1</v>
@@ -6996,21 +7016,21 @@
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="139" t="s">
+      <c r="G33" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139" t="s">
+      <c r="H33" s="141"/>
+      <c r="I33" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
       <c r="M33" s="44"/>
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="148"/>
+      <c r="B34" s="136"/>
       <c r="D34" s="45" t="s">
         <v>5</v>
       </c>
@@ -7018,19 +7038,19 @@
         <v>1</v>
       </c>
       <c r="F34" s="40"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="144" t="s">
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
       <c r="M34" s="97"/>
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="149"/>
+      <c r="B35" s="137"/>
       <c r="D35" s="107" t="s">
         <v>3</v>
       </c>
@@ -7038,12 +7058,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="108"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="147"/>
       <c r="M35" s="107"/>
       <c r="N35" s="10"/>
     </row>
@@ -7056,10 +7076,10 @@
         <v>27</v>
       </c>
       <c r="F36" s="40"/>
-      <c r="G36" s="146" t="s">
+      <c r="G36" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="146"/>
+      <c r="H36" s="148"/>
       <c r="I36" s="45"/>
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
@@ -7160,7 +7180,7 @@
       <c r="B45" s="57"/>
       <c r="C45" s="2"/>
       <c r="D45" s="66" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H45" s="27"/>
     </row>
@@ -7169,7 +7189,7 @@
       <c r="B46" s="57"/>
       <c r="C46" s="2"/>
       <c r="D46" s="66" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H46" s="27"/>
     </row>
@@ -7178,7 +7198,7 @@
       <c r="B47" s="57"/>
       <c r="C47" s="2"/>
       <c r="D47" s="53" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H47" s="27"/>
     </row>
@@ -7192,7 +7212,7 @@
       <c r="B49" s="87"/>
       <c r="C49" s="8"/>
       <c r="D49" s="82" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
@@ -7261,10 +7281,10 @@
       <c r="B50" s="87"/>
       <c r="C50" s="8"/>
       <c r="D50" s="86" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="8"/>
@@ -7332,10 +7352,10 @@
       <c r="B51" s="87"/>
       <c r="C51" s="8"/>
       <c r="D51" s="86" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E51" s="85" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F51" s="85"/>
       <c r="G51" s="8"/>
@@ -7403,10 +7423,10 @@
       <c r="B52" s="87"/>
       <c r="C52" s="8"/>
       <c r="D52" s="90" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="84"/>
@@ -7474,10 +7494,10 @@
       <c r="B53" s="87"/>
       <c r="C53" s="8"/>
       <c r="D53" s="90" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F53" s="85"/>
       <c r="G53" s="8"/>
@@ -7548,7 +7568,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F54" s="85"/>
       <c r="G54" s="8"/>
@@ -7616,10 +7636,10 @@
       <c r="B55" s="87"/>
       <c r="C55" s="8"/>
       <c r="D55" s="86" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F55" s="85"/>
       <c r="G55" s="8"/>
@@ -7687,10 +7707,10 @@
       <c r="B56" s="87"/>
       <c r="C56" s="8"/>
       <c r="D56" s="90" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F56" s="85"/>
       <c r="G56" s="8"/>
@@ -7758,10 +7778,10 @@
       <c r="B57" s="87"/>
       <c r="C57" s="8"/>
       <c r="D57" s="90" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F57" s="85"/>
       <c r="G57" s="8"/>
@@ -7829,10 +7849,10 @@
       <c r="B58" s="87"/>
       <c r="C58" s="8"/>
       <c r="D58" s="90" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F58" s="85"/>
       <c r="G58" s="8"/>
@@ -7903,7 +7923,7 @@
         <v>2026</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F59" s="85"/>
       <c r="G59" s="8"/>
@@ -7971,10 +7991,10 @@
       <c r="B60" s="87"/>
       <c r="C60" s="8"/>
       <c r="D60" s="90" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E60" s="85" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F60" s="85"/>
       <c r="G60" s="8"/>
@@ -8042,10 +8062,10 @@
       <c r="B61" s="87"/>
       <c r="C61" s="8"/>
       <c r="D61" s="92" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F61" s="93"/>
       <c r="G61" s="8"/>
@@ -8322,7 +8342,7 @@
       <c r="B76" s="77"/>
       <c r="C76" s="76"/>
       <c r="D76" s="78" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E76" s="79"/>
       <c r="F76" s="79"/>
@@ -8391,7 +8411,7 @@
       <c r="B77" s="77"/>
       <c r="C77" s="76"/>
       <c r="D77" s="94" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E77" s="79"/>
       <c r="F77" s="79"/>
@@ -8459,18 +8479,18 @@
       <c r="A78" s="42"/>
       <c r="B78" s="24"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="143" t="s">
-        <v>112</v>
-      </c>
-      <c r="E78" s="143"/>
-      <c r="F78" s="143"/>
-      <c r="G78" s="143"/>
-      <c r="H78" s="143"/>
-      <c r="I78" s="143"/>
-      <c r="J78" s="143"/>
-      <c r="K78" s="143"/>
-      <c r="L78" s="143"/>
-      <c r="M78" s="143"/>
+      <c r="D78" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="145"/>
+      <c r="F78" s="145"/>
+      <c r="G78" s="145"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="145"/>
+      <c r="J78" s="145"/>
+      <c r="K78" s="145"/>
+      <c r="L78" s="145"/>
+      <c r="M78" s="145"/>
     </row>
     <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D79" s="42"/>
@@ -8542,7 +8562,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="51" fitToHeight="0" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="8" scale="49" fitToHeight="0" orientation="portrait" r:id="rId12"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;R&amp;"Microsoft YaHei,Regular"&amp;10页 &amp;P | &amp;N</oddFooter>
   </headerFooter>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2305464-EF79-48FD-9D20-BB7EF2B8C322}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B97323-1A6B-4681-BD45-ECA82883DAB9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="145">
   <si>
     <t>https://www.123pan.com/s/zitA-9U9l</t>
   </si>
@@ -2179,269 +2179,7 @@
     <t>mul_Yi_Windows_10_22h2_x64_2l1_20in1_mrth9mpi_jan_2026_EE1D259A33AB7BEB63B5CA3E9643D5BDD17D2AF52EBE7BEC376E4EDAEFEEC9C6.iso</t>
   </si>
   <si>
-    <t>ISO file naming rules: mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
-  </si>
-  <si>
     <t>jan</t>
-  </si>
-  <si>
-    <t>ISO 文件名命名规则：mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Naming: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Scheme: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.zh-CN.zh-TW.ja-JP.Ko-KR.Additional.Edition.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Naming: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Scheme: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.zh-CN.zh-TW.Additional.Edition.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Naming: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Scheme: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>All-in.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>命名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-方案：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.zh-CN.Additional.Edition.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>命名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-方案：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.zh-TW.Additional.Edition.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>命名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-方案：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.zh-CN.zh-TW.Additional.Edition.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>命名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-方案：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.zh-CN.zh-TW.ja-JP.Ko-KR.Additional.Edition.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>命名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-方案：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>All-in.json</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2521,70 +2259,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Naming: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Scheme: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.zh-CN.Additional.Edition.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Naming: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>26S1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Scheme: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.zh-TW.Additional.Edition.json</t>
-    </r>
-  </si>
-  <si>
     <t>描述
 [ 操作系统版本 | 版本号 ]</t>
   </si>
@@ -2593,10 +2267,6 @@
 [ 文件名 | SHA-256 "后缀 64 位字串" ]</t>
   </si>
   <si>
-    <t>事件
-[ 命名 | 使用方案 ]</t>
-  </si>
-  <si>
     <t>包含
 [ 类别 | 名称 | 版本 ]</t>
   </si>
@@ -2609,12 +2279,45 @@
 [ File name | SHA-256 "Suffix: 64-bit string" ]</t>
   </si>
   <si>
-    <t>Event
-[ Naming | Usage Scheme ]</t>
-  </si>
-  <si>
     <t>Includes
 [ Category | Name | Version ]</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>26S1</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ISO file naming rules: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ISO 文件名命名规则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3056,7 +2759,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3434,57 +3137,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3493,6 +3145,20 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3992,13 +3658,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5550433</xdr:colOff>
+      <xdr:colOff>4953533</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>330733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>6158966</xdr:colOff>
+      <xdr:colOff>5562066</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>939266</xdr:rowOff>
     </xdr:to>
@@ -4028,7 +3694,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9004833" y="457733"/>
+          <a:off x="8407933" y="457733"/>
           <a:ext cx="608533" cy="608533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4041,7 +3707,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>6270624</xdr:colOff>
+      <xdr:colOff>5667374</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>511175</xdr:rowOff>
     </xdr:from>
@@ -4059,7 +3725,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9725024" y="638175"/>
+          <a:off x="9121774" y="638175"/>
           <a:ext cx="1552575" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4112,13 +3778,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5549900</xdr:colOff>
+      <xdr:colOff>4953000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>330200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>6158433</xdr:colOff>
+      <xdr:colOff>5561533</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>938733</xdr:rowOff>
     </xdr:to>
@@ -4148,7 +3814,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9004300" y="457200"/>
+          <a:off x="8407400" y="457200"/>
           <a:ext cx="608533" cy="608533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4161,7 +3827,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>6267450</xdr:colOff>
+      <xdr:colOff>5664200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
@@ -4179,7 +3845,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9721850" y="641350"/>
+          <a:off x="9118600" y="641350"/>
           <a:ext cx="1552575" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4435,9 +4101,8 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="90.6328125" style="10" customWidth="1"/>
-    <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.6328125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="100.6328125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="11.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
@@ -4452,7 +4117,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="119"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
@@ -4461,8 +4126,8 @@
       <c r="D2" s="118"/>
       <c r="E2" s="118"/>
       <c r="F2" s="118"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="120"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="118"/>
       <c r="J2" s="118"/>
       <c r="K2" s="118"/>
@@ -4473,31 +4138,31 @@
     </row>
     <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
       <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>104</v>
@@ -4506,10 +4171,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>24</v>
@@ -4532,10 +4197,10 @@
       <c r="E5" s="118"/>
       <c r="F5" s="109"/>
       <c r="G5" s="118"/>
-      <c r="H5" s="120"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="118"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="137"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="41"/>
       <c r="M5" s="109"/>
       <c r="N5" s="118"/>
@@ -4548,7 +4213,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="121"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="112"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4561,7 +4226,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -4582,11 +4247,11 @@
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="123" t="s">
-        <v>135</v>
+      <c r="H8" s="122" t="s">
+        <v>141</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4613,11 +4278,11 @@
       <c r="G9" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="134" t="s">
-        <v>135</v>
+      <c r="H9" s="123" t="s">
+        <v>141</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J9" s="103">
         <v>1</v>
@@ -4636,7 +4301,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="45"/>
       <c r="N10" s="2"/>
     </row>
@@ -4649,7 +4314,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="121"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="112"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -4664,7 +4329,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -4687,11 +4352,11 @@
       <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="123" t="s">
-        <v>133</v>
+      <c r="H13" s="122" t="s">
+        <v>141</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -4719,11 +4384,11 @@
       <c r="G14" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="134" t="s">
-        <v>133</v>
+      <c r="H14" s="123" t="s">
+        <v>141</v>
       </c>
       <c r="I14" s="103" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J14" s="103">
         <v>1</v>
@@ -4742,7 +4407,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="45"/>
       <c r="N15" s="2"/>
     </row>
@@ -4754,7 +4419,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="122"/>
+      <c r="H16" s="113"/>
       <c r="I16" s="113"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4768,7 +4433,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -4790,11 +4455,11 @@
       <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="123" t="s">
-        <v>134</v>
+      <c r="H18" s="122" t="s">
+        <v>141</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -4821,11 +4486,11 @@
       <c r="G19" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="134" t="s">
-        <v>134</v>
+      <c r="H19" s="123" t="s">
+        <v>141</v>
       </c>
       <c r="I19" s="103" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J19" s="103">
         <v>1</v>
@@ -4844,7 +4509,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="45"/>
       <c r="N20" s="2"/>
     </row>
@@ -4857,7 +4522,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="121"/>
+      <c r="H21" s="112"/>
       <c r="I21" s="112"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -4872,7 +4537,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -4888,7 +4553,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="122"/>
+      <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -4902,7 +4567,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4924,11 +4589,11 @@
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="123" t="s">
-        <v>145</v>
+      <c r="H25" s="122" t="s">
+        <v>141</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -4955,11 +4620,11 @@
       <c r="G26" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="134" t="s">
-        <v>145</v>
+      <c r="H26" s="123" t="s">
+        <v>141</v>
       </c>
       <c r="I26" s="103" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J26" s="103">
         <v>1</v>
@@ -4979,7 +4644,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="45"/>
       <c r="N27" s="2"/>
     </row>
@@ -4991,7 +4656,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="122"/>
+      <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -5006,7 +4671,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -5028,11 +4693,11 @@
       <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="123" t="s">
-        <v>144</v>
+      <c r="H30" s="122" t="s">
+        <v>141</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
@@ -5060,11 +4725,11 @@
       <c r="G31" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="134" t="s">
-        <v>144</v>
+      <c r="H31" s="123" t="s">
+        <v>141</v>
       </c>
       <c r="I31" s="103" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J31" s="103">
         <v>1</v>
@@ -5078,7 +4743,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="23"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
     </row>
     <row r="33" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="44"/>
@@ -5090,20 +4756,20 @@
         <v>6</v>
       </c>
       <c r="F33" s="38"/>
-      <c r="G33" s="141" t="s">
+      <c r="G33" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141" t="s">
+      <c r="H33" s="129"/>
+      <c r="I33" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
       <c r="M33" s="44"/>
     </row>
     <row r="34" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="136"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42" t="s">
         <v>24</v>
@@ -5112,18 +4778,18 @@
         <v>1</v>
       </c>
       <c r="F34" s="39"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="142" t="s">
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="130"/>
       <c r="M34" s="96"/>
     </row>
     <row r="35" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="137"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="42"/>
       <c r="D35" s="104" t="s">
         <v>11</v>
@@ -5132,12 +4798,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="105"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
       <c r="M35" s="106"/>
     </row>
     <row r="36" spans="2:13" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -5150,10 +4816,10 @@
         <v>27</v>
       </c>
       <c r="F36" s="39"/>
-      <c r="G36" s="140" t="s">
+      <c r="G36" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="140"/>
+      <c r="H36" s="128"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
@@ -5161,13 +4827,13 @@
       <c r="M36" s="43"/>
     </row>
     <row r="37" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="44"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
       <c r="M37" s="42"/>
@@ -5181,7 +4847,7 @@
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
       <c r="G38" s="59"/>
-      <c r="H38" s="124"/>
+      <c r="H38" s="114"/>
       <c r="I38" s="114"/>
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
@@ -5197,7 +4863,7 @@
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
       <c r="M39" s="42"/>
@@ -5211,7 +4877,7 @@
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
       <c r="M40" s="42"/>
@@ -5225,7 +4891,7 @@
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
       <c r="M41" s="42"/>
@@ -5239,7 +4905,7 @@
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
       <c r="M42" s="42"/>
@@ -5251,7 +4917,7 @@
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
-      <c r="H43" s="11"/>
+      <c r="H43" s="42"/>
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
       <c r="M43" s="42"/>
@@ -5265,7 +4931,7 @@
       <c r="E44" s="98"/>
       <c r="F44" s="98"/>
       <c r="G44" s="98"/>
-      <c r="H44" s="125"/>
+      <c r="H44" s="2"/>
       <c r="J44" s="98"/>
       <c r="K44" s="98"/>
       <c r="L44" s="98"/>
@@ -5280,7 +4946,7 @@
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
-      <c r="H45" s="11"/>
+      <c r="H45" s="42"/>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>
       <c r="M45" s="42"/>
@@ -5294,7 +4960,7 @@
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="42"/>
       <c r="I46" s="42"/>
       <c r="J46" s="42"/>
       <c r="M46" s="42"/>
@@ -5308,19 +4974,19 @@
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="42"/>
       <c r="I47" s="42"/>
       <c r="J47" s="42"/>
       <c r="M47" s="42"/>
     </row>
     <row r="48" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="57"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="42"/>
       <c r="I48" s="42"/>
       <c r="J48" s="42"/>
       <c r="M48" s="42"/>
@@ -5328,12 +4994,12 @@
     <row r="49" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="87"/>
       <c r="D49" s="82" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
       <c r="G49" s="83"/>
-      <c r="H49" s="126"/>
+      <c r="H49" s="115"/>
       <c r="I49" s="115"/>
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
@@ -5349,7 +5015,6 @@
         <v>84</v>
       </c>
       <c r="F50" s="85"/>
-      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="87"/>
@@ -5360,7 +5025,6 @@
         <v>80</v>
       </c>
       <c r="F51" s="85"/>
-      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="87"/>
@@ -5372,7 +5036,6 @@
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="84"/>
-      <c r="H52" s="7"/>
       <c r="J52" s="84"/>
       <c r="K52" s="84"/>
       <c r="L52" s="84"/>
@@ -5387,7 +5050,6 @@
         <v>83</v>
       </c>
       <c r="F53" s="85"/>
-      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="87"/>
@@ -5398,7 +5060,6 @@
         <v>94</v>
       </c>
       <c r="F54" s="85"/>
-      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="87"/>
@@ -5409,7 +5070,6 @@
         <v>93</v>
       </c>
       <c r="F55" s="85"/>
-      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="87"/>
@@ -5420,7 +5080,6 @@
         <v>95</v>
       </c>
       <c r="F56" s="85"/>
-      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="87"/>
@@ -5431,18 +5090,16 @@
         <v>96</v>
       </c>
       <c r="F57" s="85"/>
-      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="87"/>
       <c r="D58" s="90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="85">
         <v>1</v>
       </c>
       <c r="F58" s="85"/>
-      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="87"/>
@@ -5453,7 +5110,6 @@
         <v>97</v>
       </c>
       <c r="F59" s="85"/>
-      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="79"/>
@@ -5467,7 +5123,7 @@
       </c>
       <c r="F60" s="89"/>
       <c r="G60" s="79"/>
-      <c r="H60" s="127"/>
+      <c r="H60" s="79"/>
       <c r="I60" s="79"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
@@ -5535,12 +5191,8 @@
         <v>101</v>
       </c>
       <c r="F61" s="93"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:65" s="79" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="87"/>
-      <c r="H62" s="127"/>
-    </row>
+    </row>
+    <row r="62" spans="1:65" s="79" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="57"/>
       <c r="C63" s="42"/>
@@ -5550,7 +5202,7 @@
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
       <c r="G63" s="59"/>
-      <c r="H63" s="124"/>
+      <c r="H63" s="114"/>
       <c r="I63" s="114"/>
       <c r="J63" s="59"/>
       <c r="K63" s="59"/>
@@ -5566,7 +5218,7 @@
       <c r="E64" s="42"/>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="42"/>
       <c r="I64" s="42"/>
       <c r="J64" s="42"/>
       <c r="M64" s="42"/>
@@ -5580,7 +5232,7 @@
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="42"/>
       <c r="I65" s="42"/>
       <c r="J65" s="42"/>
       <c r="M65" s="42"/>
@@ -5594,7 +5246,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="42"/>
       <c r="I66" s="42"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -5610,7 +5262,7 @@
       <c r="E67" s="42"/>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="42"/>
       <c r="I67" s="42"/>
       <c r="J67" s="42"/>
       <c r="M67" s="42"/>
@@ -5624,7 +5276,7 @@
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="42"/>
       <c r="I68" s="42"/>
       <c r="J68" s="42"/>
       <c r="M68" s="42"/>
@@ -5638,7 +5290,7 @@
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
-      <c r="H69" s="11"/>
+      <c r="H69" s="42"/>
       <c r="I69" s="42"/>
       <c r="J69" s="42"/>
       <c r="M69" s="42"/>
@@ -5652,7 +5304,7 @@
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
-      <c r="H70" s="11"/>
+      <c r="H70" s="42"/>
       <c r="I70" s="42"/>
       <c r="J70" s="42"/>
       <c r="M70" s="42"/>
@@ -5665,7 +5317,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="128"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="10"/>
@@ -5684,7 +5336,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="128"/>
+      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="10"/>
@@ -5694,13 +5346,13 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="31"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
-      <c r="H73" s="11"/>
+      <c r="H73" s="42"/>
       <c r="I73" s="42"/>
       <c r="J73" s="42"/>
       <c r="M73" s="42"/>
@@ -5714,7 +5366,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="121"/>
+      <c r="H74" s="112"/>
       <c r="I74" s="112"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -5730,7 +5382,7 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="11"/>
+      <c r="H75" s="42"/>
       <c r="I75" s="42"/>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
@@ -5747,7 +5399,7 @@
       <c r="E76" s="76"/>
       <c r="F76" s="76"/>
       <c r="G76" s="76"/>
-      <c r="H76" s="129"/>
+      <c r="H76" s="76"/>
       <c r="I76" s="76"/>
       <c r="J76" s="76"/>
       <c r="K76" s="76"/>
@@ -5816,7 +5468,7 @@
       <c r="E77" s="76"/>
       <c r="F77" s="76"/>
       <c r="G77" s="76"/>
-      <c r="H77" s="129"/>
+      <c r="H77" s="76"/>
       <c r="I77" s="76"/>
       <c r="J77" s="76"/>
       <c r="K77" s="76"/>
@@ -5878,18 +5530,18 @@
     <row r="78" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="24"/>
       <c r="C78" s="42"/>
-      <c r="D78" s="139" t="s">
+      <c r="D78" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="E78" s="139"/>
-      <c r="F78" s="139"/>
-      <c r="G78" s="139"/>
-      <c r="H78" s="139"/>
-      <c r="I78" s="139"/>
-      <c r="J78" s="139"/>
-      <c r="K78" s="139"/>
-      <c r="L78" s="139"/>
-      <c r="M78" s="139"/>
+      <c r="E78" s="127"/>
+      <c r="F78" s="127"/>
+      <c r="G78" s="127"/>
+      <c r="H78" s="127"/>
+      <c r="I78" s="127"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="127"/>
+      <c r="L78" s="127"/>
+      <c r="M78" s="127"/>
     </row>
     <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C79" s="42"/>
@@ -5897,7 +5549,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="128"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="42"/>
       <c r="J79" s="42"/>
       <c r="M79" s="42"/>
@@ -5909,7 +5561,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="27"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -5924,7 +5576,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="27"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -5939,7 +5591,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="27"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -5954,7 +5606,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="27"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -5969,7 +5621,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
-      <c r="H85" s="27"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -5984,7 +5636,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="27"/>
+      <c r="H86" s="10"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5999,7 +5651,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="27"/>
+      <c r="H87" s="10"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -6014,7 +5666,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="27"/>
+      <c r="H88" s="10"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -6029,7 +5681,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
-      <c r="H89" s="27"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -6044,7 +5696,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="27"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -6059,7 +5711,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
-      <c r="H91" s="27"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -6074,7 +5726,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="27"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -6089,7 +5741,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="27"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -6104,7 +5756,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="27"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -6119,7 +5771,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="27"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -6134,7 +5786,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="27"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -6149,7 +5801,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -6164,7 +5816,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="27"/>
+      <c r="H98" s="10"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -6179,7 +5831,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="27"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -6194,7 +5846,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="27"/>
+      <c r="H100" s="10"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -6209,7 +5861,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
-      <c r="H101" s="27"/>
+      <c r="H101" s="10"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -6279,7 +5931,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="49" fitToHeight="0" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="8" scale="52" fitToHeight="0" orientation="portrait" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Aptos Narrow,Regular"&amp;10Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
@@ -6309,9 +5961,8 @@
     <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="90.6328125" style="10" customWidth="1"/>
-    <col min="6" max="7" width="11.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.6328125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="100.6328125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="11.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
@@ -6326,7 +5977,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="119"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
@@ -6347,31 +5998,31 @@
     </row>
     <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>103</v>
@@ -6380,10 +6031,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>22</v>
@@ -6406,10 +6057,10 @@
       <c r="E5" s="118"/>
       <c r="F5" s="109"/>
       <c r="G5" s="118"/>
-      <c r="H5" s="120"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="118"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="137"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="41"/>
       <c r="M5" s="109"/>
       <c r="N5" s="118"/>
@@ -6424,7 +6075,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="130"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="116"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -6463,11 +6114,11 @@
       <c r="G8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="132" t="s">
-        <v>140</v>
+      <c r="H8" s="124" t="s">
+        <v>141</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -6486,7 +6137,7 @@
       <c r="B9" s="25"/>
       <c r="C9" s="10"/>
       <c r="D9" s="99" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E9" s="100" t="s">
         <v>121</v>
@@ -6497,11 +6148,11 @@
       <c r="G9" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="133" t="s">
-        <v>140</v>
+      <c r="H9" s="125" t="s">
+        <v>141</v>
       </c>
       <c r="I9" s="101" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J9" s="101">
         <v>1</v>
@@ -6522,7 +6173,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="45"/>
       <c r="N10" s="10"/>
     </row>
@@ -6535,7 +6186,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="130"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="116"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -6574,11 +6225,11 @@
       <c r="G13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="132" t="s">
-        <v>139</v>
+      <c r="H13" s="124" t="s">
+        <v>141</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -6597,7 +6248,7 @@
       <c r="B14" s="30"/>
       <c r="C14" s="10"/>
       <c r="D14" s="99" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E14" s="100" t="s">
         <v>123</v>
@@ -6608,11 +6259,11 @@
       <c r="G14" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="133" t="s">
-        <v>139</v>
+      <c r="H14" s="125" t="s">
+        <v>141</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J14" s="101">
         <v>1</v>
@@ -6633,7 +6284,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="45"/>
       <c r="N15" s="10"/>
     </row>
@@ -6646,7 +6297,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="130"/>
+      <c r="H16" s="116"/>
       <c r="I16" s="116"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -6685,11 +6336,11 @@
       <c r="G18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="132" t="s">
-        <v>138</v>
+      <c r="H18" s="124" t="s">
+        <v>141</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -6708,7 +6359,7 @@
       <c r="B19" s="31"/>
       <c r="C19" s="10"/>
       <c r="D19" s="99" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E19" s="100" t="s">
         <v>125</v>
@@ -6719,11 +6370,11 @@
       <c r="G19" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="133" t="s">
-        <v>138</v>
+      <c r="H19" s="125" t="s">
+        <v>141</v>
       </c>
       <c r="I19" s="101" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J19" s="101">
         <v>1</v>
@@ -6744,7 +6395,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -6762,7 +6413,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="121"/>
+      <c r="H21" s="112"/>
       <c r="I21" s="112"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -6779,7 +6430,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -6797,7 +6448,7 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="130"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="116"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -6837,11 +6488,11 @@
       <c r="G25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="132" t="s">
-        <v>137</v>
+      <c r="H25" s="124" t="s">
+        <v>141</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -6860,7 +6511,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="10"/>
       <c r="D26" s="99" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E26" s="100" t="s">
         <v>127</v>
@@ -6871,11 +6522,11 @@
       <c r="G26" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="133" t="s">
-        <v>137</v>
+      <c r="H26" s="125" t="s">
+        <v>141</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J26" s="101">
         <v>1</v>
@@ -6896,7 +6547,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="45"/>
       <c r="N27" s="10"/>
     </row>
@@ -6909,7 +6560,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="130"/>
+      <c r="H28" s="116"/>
       <c r="I28" s="116"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
@@ -6949,11 +6600,11 @@
       <c r="G30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="132" t="s">
-        <v>136</v>
+      <c r="H30" s="124" t="s">
+        <v>141</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -6972,7 +6623,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="10"/>
       <c r="D31" s="99" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E31" s="100" t="s">
         <v>129</v>
@@ -6983,11 +6634,11 @@
       <c r="G31" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="133" t="s">
-        <v>136</v>
+      <c r="H31" s="125" t="s">
+        <v>141</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J31" s="101">
         <v>1</v>
@@ -7003,8 +6654,8 @@
       <c r="O31" s="45"/>
     </row>
     <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="34"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="N32" s="10"/>
       <c r="O32" s="45"/>
     </row>
@@ -7016,21 +6667,21 @@
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="141" t="s">
+      <c r="G33" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141" t="s">
+      <c r="H33" s="129"/>
+      <c r="I33" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
       <c r="M33" s="44"/>
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="136"/>
+      <c r="B34" s="120"/>
       <c r="D34" s="45" t="s">
         <v>5</v>
       </c>
@@ -7038,19 +6689,19 @@
         <v>1</v>
       </c>
       <c r="F34" s="40"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="146" t="s">
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="134"/>
       <c r="M34" s="97"/>
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="137"/>
+      <c r="B35" s="121"/>
       <c r="D35" s="107" t="s">
         <v>3</v>
       </c>
@@ -7058,12 +6709,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="108"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
       <c r="M35" s="107"/>
       <c r="N35" s="10"/>
     </row>
@@ -7076,10 +6727,10 @@
         <v>27</v>
       </c>
       <c r="F36" s="40"/>
-      <c r="G36" s="148" t="s">
+      <c r="G36" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="148"/>
+      <c r="H36" s="136"/>
       <c r="I36" s="45"/>
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
@@ -7089,10 +6740,9 @@
     </row>
     <row r="37" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="H37" s="27"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42"/>
@@ -7104,7 +6754,7 @@
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="61"/>
-      <c r="H38" s="131"/>
+      <c r="H38" s="117"/>
       <c r="I38" s="117"/>
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
@@ -7120,7 +6770,6 @@
       </c>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
-      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="42"/>
@@ -7131,7 +6780,6 @@
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
-      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="42"/>
@@ -7142,7 +6790,6 @@
       </c>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
-      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="42"/>
@@ -7153,7 +6800,6 @@
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
-      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="42"/>
@@ -7162,7 +6808,6 @@
       <c r="D43" s="65"/>
       <c r="E43" s="79"/>
       <c r="F43" s="79"/>
-      <c r="H43" s="27"/>
     </row>
     <row r="44" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="42"/>
@@ -7173,7 +6818,6 @@
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="79"/>
-      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
@@ -7182,7 +6826,6 @@
       <c r="D45" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42"/>
@@ -7191,7 +6834,6 @@
       <c r="D46" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42"/>
@@ -7200,24 +6842,23 @@
       <c r="D47" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="57"/>
-      <c r="H48" s="27"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="87"/>
       <c r="C49" s="8"/>
       <c r="D49" s="82" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
       <c r="G49" s="83"/>
-      <c r="H49" s="126"/>
+      <c r="H49" s="115"/>
       <c r="I49" s="115"/>
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
@@ -7288,7 +6929,7 @@
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -7359,7 +7000,7 @@
       </c>
       <c r="F51" s="85"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -7430,7 +7071,7 @@
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="84"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="84"/>
       <c r="K52" s="84"/>
@@ -7501,7 +7142,7 @@
       </c>
       <c r="F53" s="85"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -7572,7 +7213,7 @@
       </c>
       <c r="F54" s="85"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -7643,7 +7284,7 @@
       </c>
       <c r="F55" s="85"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -7714,7 +7355,7 @@
       </c>
       <c r="F56" s="85"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -7785,7 +7426,7 @@
       </c>
       <c r="F57" s="85"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -7849,14 +7490,14 @@
       <c r="B58" s="87"/>
       <c r="C58" s="8"/>
       <c r="D58" s="90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="85" t="s">
         <v>91</v>
       </c>
       <c r="F58" s="85"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -7927,7 +7568,7 @@
       </c>
       <c r="F59" s="85"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -7998,7 +7639,7 @@
       </c>
       <c r="F60" s="85"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -8069,7 +7710,7 @@
       </c>
       <c r="F61" s="93"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -8130,13 +7771,13 @@
     </row>
     <row r="62" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
-      <c r="B62" s="87"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -8205,7 +7846,7 @@
       <c r="E63" s="61"/>
       <c r="F63" s="61"/>
       <c r="G63" s="61"/>
-      <c r="H63" s="131"/>
+      <c r="H63" s="117"/>
       <c r="I63" s="117"/>
       <c r="J63" s="61"/>
       <c r="K63" s="61"/>
@@ -8219,7 +7860,6 @@
       <c r="D64" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="27"/>
     </row>
     <row r="65" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="42"/>
@@ -8228,7 +7868,6 @@
       <c r="D65" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="H65" s="27"/>
     </row>
     <row r="66" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="42"/>
@@ -8240,7 +7879,6 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="27"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="36"/>
@@ -8253,7 +7891,6 @@
       <c r="D67" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H67" s="27"/>
     </row>
     <row r="68" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="42"/>
@@ -8262,7 +7899,6 @@
       <c r="D68" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="27"/>
     </row>
     <row r="69" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="42"/>
@@ -8271,7 +7907,6 @@
       <c r="D69" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H69" s="27"/>
     </row>
     <row r="70" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="42"/>
@@ -8280,14 +7915,12 @@
       <c r="D70" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="27"/>
     </row>
     <row r="71" spans="1:65" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="42"/>
       <c r="B71" s="57"/>
       <c r="C71" s="2"/>
       <c r="D71" s="72"/>
-      <c r="H71" s="27"/>
     </row>
     <row r="72" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
@@ -8295,14 +7928,12 @@
       <c r="D72" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="27"/>
     </row>
     <row r="73" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="42"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="H73" s="27"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="42"/>
@@ -8314,7 +7945,7 @@
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
-      <c r="H74" s="130"/>
+      <c r="H74" s="116"/>
       <c r="I74" s="116"/>
       <c r="J74" s="26"/>
       <c r="K74" s="26"/>
@@ -8331,7 +7962,6 @@
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
-      <c r="H75" s="27"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
@@ -8347,7 +7977,7 @@
       <c r="E76" s="79"/>
       <c r="F76" s="79"/>
       <c r="G76" s="79"/>
-      <c r="H76" s="127"/>
+      <c r="H76" s="79"/>
       <c r="I76" s="79"/>
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
@@ -8416,7 +8046,7 @@
       <c r="E77" s="79"/>
       <c r="F77" s="79"/>
       <c r="G77" s="79"/>
-      <c r="H77" s="127"/>
+      <c r="H77" s="79"/>
       <c r="I77" s="79"/>
       <c r="J77" s="79"/>
       <c r="K77" s="79"/>
@@ -8479,18 +8109,18 @@
       <c r="A78" s="42"/>
       <c r="B78" s="24"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="145" t="s">
+      <c r="D78" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="E78" s="145"/>
-      <c r="F78" s="145"/>
-      <c r="G78" s="145"/>
-      <c r="H78" s="145"/>
-      <c r="I78" s="145"/>
-      <c r="J78" s="145"/>
-      <c r="K78" s="145"/>
-      <c r="L78" s="145"/>
-      <c r="M78" s="145"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="133"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="133"/>
+      <c r="K78" s="133"/>
+      <c r="L78" s="133"/>
+      <c r="M78" s="133"/>
     </row>
     <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D79" s="42"/>
@@ -8562,7 +8192,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" scale="49" fitToHeight="0" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId12"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;R&amp;"Microsoft YaHei,Regular"&amp;10页 &amp;P | &amp;N</oddFooter>
   </headerFooter>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B97323-1A6B-4681-BD45-ECA82883DAB9}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885F7017-9EF2-45ED-9411-4972D07F0801}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,10 +168,6 @@
 网盘</t>
   </si>
   <si>
-    <t>PGP
-verification</t>
-  </si>
-  <si>
     <t>验证下载</t>
   </si>
   <si>
@@ -1748,10 +1744,6 @@
     </r>
   </si>
   <si>
-    <t>PGP 
-校验</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">臻 </t>
     </r>
@@ -2318,6 +2310,14 @@
       </rPr>
       <t>mul_Yi_Windows_11_25H2_x64_5l1_20in1_v04pxsdn_jan_2026_574B4D3C685ABC8E5C06022BC2AEF28C5A0C5F5AF88010FB77094360062038DB.iso</t>
     </r>
+  </si>
+  <si>
+    <t>PGP 
+签名</t>
+  </si>
+  <si>
+    <t>PGP
+Signature</t>
   </si>
 </sst>
 </file>
@@ -4159,22 +4159,22 @@
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>24</v>
@@ -4183,10 +4183,10 @@
         <v>11</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="N4" s="44"/>
     </row>
@@ -4236,10 +4236,10 @@
     <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="D8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4248,10 +4248,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4267,10 +4267,10 @@
     <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
       <c r="D9" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="103">
         <v>1</v>
@@ -4279,10 +4279,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J9" s="103">
         <v>1</v>
@@ -4309,7 +4309,7 @@
       <c r="A11" s="45"/>
       <c r="B11" s="19"/>
       <c r="D11" s="46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -4341,10 +4341,10 @@
       <c r="B13" s="18"/>
       <c r="C13" s="2"/>
       <c r="D13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -4353,10 +4353,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -4373,10 +4373,10 @@
     <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="18"/>
       <c r="D14" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F14" s="103">
         <v>1</v>
@@ -4385,10 +4385,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" s="103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J14" s="103">
         <v>1</v>
@@ -4414,7 +4414,7 @@
     <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="D16" s="47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4444,10 +4444,10 @@
     <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="D18" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -4456,10 +4456,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -4475,10 +4475,10 @@
     <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="D19" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="103">
         <v>1</v>
@@ -4487,10 +4487,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I19" s="103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J19" s="103">
         <v>1</v>
@@ -4517,7 +4517,7 @@
       <c r="A21" s="45"/>
       <c r="B21" s="21"/>
       <c r="D21" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -4548,7 +4548,7 @@
     <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="D23" s="48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4578,10 +4578,10 @@
     <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21"/>
       <c r="D25" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -4590,10 +4590,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -4609,10 +4609,10 @@
     <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21"/>
       <c r="D26" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F26" s="103">
         <v>1</v>
@@ -4621,10 +4621,10 @@
         <v>13</v>
       </c>
       <c r="H26" s="123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I26" s="103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J26" s="103">
         <v>1</v>
@@ -4651,7 +4651,7 @@
     <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
       <c r="D28" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4682,10 +4682,10 @@
     <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="23"/>
       <c r="D30" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -4694,10 +4694,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
@@ -4714,10 +4714,10 @@
       <c r="A31" s="45"/>
       <c r="B31" s="23"/>
       <c r="D31" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="103">
         <v>1</v>
@@ -4726,10 +4726,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I31" s="103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J31" s="103">
         <v>1</v>
@@ -4810,7 +4810,7 @@
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>27</v>
@@ -4842,7 +4842,7 @@
       <c r="B38" s="57"/>
       <c r="C38" s="42"/>
       <c r="D38" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -4858,7 +4858,7 @@
       <c r="B39" s="57"/>
       <c r="C39" s="42"/>
       <c r="D39" s="110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
@@ -4872,7 +4872,7 @@
       <c r="B40" s="57"/>
       <c r="C40" s="42"/>
       <c r="D40" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
@@ -4886,7 +4886,7 @@
       <c r="B41" s="57"/>
       <c r="C41" s="42"/>
       <c r="D41" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
@@ -4900,7 +4900,7 @@
       <c r="B42" s="57"/>
       <c r="C42" s="42"/>
       <c r="D42" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
@@ -4926,7 +4926,7 @@
       <c r="B44" s="57"/>
       <c r="C44" s="42"/>
       <c r="D44" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" s="98"/>
       <c r="F44" s="98"/>
@@ -4941,7 +4941,7 @@
       <c r="B45" s="57"/>
       <c r="C45" s="42"/>
       <c r="D45" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
@@ -4955,7 +4955,7 @@
       <c r="B46" s="57"/>
       <c r="C46" s="42"/>
       <c r="D46" s="66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
@@ -4969,7 +4969,7 @@
       <c r="B47" s="57"/>
       <c r="C47" s="42"/>
       <c r="D47" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
@@ -4994,7 +4994,7 @@
     <row r="49" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="87"/>
       <c r="D49" s="82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
@@ -5009,30 +5009,30 @@
     <row r="50" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="87"/>
       <c r="D50" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" s="85"/>
     </row>
     <row r="51" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="87"/>
       <c r="D51" s="86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="87"/>
       <c r="D52" s="90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="84"/>
@@ -5044,10 +5044,10 @@
     <row r="53" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="87"/>
       <c r="D53" s="90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53" s="85"/>
     </row>
@@ -5057,44 +5057,44 @@
         <v>13</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F54" s="85"/>
     </row>
     <row r="55" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="87"/>
       <c r="D55" s="86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F55" s="85"/>
     </row>
     <row r="56" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="87"/>
       <c r="D56" s="90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F56" s="85"/>
     </row>
     <row r="57" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="87"/>
       <c r="D57" s="90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F57" s="85"/>
     </row>
     <row r="58" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="87"/>
       <c r="D58" s="90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E58" s="85">
         <v>1</v>
@@ -5107,7 +5107,7 @@
         <v>2026</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59" s="85"/>
     </row>
@@ -5116,10 +5116,10 @@
       <c r="B60" s="88"/>
       <c r="C60" s="79"/>
       <c r="D60" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60" s="89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F60" s="89"/>
       <c r="G60" s="79"/>
@@ -5185,10 +5185,10 @@
     <row r="61" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="87"/>
       <c r="D61" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F61" s="93"/>
     </row>
@@ -5197,7 +5197,7 @@
       <c r="B63" s="57"/>
       <c r="C63" s="42"/>
       <c r="D63" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
@@ -5213,7 +5213,7 @@
       <c r="B64" s="57"/>
       <c r="C64" s="42"/>
       <c r="D64" s="56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="42"/>
@@ -5227,7 +5227,7 @@
       <c r="B65" s="57"/>
       <c r="C65" s="42"/>
       <c r="D65" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
@@ -5241,7 +5241,7 @@
       <c r="B66" s="57"/>
       <c r="C66" s="42"/>
       <c r="D66" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
@@ -5257,7 +5257,7 @@
       <c r="B67" s="57"/>
       <c r="C67" s="42"/>
       <c r="D67" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67" s="42"/>
       <c r="F67" s="42"/>
@@ -5271,7 +5271,7 @@
       <c r="B68" s="57"/>
       <c r="C68" s="42"/>
       <c r="D68" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
@@ -5285,7 +5285,7 @@
       <c r="B69" s="57"/>
       <c r="C69" s="42"/>
       <c r="D69" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
@@ -5299,7 +5299,7 @@
       <c r="B70" s="57"/>
       <c r="C70" s="42"/>
       <c r="D70" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
@@ -5331,7 +5331,7 @@
       <c r="B72" s="31"/>
       <c r="C72" s="3"/>
       <c r="D72" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -5377,7 +5377,7 @@
       <c r="B75" s="24"/>
       <c r="C75" s="42"/>
       <c r="D75" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -5394,7 +5394,7 @@
       <c r="B76" s="77"/>
       <c r="C76" s="76"/>
       <c r="D76" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E76" s="76"/>
       <c r="F76" s="76"/>
@@ -5463,7 +5463,7 @@
       <c r="B77" s="77"/>
       <c r="C77" s="76"/>
       <c r="D77" s="95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="76"/>
       <c r="F77" s="76"/>
@@ -5531,7 +5531,7 @@
       <c r="B78" s="24"/>
       <c r="C78" s="42"/>
       <c r="D78" s="127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" s="127"/>
       <c r="F78" s="127"/>
@@ -6019,22 +6019,22 @@
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>22</v>
@@ -6046,7 +6046,7 @@
         <v>29</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="N4" s="44"/>
     </row>
@@ -6103,10 +6103,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="10"/>
       <c r="D8" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -6115,10 +6115,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -6137,10 +6137,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="10"/>
       <c r="D9" s="99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" s="100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="101">
         <v>1</v>
@@ -6149,10 +6149,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I9" s="101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J9" s="101">
         <v>1</v>
@@ -6181,7 +6181,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="10"/>
       <c r="D11" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -6214,10 +6214,10 @@
       <c r="B13" s="30"/>
       <c r="C13" s="10"/>
       <c r="D13" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -6226,10 +6226,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -6248,10 +6248,10 @@
       <c r="B14" s="30"/>
       <c r="C14" s="10"/>
       <c r="D14" s="99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F14" s="101">
         <v>1</v>
@@ -6260,10 +6260,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J14" s="101">
         <v>1</v>
@@ -6292,7 +6292,7 @@
       <c r="B16" s="31"/>
       <c r="C16" s="10"/>
       <c r="D16" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -6325,10 +6325,10 @@
       <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -6337,10 +6337,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -6359,10 +6359,10 @@
       <c r="B19" s="31"/>
       <c r="C19" s="10"/>
       <c r="D19" s="99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="101">
         <v>1</v>
@@ -6371,10 +6371,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I19" s="101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J19" s="101">
         <v>1</v>
@@ -6408,7 +6408,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="10"/>
       <c r="D21" s="46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -6443,7 +6443,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="10"/>
       <c r="D23" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -6477,10 +6477,10 @@
       <c r="B25" s="32"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -6489,10 +6489,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -6511,10 +6511,10 @@
       <c r="B26" s="32"/>
       <c r="C26" s="10"/>
       <c r="D26" s="99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F26" s="101">
         <v>1</v>
@@ -6523,10 +6523,10 @@
         <v>13</v>
       </c>
       <c r="H26" s="125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J26" s="101">
         <v>1</v>
@@ -6555,7 +6555,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="10"/>
       <c r="D28" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -6589,10 +6589,10 @@
       <c r="B30" s="34"/>
       <c r="C30" s="10"/>
       <c r="D30" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -6601,10 +6601,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -6623,10 +6623,10 @@
       <c r="B31" s="34"/>
       <c r="C31" s="10"/>
       <c r="D31" s="99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E31" s="100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="101">
         <v>1</v>
@@ -6635,10 +6635,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J31" s="101">
         <v>1</v>
@@ -6749,7 +6749,7 @@
       <c r="B38" s="57"/>
       <c r="C38" s="2"/>
       <c r="D38" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
@@ -6766,7 +6766,7 @@
       <c r="B39" s="57"/>
       <c r="C39" s="2"/>
       <c r="D39" s="111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
@@ -6776,7 +6776,7 @@
       <c r="B40" s="57"/>
       <c r="C40" s="2"/>
       <c r="D40" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
@@ -6786,7 +6786,7 @@
       <c r="B41" s="57"/>
       <c r="C41" s="2"/>
       <c r="D41" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
@@ -6796,7 +6796,7 @@
       <c r="B42" s="57"/>
       <c r="C42" s="2"/>
       <c r="D42" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
@@ -6814,7 +6814,7 @@
       <c r="B44" s="57"/>
       <c r="C44" s="2"/>
       <c r="D44" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="79"/>
@@ -6824,7 +6824,7 @@
       <c r="B45" s="57"/>
       <c r="C45" s="2"/>
       <c r="D45" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6832,7 +6832,7 @@
       <c r="B46" s="57"/>
       <c r="C46" s="2"/>
       <c r="D46" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6840,7 +6840,7 @@
       <c r="B47" s="57"/>
       <c r="C47" s="2"/>
       <c r="D47" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6853,7 +6853,7 @@
       <c r="B49" s="87"/>
       <c r="C49" s="8"/>
       <c r="D49" s="82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
@@ -6922,10 +6922,10 @@
       <c r="B50" s="87"/>
       <c r="C50" s="8"/>
       <c r="D50" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="8"/>
@@ -6993,10 +6993,10 @@
       <c r="B51" s="87"/>
       <c r="C51" s="8"/>
       <c r="D51" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="85" t="s">
         <v>72</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>73</v>
       </c>
       <c r="F51" s="85"/>
       <c r="G51" s="8"/>
@@ -7064,10 +7064,10 @@
       <c r="B52" s="87"/>
       <c r="C52" s="8"/>
       <c r="D52" s="90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="84"/>
@@ -7135,10 +7135,10 @@
       <c r="B53" s="87"/>
       <c r="C53" s="8"/>
       <c r="D53" s="90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53" s="85"/>
       <c r="G53" s="8"/>
@@ -7209,7 +7209,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54" s="85"/>
       <c r="G54" s="8"/>
@@ -7277,10 +7277,10 @@
       <c r="B55" s="87"/>
       <c r="C55" s="8"/>
       <c r="D55" s="86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="85"/>
       <c r="G55" s="8"/>
@@ -7348,10 +7348,10 @@
       <c r="B56" s="87"/>
       <c r="C56" s="8"/>
       <c r="D56" s="90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" s="85"/>
       <c r="G56" s="8"/>
@@ -7419,10 +7419,10 @@
       <c r="B57" s="87"/>
       <c r="C57" s="8"/>
       <c r="D57" s="90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F57" s="85"/>
       <c r="G57" s="8"/>
@@ -7490,10 +7490,10 @@
       <c r="B58" s="87"/>
       <c r="C58" s="8"/>
       <c r="D58" s="90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="85"/>
       <c r="G58" s="8"/>
@@ -7564,7 +7564,7 @@
         <v>2026</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="85"/>
       <c r="G59" s="8"/>
@@ -7632,10 +7632,10 @@
       <c r="B60" s="87"/>
       <c r="C60" s="8"/>
       <c r="D60" s="90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E60" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F60" s="85"/>
       <c r="G60" s="8"/>
@@ -7703,10 +7703,10 @@
       <c r="B61" s="87"/>
       <c r="C61" s="8"/>
       <c r="D61" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F61" s="93"/>
       <c r="G61" s="8"/>
@@ -7841,7 +7841,7 @@
       <c r="B63" s="57"/>
       <c r="C63" s="2"/>
       <c r="D63" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" s="61"/>
       <c r="F63" s="61"/>
@@ -7858,7 +7858,7 @@
       <c r="B64" s="57"/>
       <c r="C64" s="2"/>
       <c r="D64" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -7866,7 +7866,7 @@
       <c r="B65" s="57"/>
       <c r="C65" s="2"/>
       <c r="D65" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -7874,7 +7874,7 @@
       <c r="B66" s="57"/>
       <c r="C66" s="2"/>
       <c r="D66" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
@@ -7889,7 +7889,7 @@
       <c r="B67" s="57"/>
       <c r="C67" s="2"/>
       <c r="D67" s="72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -7897,7 +7897,7 @@
       <c r="B68" s="57"/>
       <c r="C68" s="2"/>
       <c r="D68" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -7905,7 +7905,7 @@
       <c r="B69" s="57"/>
       <c r="C69" s="2"/>
       <c r="D69" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -7913,7 +7913,7 @@
       <c r="B70" s="57"/>
       <c r="C70" s="2"/>
       <c r="D70" s="73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:65" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -7926,7 +7926,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="31"/>
       <c r="D72" s="74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -7957,7 +7957,7 @@
       <c r="B75" s="24"/>
       <c r="C75" s="2"/>
       <c r="D75" s="75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
@@ -7972,7 +7972,7 @@
       <c r="B76" s="77"/>
       <c r="C76" s="76"/>
       <c r="D76" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E76" s="79"/>
       <c r="F76" s="79"/>
@@ -8041,7 +8041,7 @@
       <c r="B77" s="77"/>
       <c r="C77" s="76"/>
       <c r="D77" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" s="79"/>
       <c r="F77" s="79"/>
@@ -8110,7 +8110,7 @@
       <c r="B78" s="24"/>
       <c r="C78" s="2"/>
       <c r="D78" s="133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" s="133"/>
       <c r="F78" s="133"/>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -3908,10 +3908,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Median">
   <a:themeElements>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885F7017-9EF2-45ED-9411-4972D07F0801}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF8A296-EDBB-4F5C-AA8F-C11B0ABA37D7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="16629" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encapsulated Events" sheetId="5" r:id="rId1"/>
@@ -219,12 +219,6 @@
     <t>自定义部署 Office</t>
   </si>
   <si>
-    <t>下载模板 Yi.Engine.Deploy.Rule.iso 后，解压到任意磁盘，示例解压到：D:\Yi，选择版本后运行下载脚本：</t>
-  </si>
-  <si>
-    <t>After downloading the template file Yi.Engine.Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:</t>
-  </si>
-  <si>
     <t>Custom Office Deployment</t>
   </si>
   <si>
@@ -2318,6 +2312,12 @@
   <si>
     <t>PGP
 Signature</t>
+  </si>
+  <si>
+    <t>下载模板 Deploy.Rule.iso 后，解压到任意磁盘，示例解压到：D:\Yi，选择版本后运行下载脚本：</t>
+  </si>
+  <si>
+    <t>After downloading the template file Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:</t>
   </si>
 </sst>
 </file>
@@ -4086,36 +4086,36 @@
   </sheetPr>
   <dimension ref="A1:BO101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="100.6328125" style="10" customWidth="1"/>
-    <col min="6" max="8" width="11.6328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.61328125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="0.3828125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="0.84375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.61328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="100.61328125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="11.61328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="40.61328125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.61328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.61328125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.61328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="0.84375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2.61328125" style="42" customWidth="1"/>
     <col min="16" max="67" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.1796875" style="45" hidden="1"/>
+    <col min="68" max="16384" width="9.15234375" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45"/>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
@@ -4132,7 +4132,7 @@
       <c r="N2" s="118"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="80.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="45"/>
       <c r="B3" s="126" t="s">
         <v>21</v>
@@ -4151,26 +4151,26 @@
       <c r="N3" s="126"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>24</v>
@@ -4179,14 +4179,14 @@
         <v>11</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
@@ -4201,7 +4201,7 @@
       <c r="M5" s="109"/>
       <c r="N5" s="118"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17"/>
       <c r="D6" s="46" t="s">
         <v>10</v>
@@ -4216,7 +4216,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="17"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -4229,13 +4229,13 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="17"/>
       <c r="D8" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4244,10 +4244,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4260,13 +4260,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17"/>
       <c r="D9" s="102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F9" s="103">
         <v>1</v>
@@ -4275,10 +4275,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J9" s="103">
         <v>1</v>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17"/>
       <c r="C10" s="2"/>
       <c r="E10" s="7"/>
@@ -4301,11 +4301,11 @@
       <c r="I10" s="45"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45"/>
       <c r="B11" s="19"/>
       <c r="D11" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -4318,7 +4318,7 @@
       <c r="M11" s="9"/>
       <c r="O11" s="45"/>
     </row>
-    <row r="12" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="45"/>
       <c r="B12" s="19"/>
       <c r="D12" s="11"/>
@@ -4333,14 +4333,14 @@
       <c r="M12" s="11"/>
       <c r="O12" s="45"/>
     </row>
-    <row r="13" spans="1:15" s="42" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="42" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="18"/>
       <c r="C13" s="2"/>
       <c r="D13" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -4349,10 +4349,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -4366,13 +4366,13 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="18"/>
       <c r="D14" s="102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="103">
         <v>1</v>
@@ -4381,10 +4381,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I14" s="103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J14" s="103">
         <v>1</v>
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
       <c r="E15" s="7"/>
@@ -4407,10 +4407,10 @@
       <c r="I15" s="45"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="20"/>
       <c r="D16" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4423,7 +4423,7 @@
       <c r="M16" s="1"/>
       <c r="O16" s="45"/>
     </row>
-    <row r="17" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="20"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -4437,13 +4437,13 @@
       <c r="M17" s="5"/>
       <c r="O17" s="45"/>
     </row>
-    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="20"/>
       <c r="D18" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -4452,10 +4452,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -4468,13 +4468,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="20"/>
       <c r="D19" s="102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="103">
         <v>1</v>
@@ -4483,10 +4483,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I19" s="103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J19" s="103">
         <v>1</v>
@@ -4499,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="20"/>
       <c r="C20" s="2"/>
       <c r="E20" s="7"/>
@@ -4509,11 +4509,11 @@
       <c r="I20" s="45"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="45"/>
       <c r="B21" s="21"/>
       <c r="D21" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -4526,7 +4526,7 @@
       <c r="M21" s="9"/>
       <c r="O21" s="45"/>
     </row>
-    <row r="22" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="45"/>
       <c r="B22" s="22"/>
       <c r="D22" s="11"/>
@@ -4541,10 +4541,10 @@
       <c r="M22" s="11"/>
       <c r="O22" s="45"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="21"/>
       <c r="D23" s="48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4557,7 +4557,7 @@
       <c r="M23" s="1"/>
       <c r="O23" s="45"/>
     </row>
-    <row r="24" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="21"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -4571,13 +4571,13 @@
       <c r="M24" s="5"/>
       <c r="O24" s="45"/>
     </row>
-    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="21"/>
       <c r="D25" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -4586,10 +4586,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -4602,13 +4602,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="21"/>
       <c r="D26" s="102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F26" s="103">
         <v>1</v>
@@ -4617,10 +4617,10 @@
         <v>13</v>
       </c>
       <c r="H26" s="123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I26" s="103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J26" s="103">
         <v>1</v>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="O26" s="45"/>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="21"/>
       <c r="C27" s="2"/>
       <c r="E27" s="7"/>
@@ -4644,10 +4644,10 @@
       <c r="I27" s="45"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="23"/>
       <c r="D28" s="48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4660,7 +4660,7 @@
       <c r="M28" s="1"/>
       <c r="O28" s="45"/>
     </row>
-    <row r="29" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="45"/>
       <c r="B29" s="23"/>
       <c r="D29" s="5"/>
@@ -4675,13 +4675,13 @@
       <c r="M29" s="5"/>
       <c r="O29" s="45"/>
     </row>
-    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="23"/>
       <c r="D30" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -4690,10 +4690,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
@@ -4706,14 +4706,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="45"/>
       <c r="B31" s="23"/>
       <c r="D31" s="102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F31" s="103">
         <v>1</v>
@@ -4722,10 +4722,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I31" s="103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J31" s="103">
         <v>1</v>
@@ -4738,11 +4738,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
       <c r="D33" s="44" t="s">
@@ -4764,7 +4764,7 @@
       <c r="L33" s="129"/>
       <c r="M33" s="44"/>
     </row>
-    <row r="34" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="120"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42" t="s">
@@ -4784,7 +4784,7 @@
       <c r="L34" s="130"/>
       <c r="M34" s="96"/>
     </row>
-    <row r="35" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="121"/>
       <c r="C35" s="42"/>
       <c r="D35" s="104" t="s">
@@ -4802,11 +4802,11 @@
       <c r="L35" s="131"/>
       <c r="M35" s="106"/>
     </row>
-    <row r="36" spans="2:13" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>27</v>
@@ -4822,7 +4822,7 @@
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
     </row>
-    <row r="37" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
@@ -4834,11 +4834,11 @@
       <c r="J37" s="42"/>
       <c r="M37" s="42"/>
     </row>
-    <row r="38" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="57"/>
       <c r="C38" s="42"/>
       <c r="D38" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -4850,11 +4850,11 @@
       <c r="L38" s="59"/>
       <c r="M38" s="59"/>
     </row>
-    <row r="39" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="57"/>
       <c r="C39" s="42"/>
       <c r="D39" s="110" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
@@ -4864,11 +4864,11 @@
       <c r="J39" s="42"/>
       <c r="M39" s="42"/>
     </row>
-    <row r="40" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="57"/>
       <c r="C40" s="42"/>
       <c r="D40" s="53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
@@ -4878,11 +4878,11 @@
       <c r="J40" s="42"/>
       <c r="M40" s="42"/>
     </row>
-    <row r="41" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="57"/>
       <c r="C41" s="42"/>
       <c r="D41" s="53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
@@ -4892,11 +4892,11 @@
       <c r="J41" s="42"/>
       <c r="M41" s="42"/>
     </row>
-    <row r="42" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="57"/>
       <c r="C42" s="42"/>
       <c r="D42" s="53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
@@ -4906,7 +4906,7 @@
       <c r="J42" s="42"/>
       <c r="M42" s="42"/>
     </row>
-    <row r="43" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="57"/>
       <c r="C43" s="42"/>
       <c r="D43" s="65"/>
@@ -4918,11 +4918,11 @@
       <c r="J43" s="42"/>
       <c r="M43" s="42"/>
     </row>
-    <row r="44" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="57"/>
       <c r="C44" s="42"/>
       <c r="D44" s="66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E44" s="98"/>
       <c r="F44" s="98"/>
@@ -4933,11 +4933,11 @@
       <c r="L44" s="98"/>
       <c r="M44" s="98"/>
     </row>
-    <row r="45" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="57"/>
       <c r="C45" s="42"/>
       <c r="D45" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
@@ -4947,11 +4947,11 @@
       <c r="J45" s="42"/>
       <c r="M45" s="42"/>
     </row>
-    <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="57"/>
       <c r="C46" s="42"/>
       <c r="D46" s="66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
@@ -4961,11 +4961,11 @@
       <c r="J46" s="42"/>
       <c r="M46" s="42"/>
     </row>
-    <row r="47" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="57"/>
       <c r="C47" s="42"/>
       <c r="D47" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
@@ -4975,7 +4975,7 @@
       <c r="J47" s="42"/>
       <c r="M47" s="42"/>
     </row>
-    <row r="48" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
@@ -4987,10 +4987,10 @@
       <c r="J48" s="42"/>
       <c r="M48" s="42"/>
     </row>
-    <row r="49" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="87"/>
       <c r="D49" s="82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
@@ -5002,33 +5002,33 @@
       <c r="L49" s="83"/>
       <c r="M49" s="83"/>
     </row>
-    <row r="50" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="87"/>
       <c r="D50" s="86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F50" s="85"/>
     </row>
-    <row r="51" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="87"/>
       <c r="D51" s="86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E51" s="85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F51" s="85"/>
     </row>
-    <row r="52" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="87"/>
       <c r="D52" s="90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="84"/>
@@ -5037,85 +5037,85 @@
       <c r="L52" s="84"/>
       <c r="M52" s="84"/>
     </row>
-    <row r="53" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="87"/>
       <c r="D53" s="90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F53" s="85"/>
     </row>
-    <row r="54" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="87"/>
       <c r="D54" s="86" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F54" s="85"/>
     </row>
-    <row r="55" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="87"/>
       <c r="D55" s="86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F55" s="85"/>
     </row>
-    <row r="56" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="87"/>
       <c r="D56" s="90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F56" s="85"/>
     </row>
-    <row r="57" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="87"/>
       <c r="D57" s="90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F57" s="85"/>
     </row>
-    <row r="58" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="87"/>
       <c r="D58" s="90" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E58" s="85">
         <v>1</v>
       </c>
       <c r="F58" s="85"/>
     </row>
-    <row r="59" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="87"/>
       <c r="D59" s="90">
         <v>2026</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F59" s="85"/>
     </row>
-    <row r="60" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="79"/>
       <c r="B60" s="88"/>
       <c r="C60" s="79"/>
       <c r="D60" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E60" s="89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="89"/>
       <c r="G60" s="79"/>
@@ -5178,18 +5178,18 @@
       <c r="BL60" s="79"/>
       <c r="BM60" s="79"/>
     </row>
-    <row r="61" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="87"/>
       <c r="D61" s="92" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F61" s="93"/>
     </row>
-    <row r="62" spans="1:65" s="79" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:65" s="79" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="57"/>
       <c r="C63" s="42"/>
       <c r="D63" s="58" t="s">
@@ -5205,7 +5205,7 @@
       <c r="L63" s="59"/>
       <c r="M63" s="59"/>
     </row>
-    <row r="64" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="57"/>
       <c r="C64" s="42"/>
       <c r="D64" s="56" t="s">
@@ -5219,7 +5219,7 @@
       <c r="J64" s="42"/>
       <c r="M64" s="42"/>
     </row>
-    <row r="65" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="57"/>
       <c r="C65" s="42"/>
       <c r="D65" s="64" t="s">
@@ -5233,7 +5233,7 @@
       <c r="J65" s="42"/>
       <c r="M65" s="42"/>
     </row>
-    <row r="66" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="57"/>
       <c r="C66" s="42"/>
       <c r="D66" s="62" t="s">
@@ -5249,7 +5249,7 @@
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
     </row>
-    <row r="67" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="57"/>
       <c r="C67" s="42"/>
       <c r="D67" s="67" t="s">
@@ -5263,11 +5263,11 @@
       <c r="J67" s="42"/>
       <c r="M67" s="42"/>
     </row>
-    <row r="68" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="57"/>
       <c r="C68" s="42"/>
       <c r="D68" s="55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
@@ -5277,7 +5277,7 @@
       <c r="J68" s="42"/>
       <c r="M68" s="42"/>
     </row>
-    <row r="69" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="57"/>
       <c r="C69" s="42"/>
       <c r="D69" s="55" t="s">
@@ -5291,7 +5291,7 @@
       <c r="J69" s="42"/>
       <c r="M69" s="42"/>
     </row>
-    <row r="70" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="57"/>
       <c r="C70" s="42"/>
       <c r="D70" s="68" t="s">
@@ -5305,7 +5305,7 @@
       <c r="J70" s="42"/>
       <c r="M70" s="42"/>
     </row>
-    <row r="71" spans="1:65" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:65" s="8" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3"/>
       <c r="B71" s="31"/>
       <c r="C71" s="3"/>
@@ -5322,7 +5322,7 @@
       <c r="N71" s="10"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
       <c r="B72" s="31"/>
       <c r="C72" s="3"/>
@@ -5341,7 +5341,7 @@
       <c r="N72" s="10"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
@@ -5353,7 +5353,7 @@
       <c r="J73" s="42"/>
       <c r="M73" s="42"/>
     </row>
-    <row r="74" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="24"/>
       <c r="C74" s="42"/>
       <c r="D74" s="49" t="s">
@@ -5369,11 +5369,11 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="24"/>
       <c r="C75" s="42"/>
       <c r="D75" s="71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -5385,12 +5385,12 @@
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
     </row>
-    <row r="76" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="76"/>
       <c r="B76" s="77"/>
       <c r="C76" s="76"/>
       <c r="D76" s="80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E76" s="76"/>
       <c r="F76" s="76"/>
@@ -5454,12 +5454,12 @@
       <c r="BL76" s="76"/>
       <c r="BM76" s="76"/>
     </row>
-    <row r="77" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="76"/>
       <c r="B77" s="77"/>
       <c r="C77" s="76"/>
       <c r="D77" s="95" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E77" s="76"/>
       <c r="F77" s="76"/>
@@ -5523,11 +5523,11 @@
       <c r="BL77" s="76"/>
       <c r="BM77" s="76"/>
     </row>
-    <row r="78" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:65" ht="65.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="24"/>
       <c r="C78" s="42"/>
       <c r="D78" s="127" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E78" s="127"/>
       <c r="F78" s="127"/>
@@ -5539,7 +5539,7 @@
       <c r="L78" s="127"/>
       <c r="M78" s="127"/>
     </row>
-    <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C79" s="42"/>
       <c r="D79" s="42"/>
       <c r="E79" s="3"/>
@@ -5550,7 +5550,7 @@
       <c r="J79" s="42"/>
       <c r="M79" s="42"/>
     </row>
-    <row r="81" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -5565,7 +5565,7 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -5580,7 +5580,7 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -5595,7 +5595,7 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -5610,7 +5610,7 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -5625,7 +5625,7 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -5640,7 +5640,7 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -5655,7 +5655,7 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -5670,7 +5670,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -5685,7 +5685,7 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -5700,7 +5700,7 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -5715,7 +5715,7 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -5730,7 +5730,7 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -5745,7 +5745,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -5760,7 +5760,7 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -5775,7 +5775,7 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -5790,7 +5790,7 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -5805,7 +5805,7 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -5820,7 +5820,7 @@
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -5835,7 +5835,7 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5850,7 +5850,7 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -5921,7 +5921,7 @@
     <hyperlink ref="D70" r:id="rId7" xr:uid="{5806D3CF-A4C9-40AA-9CA5-E02AE48C5609}"/>
     <hyperlink ref="D67" r:id="rId8" xr:uid="{12DEFC6E-F8C1-4742-B234-4FE8338EA338}"/>
     <hyperlink ref="D72" r:id="rId9" xr:uid="{E0B6390E-CCDA-4FF2-9731-33C80DDEB364}"/>
-    <hyperlink ref="D39" r:id="rId10" xr:uid="{D9136AB0-4C5D-4ECD-879B-AC512FE35C63}"/>
+    <hyperlink ref="D39" r:id="rId10" display="After downloading the template file Yi.Engine.Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:" xr:uid="{D9136AB0-4C5D-4ECD-879B-AC512FE35C63}"/>
     <hyperlink ref="D78:K78" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
     <hyperlink ref="E61" r:id="rId12" display="ISO = ISO file; .ASC = PGP signature file, which can verify whether it was released by Yi. Learn more at: https://fengyi.tel/pgp" xr:uid="{7EFEEFB5-60BB-4141-8185-A8B70CB17187}"/>
   </hyperlinks>
@@ -5946,36 +5946,36 @@
   </sheetPr>
   <dimension ref="A1:BO79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="100.6328125" style="10" customWidth="1"/>
-    <col min="6" max="8" width="11.6328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.61328125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="0.3828125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="0.84375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.61328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="100.61328125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="11.61328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="40.61328125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.61328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.61328125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.61328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="0.84375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2.61328125" style="42" customWidth="1"/>
     <col min="16" max="67" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.1796875" style="45" hidden="1"/>
+    <col min="68" max="16384" width="9.15234375" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45"/>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
@@ -5992,7 +5992,7 @@
       <c r="N2" s="118"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="80.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="45"/>
       <c r="B3" s="132" t="s">
         <v>25</v>
@@ -6011,26 +6011,26 @@
       <c r="N3" s="132"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>22</v>
@@ -6042,11 +6042,11 @@
         <v>29</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
@@ -6062,7 +6062,7 @@
       <c r="N5" s="118"/>
       <c r="O5" s="45"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="25"/>
       <c r="C6" s="10"/>
       <c r="D6" s="50" t="s">
@@ -6080,7 +6080,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="45"/>
     </row>
-    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="25"/>
       <c r="C7" s="10"/>
       <c r="D7" s="27"/>
@@ -6095,14 +6095,14 @@
       <c r="N7" s="10"/>
       <c r="O7" s="45"/>
     </row>
-    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="25"/>
       <c r="C8" s="10"/>
       <c r="D8" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -6111,10 +6111,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -6129,14 +6129,14 @@
       <c r="N8" s="10"/>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="25"/>
       <c r="C9" s="10"/>
       <c r="D9" s="99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F9" s="101">
         <v>1</v>
@@ -6145,10 +6145,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I9" s="101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J9" s="101">
         <v>1</v>
@@ -6163,7 +6163,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="25"/>
       <c r="C10" s="10"/>
       <c r="E10" s="7"/>
@@ -6173,11 +6173,11 @@
       <c r="I10" s="45"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="30"/>
       <c r="C11" s="10"/>
       <c r="D11" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -6191,7 +6191,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="45"/>
     </row>
-    <row r="12" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="30"/>
       <c r="C12" s="10"/>
       <c r="D12" s="27"/>
@@ -6206,14 +6206,14 @@
       <c r="N12" s="10"/>
       <c r="O12" s="45"/>
     </row>
-    <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="30"/>
       <c r="C13" s="10"/>
       <c r="D13" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -6222,10 +6222,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -6240,14 +6240,14 @@
       <c r="N13" s="10"/>
       <c r="O13" s="45"/>
     </row>
-    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="30"/>
       <c r="C14" s="10"/>
       <c r="D14" s="99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="101">
         <v>1</v>
@@ -6256,10 +6256,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J14" s="101">
         <v>1</v>
@@ -6274,7 +6274,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="45"/>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="30"/>
       <c r="C15" s="10"/>
       <c r="E15" s="7"/>
@@ -6284,11 +6284,11 @@
       <c r="I15" s="45"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="31"/>
       <c r="C16" s="10"/>
       <c r="D16" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -6302,7 +6302,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="45"/>
     </row>
-    <row r="17" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="31"/>
       <c r="C17" s="10"/>
       <c r="D17" s="27"/>
@@ -6317,14 +6317,14 @@
       <c r="N17" s="10"/>
       <c r="O17" s="45"/>
     </row>
-    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -6333,10 +6333,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -6351,14 +6351,14 @@
       <c r="N18" s="10"/>
       <c r="O18" s="45"/>
     </row>
-    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="31"/>
       <c r="C19" s="10"/>
       <c r="D19" s="99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="101">
         <v>1</v>
@@ -6367,10 +6367,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I19" s="101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J19" s="101">
         <v>1</v>
@@ -6385,7 +6385,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="45"/>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="31"/>
       <c r="C20" s="10"/>
       <c r="E20" s="7"/>
@@ -6399,12 +6399,12 @@
       <c r="M20" s="7"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="45"/>
       <c r="B21" s="32"/>
       <c r="C21" s="10"/>
       <c r="D21" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -6418,7 +6418,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="45"/>
     </row>
-    <row r="22" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="45"/>
       <c r="B22" s="22"/>
       <c r="C22" s="10"/>
@@ -6435,11 +6435,11 @@
       <c r="N22" s="10"/>
       <c r="O22" s="45"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="32"/>
       <c r="C23" s="10"/>
       <c r="D23" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -6453,7 +6453,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="45"/>
     </row>
-    <row r="24" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="27"/>
       <c r="B24" s="33"/>
       <c r="C24" s="10"/>
@@ -6469,14 +6469,14 @@
       <c r="N24" s="10"/>
       <c r="O24" s="45"/>
     </row>
-    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="32"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -6485,10 +6485,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -6503,14 +6503,14 @@
       <c r="N25" s="10"/>
       <c r="O25" s="45"/>
     </row>
-    <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="32"/>
       <c r="C26" s="10"/>
       <c r="D26" s="99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F26" s="101">
         <v>1</v>
@@ -6519,10 +6519,10 @@
         <v>13</v>
       </c>
       <c r="H26" s="125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J26" s="101">
         <v>1</v>
@@ -6537,7 +6537,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="45"/>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="32"/>
       <c r="C27" s="10"/>
       <c r="E27" s="7"/>
@@ -6547,11 +6547,11 @@
       <c r="I27" s="45"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34"/>
       <c r="C28" s="10"/>
       <c r="D28" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -6565,7 +6565,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="45"/>
     </row>
-    <row r="29" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27"/>
       <c r="B29" s="35"/>
       <c r="C29" s="10"/>
@@ -6581,14 +6581,14 @@
       <c r="N29" s="10"/>
       <c r="O29" s="45"/>
     </row>
-    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="34"/>
       <c r="C30" s="10"/>
       <c r="D30" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -6597,10 +6597,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -6615,14 +6615,14 @@
       <c r="N30" s="10"/>
       <c r="O30" s="45"/>
     </row>
-    <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="34"/>
       <c r="C31" s="10"/>
       <c r="D31" s="99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E31" s="100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F31" s="101">
         <v>1</v>
@@ -6631,10 +6631,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J31" s="101">
         <v>1</v>
@@ -6649,13 +6649,13 @@
       <c r="N31" s="10"/>
       <c r="O31" s="45"/>
     </row>
-    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
       <c r="N32" s="10"/>
       <c r="O32" s="45"/>
     </row>
-    <row r="33" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
       <c r="D33" s="44" t="s">
@@ -6676,7 +6676,7 @@
       <c r="M33" s="44"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="120"/>
       <c r="D34" s="45" t="s">
         <v>5</v>
@@ -6696,7 +6696,7 @@
       <c r="M34" s="97"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="121"/>
       <c r="D35" s="107" t="s">
         <v>3</v>
@@ -6714,7 +6714,7 @@
       <c r="M35" s="107"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="41"/>
       <c r="D36" s="45" t="s">
         <v>28</v>
@@ -6734,13 +6734,13 @@
       <c r="M36" s="45"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
     </row>
-    <row r="38" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="42"/>
       <c r="B38" s="57"/>
       <c r="C38" s="2"/>
@@ -6757,47 +6757,47 @@
       <c r="L38" s="61"/>
       <c r="M38" s="61"/>
     </row>
-    <row r="39" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="42"/>
       <c r="B39" s="57"/>
       <c r="C39" s="2"/>
       <c r="D39" s="111" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
     </row>
-    <row r="40" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="42"/>
       <c r="B40" s="57"/>
       <c r="C40" s="2"/>
       <c r="D40" s="53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
     </row>
-    <row r="41" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="42"/>
       <c r="B41" s="57"/>
       <c r="C41" s="2"/>
       <c r="D41" s="53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
     </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="42"/>
       <c r="B42" s="57"/>
       <c r="C42" s="2"/>
       <c r="D42" s="53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
     </row>
-    <row r="43" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="42"/>
       <c r="B43" s="57"/>
       <c r="C43" s="2"/>
@@ -6805,51 +6805,51 @@
       <c r="E43" s="79"/>
       <c r="F43" s="79"/>
     </row>
-    <row r="44" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="42"/>
       <c r="B44" s="57"/>
       <c r="C44" s="2"/>
       <c r="D44" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="79"/>
     </row>
-    <row r="45" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="42"/>
       <c r="B45" s="57"/>
       <c r="C45" s="2"/>
       <c r="D45" s="66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="42"/>
       <c r="B46" s="57"/>
       <c r="C46" s="2"/>
       <c r="D46" s="66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="42"/>
       <c r="B47" s="57"/>
       <c r="C47" s="2"/>
       <c r="D47" s="53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="87"/>
       <c r="C49" s="8"/>
       <c r="D49" s="82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
@@ -6913,15 +6913,15 @@
       <c r="BL49" s="8"/>
       <c r="BM49" s="8"/>
     </row>
-    <row r="50" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="87"/>
       <c r="C50" s="8"/>
       <c r="D50" s="86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="8"/>
@@ -6984,15 +6984,15 @@
       <c r="BL50" s="8"/>
       <c r="BM50" s="8"/>
     </row>
-    <row r="51" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="87"/>
       <c r="C51" s="8"/>
       <c r="D51" s="86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E51" s="85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="85"/>
       <c r="G51" s="8"/>
@@ -7055,15 +7055,15 @@
       <c r="BL51" s="8"/>
       <c r="BM51" s="8"/>
     </row>
-    <row r="52" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="87"/>
       <c r="C52" s="8"/>
       <c r="D52" s="90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="84"/>
@@ -7126,15 +7126,15 @@
       <c r="BL52" s="8"/>
       <c r="BM52" s="8"/>
     </row>
-    <row r="53" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="87"/>
       <c r="C53" s="8"/>
       <c r="D53" s="90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F53" s="85"/>
       <c r="G53" s="8"/>
@@ -7197,7 +7197,7 @@
       <c r="BL53" s="8"/>
       <c r="BM53" s="8"/>
     </row>
-    <row r="54" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
       <c r="B54" s="87"/>
       <c r="C54" s="8"/>
@@ -7205,7 +7205,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F54" s="85"/>
       <c r="G54" s="8"/>
@@ -7268,15 +7268,15 @@
       <c r="BL54" s="8"/>
       <c r="BM54" s="8"/>
     </row>
-    <row r="55" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
       <c r="B55" s="87"/>
       <c r="C55" s="8"/>
       <c r="D55" s="86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F55" s="85"/>
       <c r="G55" s="8"/>
@@ -7339,15 +7339,15 @@
       <c r="BL55" s="8"/>
       <c r="BM55" s="8"/>
     </row>
-    <row r="56" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
       <c r="B56" s="87"/>
       <c r="C56" s="8"/>
       <c r="D56" s="90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F56" s="85"/>
       <c r="G56" s="8"/>
@@ -7410,15 +7410,15 @@
       <c r="BL56" s="8"/>
       <c r="BM56" s="8"/>
     </row>
-    <row r="57" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="87"/>
       <c r="C57" s="8"/>
       <c r="D57" s="90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F57" s="85"/>
       <c r="G57" s="8"/>
@@ -7481,15 +7481,15 @@
       <c r="BL57" s="8"/>
       <c r="BM57" s="8"/>
     </row>
-    <row r="58" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="87"/>
       <c r="C58" s="8"/>
       <c r="D58" s="90" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F58" s="85"/>
       <c r="G58" s="8"/>
@@ -7552,7 +7552,7 @@
       <c r="BL58" s="8"/>
       <c r="BM58" s="8"/>
     </row>
-    <row r="59" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="87"/>
       <c r="C59" s="8"/>
@@ -7560,7 +7560,7 @@
         <v>2026</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F59" s="85"/>
       <c r="G59" s="8"/>
@@ -7623,15 +7623,15 @@
       <c r="BL59" s="8"/>
       <c r="BM59" s="8"/>
     </row>
-    <row r="60" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="87"/>
       <c r="C60" s="8"/>
       <c r="D60" s="90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" s="85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="85"/>
       <c r="G60" s="8"/>
@@ -7694,15 +7694,15 @@
       <c r="BL60" s="8"/>
       <c r="BM60" s="8"/>
     </row>
-    <row r="61" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
       <c r="B61" s="87"/>
       <c r="C61" s="8"/>
       <c r="D61" s="92" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F61" s="93"/>
       <c r="G61" s="8"/>
@@ -7765,7 +7765,7 @@
       <c r="BL61" s="8"/>
       <c r="BM61" s="8"/>
     </row>
-    <row r="62" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7832,7 +7832,7 @@
       <c r="BL62" s="8"/>
       <c r="BM62" s="8"/>
     </row>
-    <row r="63" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="42"/>
       <c r="B63" s="57"/>
       <c r="C63" s="2"/>
@@ -7849,7 +7849,7 @@
       <c r="L63" s="61"/>
       <c r="M63" s="61"/>
     </row>
-    <row r="64" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="42"/>
       <c r="B64" s="57"/>
       <c r="C64" s="2"/>
@@ -7857,7 +7857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="42"/>
       <c r="B65" s="57"/>
       <c r="C65" s="2"/>
@@ -7865,7 +7865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="42"/>
       <c r="B66" s="57"/>
       <c r="C66" s="2"/>
@@ -7880,7 +7880,7 @@
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
     </row>
-    <row r="67" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="42"/>
       <c r="B67" s="57"/>
       <c r="C67" s="2"/>
@@ -7888,15 +7888,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="42"/>
       <c r="B68" s="57"/>
       <c r="C68" s="2"/>
       <c r="D68" s="54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="42"/>
       <c r="B69" s="57"/>
       <c r="C69" s="2"/>
@@ -7904,7 +7904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="42"/>
       <c r="B70" s="57"/>
       <c r="C70" s="2"/>
@@ -7912,26 +7912,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:65" s="10" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="42"/>
       <c r="B71" s="57"/>
       <c r="C71" s="2"/>
       <c r="D71" s="72"/>
     </row>
-    <row r="72" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
       <c r="B72" s="31"/>
       <c r="D72" s="74" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
     </row>
-    <row r="74" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="42"/>
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
@@ -7948,12 +7948,12 @@
       <c r="L74" s="26"/>
       <c r="M74" s="26"/>
     </row>
-    <row r="75" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="42"/>
       <c r="B75" s="24"/>
       <c r="C75" s="2"/>
       <c r="D75" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
@@ -7963,12 +7963,12 @@
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
     </row>
-    <row r="76" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="76"/>
       <c r="B76" s="77"/>
       <c r="C76" s="76"/>
       <c r="D76" s="78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E76" s="79"/>
       <c r="F76" s="79"/>
@@ -8032,12 +8032,12 @@
       <c r="BL76" s="79"/>
       <c r="BM76" s="79"/>
     </row>
-    <row r="77" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="76"/>
       <c r="B77" s="77"/>
       <c r="C77" s="76"/>
       <c r="D77" s="94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E77" s="79"/>
       <c r="F77" s="79"/>
@@ -8101,12 +8101,12 @@
       <c r="BL77" s="79"/>
       <c r="BM77" s="79"/>
     </row>
-    <row r="78" spans="1:65" s="10" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:65" s="10" customFormat="1" ht="65.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="42"/>
       <c r="B78" s="24"/>
       <c r="C78" s="2"/>
       <c r="D78" s="133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E78" s="133"/>
       <c r="F78" s="133"/>
@@ -8118,7 +8118,7 @@
       <c r="L78" s="133"/>
       <c r="M78" s="133"/>
     </row>
-    <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D79" s="42"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -8182,7 +8182,7 @@
     <hyperlink ref="D70" r:id="rId6" xr:uid="{E76059EB-9255-4EDF-B774-ABA65BA1FECF}"/>
     <hyperlink ref="D67" r:id="rId7" xr:uid="{F103FCC3-91BB-4DE4-901B-4B0ACC7F0301}"/>
     <hyperlink ref="D72" r:id="rId8" xr:uid="{C1B02168-BA3E-4A94-B487-CCE274EBB4FE}"/>
-    <hyperlink ref="D39" r:id="rId9" xr:uid="{BA44C632-35EC-47DB-ACA8-5B4B8027B8FC}"/>
+    <hyperlink ref="D39" r:id="rId9" display="下载模板 Yi.Engine.Deploy.Rule.iso 后，解压到任意磁盘，示例解压到：D:\Yi，选择版本后运行下载脚本：" xr:uid="{BA44C632-35EC-47DB-ACA8-5B4B8027B8FC}"/>
     <hyperlink ref="D78:K78" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
     <hyperlink ref="E61" r:id="rId11" display="ISO = ISO 文件；.ASC = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：https://fengyi.tel/pgp" xr:uid="{705BB231-D14B-4790-B5E3-1098377CC6B8}"/>
   </hyperlinks>

--- a/_Learn/Yi.Studio.event/latest.xlsx
+++ b/_Learn/Yi.Studio.event/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5924f5d6bcb7c7fc/_Feng/_Site/solutions/Yi.Studio.event/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF8A296-EDBB-4F5C-AA8F-C11B0ABA37D7}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="109_{EB264186-49EC-44E5-BFD4-1CDF6BC702DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE7D7933-1131-40C7-B35F-6F29E4923130}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="16629" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encapsulated Events" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="151">
   <si>
     <t>https://www.123pan.com/s/zitA-9U9l</t>
   </si>
@@ -711,9 +711,6 @@
     <t>Badiupan</t>
   </si>
   <si>
-    <t>Microsoft Windows 11 25H2 26200.7623</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Microsoft Windows 10 22H2 19045.6456
 </t>
@@ -2318,6 +2315,83 @@
   </si>
   <si>
     <t>After downloading the template file Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_11_26H1_x64_2l1_16in1_1dima21h_feb_2026_D53BC517D52DDD866EFBEAD01353957FC829CC4D6817EB79BF6BCF4B984A0581.iso</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 11 26H1 28000.1575</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deployment engine: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Multilingual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>v2.2.3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>部署引擎：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Multilingual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>v2.2.3.0</t>
+    </r>
+  </si>
+  <si>
+    <t>Microsoft Windows 11 25H2 26200.7840</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_11_26H1_x64_3l1_16in1_x86qep9s_feb_2026_9A5B33A7C1A6F81E2766AD249FB42ECAF9BA06C56813E64761F79CA81A48A32C.iso</t>
+  </si>
+  <si>
+    <t>mul_Yi_Windows_11_26H1_x64_2l1_16in1_ibad2xze_feb_2026_B9226D2A706E8A856616421B74682DE7AA5A204608401B977A056CDF2B301578.iso</t>
   </si>
 </sst>
 </file>
@@ -4084,38 +4158,38 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO101"/>
+  <dimension ref="A1:BO106"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.61328125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="0.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="0.84375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.61328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="100.61328125" style="10" customWidth="1"/>
-    <col min="6" max="8" width="11.61328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40.61328125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.61328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.61328125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.61328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="0.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.61328125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="100.6328125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="11.6328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2.6328125" style="42" customWidth="1"/>
     <col min="16" max="67" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.15234375" style="45" hidden="1"/>
+    <col min="68" max="16384" width="9.1796875" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
@@ -4132,7 +4206,7 @@
       <c r="N2" s="118"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="80.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
       <c r="B3" s="126" t="s">
         <v>21</v>
@@ -4151,26 +4225,26 @@
       <c r="N3" s="126"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>134</v>
-      </c>
       <c r="F4" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>24</v>
@@ -4182,11 +4256,11 @@
         <v>63</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
@@ -4201,7 +4275,7 @@
       <c r="M5" s="109"/>
       <c r="N5" s="118"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17"/>
       <c r="D6" s="46" t="s">
         <v>10</v>
@@ -4216,7 +4290,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -4229,14 +4303,12 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="D8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>116</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="4">
         <v>1</v>
       </c>
@@ -4244,10 +4316,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4260,644 +4332,727 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
-      <c r="D9" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="103">
-        <v>1</v>
-      </c>
-      <c r="G9" s="103" t="s">
+      <c r="D9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="103">
-        <v>1</v>
-      </c>
-      <c r="K9" s="103">
-        <v>1</v>
-      </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="45"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="45"/>
-      <c r="B11" s="19"/>
-      <c r="D11" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="O11" s="45"/>
-    </row>
-    <row r="12" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="103">
+        <v>1</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="103">
+        <v>1</v>
+      </c>
+      <c r="K10" s="103">
+        <v>1</v>
+      </c>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="17"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="45"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="45"/>
       <c r="B12" s="19"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="D12" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="O12" s="45"/>
     </row>
-    <row r="13" spans="1:15" s="42" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
+    <row r="13" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="45"/>
+      <c r="B13" s="19"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="1:15" s="42" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="18"/>
-      <c r="D14" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="100" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="103">
-        <v>1</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="103">
-        <v>1</v>
-      </c>
-      <c r="K14" s="103">
-        <v>1</v>
-      </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" s="42" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="20"/>
-      <c r="D16" s="47" t="s">
+    <row r="16" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="18"/>
+      <c r="D16" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="103">
+        <v>1</v>
+      </c>
+      <c r="G16" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="103">
+        <v>1</v>
+      </c>
+      <c r="K16" s="103">
+        <v>1</v>
+      </c>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="45"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="20"/>
+      <c r="D18" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="45"/>
+    </row>
+    <row r="19" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="20"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="45"/>
+    </row>
+    <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20"/>
+      <c r="D20" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="20"/>
+      <c r="D21" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="20"/>
+      <c r="D22" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="103">
+        <v>1</v>
+      </c>
+      <c r="G22" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="103">
+        <v>1</v>
+      </c>
+      <c r="K22" s="103">
+        <v>1</v>
+      </c>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="20"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="45"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="45"/>
+      <c r="B24" s="21"/>
+      <c r="D24" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="45"/>
+      <c r="B25" s="22"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="O25" s="45"/>
+    </row>
+    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="21"/>
+      <c r="D26" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="O16" s="45"/>
-    </row>
-    <row r="17" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="20"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="O17" s="45"/>
-    </row>
-    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="20"/>
-      <c r="D18" s="14" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="45"/>
+    </row>
+    <row r="27" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="21"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="O27" s="45"/>
+    </row>
+    <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="21"/>
+      <c r="D28" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21"/>
+      <c r="D29" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21"/>
+      <c r="D30" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="E30" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="103">
+        <v>1</v>
+      </c>
+      <c r="G30" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="20"/>
-      <c r="D19" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="103">
-        <v>1</v>
-      </c>
-      <c r="G19" s="103" t="s">
+      <c r="H30" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="103">
+        <v>1</v>
+      </c>
+      <c r="K30" s="103">
+        <v>1</v>
+      </c>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103">
+        <v>1</v>
+      </c>
+      <c r="O30" s="45"/>
+    </row>
+    <row r="31" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="21"/>
+      <c r="C31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="45"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="23"/>
+      <c r="D32" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="45"/>
+    </row>
+    <row r="33" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="45"/>
+      <c r="B33" s="23"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="O33" s="45"/>
+    </row>
+    <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="23"/>
+      <c r="D34" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="103">
-        <v>1</v>
-      </c>
-      <c r="K19" s="103">
-        <v>1</v>
-      </c>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="20"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="45"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="45"/>
-      <c r="B21" s="21"/>
-      <c r="D21" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="O21" s="45"/>
-    </row>
-    <row r="22" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="45"/>
-      <c r="B22" s="22"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="O22" s="45"/>
-    </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="21"/>
-      <c r="D23" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="O23" s="45"/>
-    </row>
-    <row r="24" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="21"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="O24" s="45"/>
-    </row>
-    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="21"/>
-      <c r="D25" s="14" t="s">
+      <c r="H34" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="23"/>
+      <c r="D35" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="45"/>
+      <c r="B36" s="23"/>
+      <c r="D36" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="E36" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="103">
+        <v>1</v>
+      </c>
+      <c r="G36" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="21"/>
-      <c r="D26" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="100" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="103">
-        <v>1</v>
-      </c>
-      <c r="G26" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="103">
-        <v>1</v>
-      </c>
-      <c r="K26" s="103">
-        <v>1</v>
-      </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103">
-        <v>1</v>
-      </c>
-      <c r="O26" s="45"/>
-    </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="21"/>
-      <c r="C27" s="2"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="45"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="23"/>
-      <c r="D28" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="O28" s="45"/>
-    </row>
-    <row r="29" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="45"/>
-      <c r="B29" s="23"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="O29" s="45"/>
-    </row>
-    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="23"/>
-      <c r="D30" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="45"/>
-      <c r="B31" s="23"/>
-      <c r="D31" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="103">
-        <v>1</v>
-      </c>
-      <c r="G31" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="103">
-        <v>1</v>
-      </c>
-      <c r="K31" s="103">
-        <v>1</v>
-      </c>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-    </row>
-    <row r="33" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="44"/>
-    </row>
-    <row r="34" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="120"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="96"/>
-    </row>
-    <row r="35" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="121"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="105"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="106"/>
-    </row>
-    <row r="36" spans="2:13" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="128"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-    </row>
-    <row r="37" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H36" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="103">
+        <v>1</v>
+      </c>
+      <c r="K36" s="103">
+        <v>1</v>
+      </c>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="M37" s="42"/>
-    </row>
-    <row r="38" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="57"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-    </row>
-    <row r="39" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="57"/>
+    </row>
+    <row r="38" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="44"/>
+    </row>
+    <row r="39" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="120"/>
       <c r="C39" s="42"/>
-      <c r="D39" s="110" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="M39" s="42"/>
-    </row>
-    <row r="40" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="57"/>
+      <c r="D39" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="96"/>
+    </row>
+    <row r="40" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="121"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="M40" s="42"/>
-    </row>
-    <row r="41" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="57"/>
+      <c r="D40" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="105"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="106"/>
+    </row>
+    <row r="41" spans="1:15" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="41"/>
       <c r="C41" s="42"/>
-      <c r="D41" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="M41" s="42"/>
-    </row>
-    <row r="42" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="57"/>
+      <c r="D41" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="128"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+    </row>
+    <row r="42" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="42"/>
       <c r="C42" s="42"/>
-      <c r="D42" s="53" t="s">
-        <v>50</v>
-      </c>
+      <c r="D42" s="42"/>
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -4906,38 +5061,41 @@
       <c r="J42" s="42"/>
       <c r="M42" s="42"/>
     </row>
-    <row r="43" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="57"/>
       <c r="C43" s="42"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="M43" s="42"/>
-    </row>
-    <row r="44" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D43" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+    </row>
+    <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="57"/>
       <c r="C44" s="42"/>
-      <c r="D44" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="2"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-    </row>
-    <row r="45" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="M44" s="42"/>
+    </row>
+    <row r="45" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="57"/>
       <c r="C45" s="42"/>
-      <c r="D45" s="66" t="s">
-        <v>60</v>
+      <c r="D45" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
@@ -4947,11 +5105,11 @@
       <c r="J45" s="42"/>
       <c r="M45" s="42"/>
     </row>
-    <row r="46" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="57"/>
       <c r="C46" s="42"/>
-      <c r="D46" s="66" t="s">
-        <v>61</v>
+      <c r="D46" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
@@ -4961,11 +5119,11 @@
       <c r="J46" s="42"/>
       <c r="M46" s="42"/>
     </row>
-    <row r="47" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="57"/>
       <c r="C47" s="42"/>
       <c r="D47" s="53" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
@@ -4975,10 +5133,10 @@
       <c r="J47" s="42"/>
       <c r="M47" s="42"/>
     </row>
-    <row r="48" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="42"/>
+    <row r="48" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="57"/>
       <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -4987,301 +5145,298 @@
       <c r="J48" s="42"/>
       <c r="M48" s="42"/>
     </row>
-    <row r="49" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="87"/>
-      <c r="D49" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-    </row>
-    <row r="50" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="87"/>
-      <c r="D50" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="85"/>
-    </row>
-    <row r="51" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="87"/>
-      <c r="D51" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="85"/>
-    </row>
-    <row r="52" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="87"/>
-      <c r="D52" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="85"/>
-      <c r="G52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-    </row>
-    <row r="53" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="87"/>
-      <c r="D53" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="85"/>
-    </row>
-    <row r="54" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="57"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="2"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="98"/>
+    </row>
+    <row r="50" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="57"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="M50" s="42"/>
+    </row>
+    <row r="51" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="57"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="M51" s="42"/>
+    </row>
+    <row r="52" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="57"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="M52" s="42"/>
+    </row>
+    <row r="53" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="M53" s="42"/>
+    </row>
+    <row r="54" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="87"/>
-      <c r="D54" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="85"/>
-    </row>
-    <row r="55" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D54" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+    </row>
+    <row r="55" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="87"/>
       <c r="D55" s="86" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F55" s="85"/>
     </row>
-    <row r="56" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="87"/>
-      <c r="D56" s="90" t="s">
-        <v>74</v>
+      <c r="D56" s="86" t="s">
+        <v>68</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F56" s="85"/>
     </row>
-    <row r="57" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="87"/>
       <c r="D57" s="90" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F57" s="85"/>
-    </row>
-    <row r="58" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+    </row>
+    <row r="58" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="87"/>
       <c r="D58" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="85">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="E58" s="85" t="s">
+        <v>79</v>
       </c>
       <c r="F58" s="85"/>
     </row>
-    <row r="59" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="87"/>
-      <c r="D59" s="90">
+      <c r="D59" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="85"/>
+    </row>
+    <row r="60" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="87"/>
+      <c r="D60" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="85"/>
+    </row>
+    <row r="61" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="87"/>
+      <c r="D61" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="85"/>
+    </row>
+    <row r="62" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="87"/>
+      <c r="D62" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="85"/>
+    </row>
+    <row r="63" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="87"/>
+      <c r="D63" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="85">
+        <v>1</v>
+      </c>
+      <c r="F63" s="85"/>
+    </row>
+    <row r="64" spans="2:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="87"/>
+      <c r="D64" s="90">
         <v>2026</v>
       </c>
-      <c r="E59" s="85" t="s">
+      <c r="E64" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="85"/>
+    </row>
+    <row r="65" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="79"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="89"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="79"/>
+      <c r="Q65" s="79"/>
+      <c r="R65" s="79"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="79"/>
+      <c r="U65" s="79"/>
+      <c r="V65" s="79"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="79"/>
+      <c r="Y65" s="79"/>
+      <c r="Z65" s="79"/>
+      <c r="AA65" s="79"/>
+      <c r="AB65" s="79"/>
+      <c r="AC65" s="79"/>
+      <c r="AD65" s="79"/>
+      <c r="AE65" s="79"/>
+      <c r="AF65" s="79"/>
+      <c r="AG65" s="79"/>
+      <c r="AH65" s="79"/>
+      <c r="AI65" s="79"/>
+      <c r="AJ65" s="79"/>
+      <c r="AK65" s="79"/>
+      <c r="AL65" s="79"/>
+      <c r="AM65" s="79"/>
+      <c r="AN65" s="79"/>
+      <c r="AO65" s="79"/>
+      <c r="AP65" s="79"/>
+      <c r="AQ65" s="79"/>
+      <c r="AR65" s="79"/>
+      <c r="AS65" s="79"/>
+      <c r="AT65" s="79"/>
+      <c r="AU65" s="79"/>
+      <c r="AV65" s="79"/>
+      <c r="AW65" s="79"/>
+      <c r="AX65" s="79"/>
+      <c r="AY65" s="79"/>
+      <c r="AZ65" s="79"/>
+      <c r="BA65" s="79"/>
+      <c r="BB65" s="79"/>
+      <c r="BC65" s="79"/>
+      <c r="BD65" s="79"/>
+      <c r="BE65" s="79"/>
+      <c r="BF65" s="79"/>
+      <c r="BG65" s="79"/>
+      <c r="BH65" s="79"/>
+      <c r="BI65" s="79"/>
+      <c r="BJ65" s="79"/>
+      <c r="BK65" s="79"/>
+      <c r="BL65" s="79"/>
+      <c r="BM65" s="79"/>
+    </row>
+    <row r="66" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="87"/>
+      <c r="D66" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F59" s="85"/>
-    </row>
-    <row r="60" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="79"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="91" t="s">
+      <c r="E66" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="89"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="79"/>
-      <c r="R60" s="79"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="79"/>
-      <c r="U60" s="79"/>
-      <c r="V60" s="79"/>
-      <c r="W60" s="79"/>
-      <c r="X60" s="79"/>
-      <c r="Y60" s="79"/>
-      <c r="Z60" s="79"/>
-      <c r="AA60" s="79"/>
-      <c r="AB60" s="79"/>
-      <c r="AC60" s="79"/>
-      <c r="AD60" s="79"/>
-      <c r="AE60" s="79"/>
-      <c r="AF60" s="79"/>
-      <c r="AG60" s="79"/>
-      <c r="AH60" s="79"/>
-      <c r="AI60" s="79"/>
-      <c r="AJ60" s="79"/>
-      <c r="AK60" s="79"/>
-      <c r="AL60" s="79"/>
-      <c r="AM60" s="79"/>
-      <c r="AN60" s="79"/>
-      <c r="AO60" s="79"/>
-      <c r="AP60" s="79"/>
-      <c r="AQ60" s="79"/>
-      <c r="AR60" s="79"/>
-      <c r="AS60" s="79"/>
-      <c r="AT60" s="79"/>
-      <c r="AU60" s="79"/>
-      <c r="AV60" s="79"/>
-      <c r="AW60" s="79"/>
-      <c r="AX60" s="79"/>
-      <c r="AY60" s="79"/>
-      <c r="AZ60" s="79"/>
-      <c r="BA60" s="79"/>
-      <c r="BB60" s="79"/>
-      <c r="BC60" s="79"/>
-      <c r="BD60" s="79"/>
-      <c r="BE60" s="79"/>
-      <c r="BF60" s="79"/>
-      <c r="BG60" s="79"/>
-      <c r="BH60" s="79"/>
-      <c r="BI60" s="79"/>
-      <c r="BJ60" s="79"/>
-      <c r="BK60" s="79"/>
-      <c r="BL60" s="79"/>
-      <c r="BM60" s="79"/>
-    </row>
-    <row r="61" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="87"/>
-      <c r="D61" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="93"/>
-    </row>
-    <row r="62" spans="1:65" s="79" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="57"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-    </row>
-    <row r="64" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="57"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="M64" s="42"/>
-    </row>
-    <row r="65" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="57"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="M65" s="42"/>
-    </row>
-    <row r="66" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="57"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-    </row>
-    <row r="67" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="57"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="M67" s="42"/>
-    </row>
-    <row r="68" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F66" s="93"/>
+    </row>
+    <row r="67" spans="1:65" s="79" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="57"/>
       <c r="C68" s="42"/>
-      <c r="D68" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="M68" s="42"/>
-    </row>
-    <row r="69" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D68" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+    </row>
+    <row r="69" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="57"/>
       <c r="C69" s="42"/>
-      <c r="D69" s="55" t="s">
-        <v>39</v>
+      <c r="D69" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
@@ -5291,11 +5446,11 @@
       <c r="J69" s="42"/>
       <c r="M69" s="42"/>
     </row>
-    <row r="70" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="57"/>
       <c r="C70" s="42"/>
-      <c r="D70" s="68" t="s">
-        <v>33</v>
+      <c r="D70" s="64" t="s">
+        <v>44</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
@@ -5305,46 +5460,42 @@
       <c r="J70" s="42"/>
       <c r="M70" s="42"/>
     </row>
-    <row r="71" spans="1:65" s="8" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="3"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="42"/>
+    <row r="71" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="57"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+    </row>
+    <row r="72" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="57"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="M72" s="42"/>
+    </row>
+    <row r="73" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="57"/>
       <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
+      <c r="D73" s="55" t="s">
+        <v>56</v>
+      </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
@@ -5353,279 +5504,280 @@
       <c r="J73" s="42"/>
       <c r="M73" s="42"/>
     </row>
-    <row r="74" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="24"/>
+    <row r="74" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="57"/>
       <c r="C74" s="42"/>
-      <c r="D74" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="112"/>
-      <c r="I74" s="112"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="24"/>
+      <c r="D74" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="M74" s="42"/>
+    </row>
+    <row r="75" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="57"/>
       <c r="C75" s="42"/>
-      <c r="D75" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+      <c r="D75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
       <c r="H75" s="42"/>
       <c r="I75" s="42"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-    </row>
-    <row r="76" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="76"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="76"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="76"/>
-      <c r="R76" s="76"/>
-      <c r="S76" s="76"/>
-      <c r="T76" s="76"/>
-      <c r="U76" s="76"/>
-      <c r="V76" s="76"/>
-      <c r="W76" s="76"/>
-      <c r="X76" s="76"/>
-      <c r="Y76" s="76"/>
-      <c r="Z76" s="76"/>
-      <c r="AA76" s="76"/>
-      <c r="AB76" s="76"/>
-      <c r="AC76" s="76"/>
-      <c r="AD76" s="76"/>
-      <c r="AE76" s="76"/>
-      <c r="AF76" s="76"/>
-      <c r="AG76" s="76"/>
-      <c r="AH76" s="76"/>
-      <c r="AI76" s="76"/>
-      <c r="AJ76" s="76"/>
-      <c r="AK76" s="76"/>
-      <c r="AL76" s="76"/>
-      <c r="AM76" s="76"/>
-      <c r="AN76" s="76"/>
-      <c r="AO76" s="76"/>
-      <c r="AP76" s="76"/>
-      <c r="AQ76" s="76"/>
-      <c r="AR76" s="76"/>
-      <c r="AS76" s="76"/>
-      <c r="AT76" s="76"/>
-      <c r="AU76" s="76"/>
-      <c r="AV76" s="76"/>
-      <c r="AW76" s="76"/>
-      <c r="AX76" s="76"/>
-      <c r="AY76" s="76"/>
-      <c r="AZ76" s="76"/>
-      <c r="BA76" s="76"/>
-      <c r="BB76" s="76"/>
-      <c r="BC76" s="76"/>
-      <c r="BD76" s="76"/>
-      <c r="BE76" s="76"/>
-      <c r="BF76" s="76"/>
-      <c r="BG76" s="76"/>
-      <c r="BH76" s="76"/>
-      <c r="BI76" s="76"/>
-      <c r="BJ76" s="76"/>
-      <c r="BK76" s="76"/>
-      <c r="BL76" s="76"/>
-      <c r="BM76" s="76"/>
-    </row>
-    <row r="77" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="76"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="76"/>
-      <c r="S77" s="76"/>
-      <c r="T77" s="76"/>
-      <c r="U77" s="76"/>
-      <c r="V77" s="76"/>
-      <c r="W77" s="76"/>
-      <c r="X77" s="76"/>
-      <c r="Y77" s="76"/>
-      <c r="Z77" s="76"/>
-      <c r="AA77" s="76"/>
-      <c r="AB77" s="76"/>
-      <c r="AC77" s="76"/>
-      <c r="AD77" s="76"/>
-      <c r="AE77" s="76"/>
-      <c r="AF77" s="76"/>
-      <c r="AG77" s="76"/>
-      <c r="AH77" s="76"/>
-      <c r="AI77" s="76"/>
-      <c r="AJ77" s="76"/>
-      <c r="AK77" s="76"/>
-      <c r="AL77" s="76"/>
-      <c r="AM77" s="76"/>
-      <c r="AN77" s="76"/>
-      <c r="AO77" s="76"/>
-      <c r="AP77" s="76"/>
-      <c r="AQ77" s="76"/>
-      <c r="AR77" s="76"/>
-      <c r="AS77" s="76"/>
-      <c r="AT77" s="76"/>
-      <c r="AU77" s="76"/>
-      <c r="AV77" s="76"/>
-      <c r="AW77" s="76"/>
-      <c r="AX77" s="76"/>
-      <c r="AY77" s="76"/>
-      <c r="AZ77" s="76"/>
-      <c r="BA77" s="76"/>
-      <c r="BB77" s="76"/>
-      <c r="BC77" s="76"/>
-      <c r="BD77" s="76"/>
-      <c r="BE77" s="76"/>
-      <c r="BF77" s="76"/>
-      <c r="BG77" s="76"/>
-      <c r="BH77" s="76"/>
-      <c r="BI77" s="76"/>
-      <c r="BJ77" s="76"/>
-      <c r="BK77" s="76"/>
-      <c r="BL77" s="76"/>
-      <c r="BM77" s="76"/>
-    </row>
-    <row r="78" spans="1:65" ht="65.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="24"/>
+      <c r="J75" s="42"/>
+      <c r="M75" s="42"/>
+    </row>
+    <row r="76" spans="1:65" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:65" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="42"/>
       <c r="C78" s="42"/>
-      <c r="D78" s="127" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="127"/>
-      <c r="F78" s="127"/>
-      <c r="G78" s="127"/>
-      <c r="H78" s="127"/>
-      <c r="I78" s="127"/>
-      <c r="J78" s="127"/>
-      <c r="K78" s="127"/>
-      <c r="L78" s="127"/>
-      <c r="M78" s="127"/>
-    </row>
-    <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="M78" s="42"/>
+    </row>
+    <row r="79" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="24"/>
       <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="M79" s="42"/>
-    </row>
-    <row r="81" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D79" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="112"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="24"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+    </row>
+    <row r="81" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="76"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="76"/>
+      <c r="M81" s="76"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="76"/>
+      <c r="P81" s="76"/>
+      <c r="Q81" s="76"/>
+      <c r="R81" s="76"/>
+      <c r="S81" s="76"/>
+      <c r="T81" s="76"/>
+      <c r="U81" s="76"/>
+      <c r="V81" s="76"/>
+      <c r="W81" s="76"/>
+      <c r="X81" s="76"/>
+      <c r="Y81" s="76"/>
+      <c r="Z81" s="76"/>
+      <c r="AA81" s="76"/>
+      <c r="AB81" s="76"/>
+      <c r="AC81" s="76"/>
+      <c r="AD81" s="76"/>
+      <c r="AE81" s="76"/>
+      <c r="AF81" s="76"/>
+      <c r="AG81" s="76"/>
+      <c r="AH81" s="76"/>
+      <c r="AI81" s="76"/>
+      <c r="AJ81" s="76"/>
+      <c r="AK81" s="76"/>
+      <c r="AL81" s="76"/>
+      <c r="AM81" s="76"/>
+      <c r="AN81" s="76"/>
+      <c r="AO81" s="76"/>
+      <c r="AP81" s="76"/>
+      <c r="AQ81" s="76"/>
+      <c r="AR81" s="76"/>
+      <c r="AS81" s="76"/>
+      <c r="AT81" s="76"/>
+      <c r="AU81" s="76"/>
+      <c r="AV81" s="76"/>
+      <c r="AW81" s="76"/>
+      <c r="AX81" s="76"/>
+      <c r="AY81" s="76"/>
+      <c r="AZ81" s="76"/>
+      <c r="BA81" s="76"/>
+      <c r="BB81" s="76"/>
+      <c r="BC81" s="76"/>
+      <c r="BD81" s="76"/>
+      <c r="BE81" s="76"/>
+      <c r="BF81" s="76"/>
+      <c r="BG81" s="76"/>
+      <c r="BH81" s="76"/>
+      <c r="BI81" s="76"/>
+      <c r="BJ81" s="76"/>
+      <c r="BK81" s="76"/>
+      <c r="BL81" s="76"/>
+      <c r="BM81" s="76"/>
+    </row>
+    <row r="82" spans="1:65" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="76"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="76"/>
+      <c r="L82" s="76"/>
+      <c r="M82" s="76"/>
+      <c r="N82" s="76"/>
+      <c r="O82" s="76"/>
+      <c r="P82" s="76"/>
+      <c r="Q82" s="76"/>
+      <c r="R82" s="76"/>
+      <c r="S82" s="76"/>
+      <c r="T82" s="76"/>
+      <c r="U82" s="76"/>
+      <c r="V82" s="76"/>
+      <c r="W82" s="76"/>
+      <c r="X82" s="76"/>
+      <c r="Y82" s="76"/>
+      <c r="Z82" s="76"/>
+      <c r="AA82" s="76"/>
+      <c r="AB82" s="76"/>
+      <c r="AC82" s="76"/>
+      <c r="AD82" s="76"/>
+      <c r="AE82" s="76"/>
+      <c r="AF82" s="76"/>
+      <c r="AG82" s="76"/>
+      <c r="AH82" s="76"/>
+      <c r="AI82" s="76"/>
+      <c r="AJ82" s="76"/>
+      <c r="AK82" s="76"/>
+      <c r="AL82" s="76"/>
+      <c r="AM82" s="76"/>
+      <c r="AN82" s="76"/>
+      <c r="AO82" s="76"/>
+      <c r="AP82" s="76"/>
+      <c r="AQ82" s="76"/>
+      <c r="AR82" s="76"/>
+      <c r="AS82" s="76"/>
+      <c r="AT82" s="76"/>
+      <c r="AU82" s="76"/>
+      <c r="AV82" s="76"/>
+      <c r="AW82" s="76"/>
+      <c r="AX82" s="76"/>
+      <c r="AY82" s="76"/>
+      <c r="AZ82" s="76"/>
+      <c r="BA82" s="76"/>
+      <c r="BB82" s="76"/>
+      <c r="BC82" s="76"/>
+      <c r="BD82" s="76"/>
+      <c r="BE82" s="76"/>
+      <c r="BF82" s="76"/>
+      <c r="BG82" s="76"/>
+      <c r="BH82" s="76"/>
+      <c r="BI82" s="76"/>
+      <c r="BJ82" s="76"/>
+      <c r="BK82" s="76"/>
+      <c r="BL82" s="76"/>
+      <c r="BM82" s="76"/>
+    </row>
+    <row r="83" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="24"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="127"/>
+      <c r="L83" s="127"/>
+      <c r="M83" s="127"/>
+    </row>
+    <row r="84" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="M84" s="42"/>
+    </row>
+    <row r="86" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -5640,7 +5792,7 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -5655,7 +5807,7 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -5670,7 +5822,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -5685,7 +5837,7 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -5700,7 +5852,7 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -5715,7 +5867,7 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -5730,7 +5882,7 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -5745,7 +5897,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -5760,7 +5912,7 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -5775,7 +5927,7 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:65" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -5790,7 +5942,7 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -5805,7 +5957,7 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -5820,7 +5972,7 @@
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -5835,7 +5987,7 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5850,7 +6002,7 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -5865,22 +6017,97 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
+    <row r="102" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="2:14" s="42" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="9">
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F9 F13:F14 F18:F19 F25:F26 F30:F31">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="F8:F10 F14:F16 F20:F22 F28:F30 F34:F36">
+    <cfRule type="iconSet" priority="7">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -5888,8 +6115,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K9 J13:K14 J18:K19 J25:K26 J30:K31">
-    <cfRule type="iconSet" priority="420">
+  <conditionalFormatting sqref="J8:K8">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -5897,8 +6124,53 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9 M13:M14 M18:M19 M25:M26 M30:M31">
+  <conditionalFormatting sqref="J9:K10 J15:K16 J21:K22 J29:K30 J35:K36">
+    <cfRule type="iconSet" priority="425">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:K14">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:K20">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:K28">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:K34">
     <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M10 M14:M16 M20:M22 M28:M30 M34:M36">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -5907,23 +6179,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F9 F13:F14 F18:F19 F25:F26 F30:F31 J18:M19 J30:M31 J25:M26 J8:M9 J13:M14" xr:uid="{23AE6323-BC7F-40E9-A5AD-9DE77137CC3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F10 F14:F16 F20:F22 F28:F30 F34:F36 J20:M22 J34:M36 J28:M30 J8:M10 J14:M16" xr:uid="{23AE6323-BC7F-40E9-A5AD-9DE77137CC3B}">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I32" r:id="rId1" display="https://www.aliyundrive.com/s/YijzdWfm18n" xr:uid="{835EB78C-226C-49EA-A62A-94B842F8E249}"/>
-    <hyperlink ref="E35" r:id="rId2" xr:uid="{8F19ACC2-7D7D-4F23-A461-BE431C9774DD}"/>
-    <hyperlink ref="E34" r:id="rId3" xr:uid="{0ACC2286-43BC-446A-8F21-5F74500FA79E}"/>
-    <hyperlink ref="D75" r:id="rId4" xr:uid="{5C54CA99-D324-49ED-A61D-16022DD5224D}"/>
-    <hyperlink ref="D66" r:id="rId5" display="Learning: How to deploy an operating system" xr:uid="{2A775E0C-99A5-4A5C-A40D-64E8EA8CB591}"/>
-    <hyperlink ref="E36" r:id="rId6" xr:uid="{04227A1E-803F-49E4-A483-BEDBB0C9649E}"/>
-    <hyperlink ref="D70" r:id="rId7" xr:uid="{5806D3CF-A4C9-40AA-9CA5-E02AE48C5609}"/>
-    <hyperlink ref="D67" r:id="rId8" xr:uid="{12DEFC6E-F8C1-4742-B234-4FE8338EA338}"/>
-    <hyperlink ref="D72" r:id="rId9" xr:uid="{E0B6390E-CCDA-4FF2-9731-33C80DDEB364}"/>
-    <hyperlink ref="D39" r:id="rId10" display="After downloading the template file Yi.Engine.Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:" xr:uid="{D9136AB0-4C5D-4ECD-879B-AC512FE35C63}"/>
-    <hyperlink ref="D78:K78" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
-    <hyperlink ref="E61" r:id="rId12" display="ISO = ISO file; .ASC = PGP signature file, which can verify whether it was released by Yi. Learn more at: https://fengyi.tel/pgp" xr:uid="{7EFEEFB5-60BB-4141-8185-A8B70CB17187}"/>
+    <hyperlink ref="I37" r:id="rId1" display="https://www.aliyundrive.com/s/YijzdWfm18n" xr:uid="{835EB78C-226C-49EA-A62A-94B842F8E249}"/>
+    <hyperlink ref="E40" r:id="rId2" xr:uid="{8F19ACC2-7D7D-4F23-A461-BE431C9774DD}"/>
+    <hyperlink ref="E39" r:id="rId3" xr:uid="{0ACC2286-43BC-446A-8F21-5F74500FA79E}"/>
+    <hyperlink ref="D80" r:id="rId4" xr:uid="{5C54CA99-D324-49ED-A61D-16022DD5224D}"/>
+    <hyperlink ref="D71" r:id="rId5" display="Learning: How to deploy an operating system" xr:uid="{2A775E0C-99A5-4A5C-A40D-64E8EA8CB591}"/>
+    <hyperlink ref="E41" r:id="rId6" xr:uid="{04227A1E-803F-49E4-A483-BEDBB0C9649E}"/>
+    <hyperlink ref="D75" r:id="rId7" xr:uid="{5806D3CF-A4C9-40AA-9CA5-E02AE48C5609}"/>
+    <hyperlink ref="D72" r:id="rId8" xr:uid="{12DEFC6E-F8C1-4742-B234-4FE8338EA338}"/>
+    <hyperlink ref="D77" r:id="rId9" xr:uid="{E0B6390E-CCDA-4FF2-9731-33C80DDEB364}"/>
+    <hyperlink ref="D44" r:id="rId10" display="After downloading the template file Yi.Engine.Deploy.Rule.iso, extract it to any drive (for example, to D:\Yi), select the desired version, and then run the download script:" xr:uid="{D9136AB0-4C5D-4ECD-879B-AC512FE35C63}"/>
+    <hyperlink ref="D83:K83" r:id="rId11" display="Windows 10 support will end on October 14, 2025. The monthly security update in October 2025 will be the last update for the last supported version: Microsoft Windows 10 22H2 19045.6456, with 26S1 being the final release version, and no further updates will be provided. Windows 10 release information: https://learn.microsoft.com/en-us/windows/release-health/release-information" xr:uid="{9372EEA5-E315-4589-BF1A-5466C3AC90B2}"/>
+    <hyperlink ref="E66" r:id="rId12" display="ISO = ISO file; .ASC = PGP signature file, which can verify whether it was released by Yi. Learn more at: https://fengyi.tel/pgp" xr:uid="{7EFEEFB5-60BB-4141-8185-A8B70CB17187}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
@@ -5932,7 +6204,7 @@
     <oddFooter>&amp;R&amp;"Aptos Narrow,Regular"&amp;10Page &amp;P | &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="48" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId14"/>
 </worksheet>
@@ -5944,38 +6216,38 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO79"/>
+  <dimension ref="A1:BO84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.61328125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="0.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="0.84375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.61328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="100.61328125" style="10" customWidth="1"/>
-    <col min="6" max="8" width="11.61328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40.61328125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.61328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.61328125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.61328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="0.84375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.61328125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="0.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="0.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="100.6328125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="11.6328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="40.6328125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2.6328125" style="42" customWidth="1"/>
     <col min="16" max="67" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.15234375" style="45" hidden="1"/>
+    <col min="68" max="16384" width="9.1796875" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
@@ -5992,7 +6264,7 @@
       <c r="N2" s="118"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="80.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
       <c r="B3" s="132" t="s">
         <v>25</v>
@@ -6011,26 +6283,26 @@
       <c r="N3" s="132"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="50.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>131</v>
-      </c>
       <c r="F4" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>22</v>
@@ -6042,11 +6314,11 @@
         <v>29</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
@@ -6062,7 +6334,7 @@
       <c r="N5" s="118"/>
       <c r="O5" s="45"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="10"/>
       <c r="D6" s="50" t="s">
@@ -6080,7 +6352,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="45"/>
     </row>
-    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="25"/>
       <c r="C7" s="10"/>
       <c r="D7" s="27"/>
@@ -6095,15 +6367,13 @@
       <c r="N7" s="10"/>
       <c r="O7" s="45"/>
     </row>
-    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8" s="10"/>
       <c r="D8" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>116</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
@@ -6111,10 +6381,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -6129,1092 +6399,905 @@
       <c r="N8" s="10"/>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="101">
-        <v>1</v>
-      </c>
-      <c r="G9" s="101" t="s">
+      <c r="D9" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="101">
-        <v>1</v>
-      </c>
-      <c r="K9" s="101">
-        <v>1</v>
-      </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101">
+      <c r="H9" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10">
         <v>1</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="10"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="45"/>
+      <c r="D10" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="101">
+        <v>1</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="101">
+        <v>1</v>
+      </c>
+      <c r="K10" s="101">
+        <v>1</v>
+      </c>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101">
+        <v>1</v>
+      </c>
       <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
+      <c r="O10" s="45"/>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="25"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="45"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="45"/>
-    </row>
-    <row r="12" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="30"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="D12" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="10"/>
       <c r="O12" s="45"/>
     </row>
-    <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="30"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10">
-        <v>1</v>
-      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
       <c r="N13" s="10"/>
       <c r="O13" s="45"/>
     </row>
-    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="100" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="101">
-        <v>1</v>
-      </c>
-      <c r="G14" s="101" t="s">
+      <c r="D14" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="101">
-        <v>1</v>
-      </c>
-      <c r="K14" s="101">
-        <v>1</v>
-      </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101">
+      <c r="H14" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
         <v>1</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="45"/>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="30"/>
       <c r="C15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
       <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="31"/>
+      <c r="O15" s="45"/>
+    </row>
+    <row r="16" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="30"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="D16" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="101">
+        <v>1</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="101">
+        <v>1</v>
+      </c>
+      <c r="K16" s="101">
+        <v>1</v>
+      </c>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101">
+        <v>1</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="45"/>
     </row>
-    <row r="17" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="30"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="45"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="45"/>
-    </row>
-    <row r="18" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="31"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10">
-        <v>1</v>
-      </c>
+      <c r="D18" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="10"/>
       <c r="O18" s="45"/>
     </row>
-    <row r="19" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="31"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="101">
-        <v>1</v>
-      </c>
-      <c r="G19" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="101">
-        <v>1</v>
-      </c>
-      <c r="K19" s="101">
-        <v>1</v>
-      </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101">
-        <v>1</v>
-      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="10"/>
       <c r="O19" s="45"/>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="31"/>
       <c r="C20" s="10"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="D20" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10">
+        <v>1</v>
+      </c>
       <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="45"/>
-      <c r="B21" s="32"/>
+      <c r="O20" s="45"/>
+    </row>
+    <row r="21" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="31"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="D21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="45"/>
     </row>
-    <row r="22" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="45"/>
-      <c r="B22" s="22"/>
+    <row r="22" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="31"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="D22" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="101">
+        <v>1</v>
+      </c>
+      <c r="G22" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="101">
+        <v>1</v>
+      </c>
+      <c r="K22" s="101">
+        <v>1</v>
+      </c>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101">
+        <v>1</v>
+      </c>
       <c r="N22" s="10"/>
       <c r="O22" s="45"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="32"/>
+    <row r="23" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="31"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="45"/>
-    </row>
-    <row r="24" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="33"/>
+    </row>
+    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="45"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="D24" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="10"/>
       <c r="O24" s="45"/>
     </row>
-    <row r="25" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="32"/>
+    <row r="25" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="45"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J25" s="10">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10">
-        <v>1</v>
-      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="10"/>
       <c r="O25" s="45"/>
     </row>
-    <row r="26" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="100" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="101">
-        <v>1</v>
-      </c>
-      <c r="G26" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="101">
-        <v>1</v>
-      </c>
-      <c r="K26" s="101">
-        <v>1</v>
-      </c>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101">
-        <v>1</v>
-      </c>
+      <c r="D26" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="10"/>
       <c r="O26" s="45"/>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="32"/>
+    <row r="27" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="10"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="45"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
       <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="34"/>
+      <c r="O27" s="45"/>
+    </row>
+    <row r="28" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="32"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="D28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10">
+        <v>1</v>
+      </c>
       <c r="N28" s="10"/>
       <c r="O28" s="45"/>
     </row>
-    <row r="29" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="27"/>
-      <c r="B29" s="35"/>
+    <row r="29" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="32"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
+      <c r="D29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10">
+        <v>1</v>
+      </c>
       <c r="N29" s="10"/>
       <c r="O29" s="45"/>
     </row>
-    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="34"/>
+    <row r="30" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="32"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="D30" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="101">
+        <v>1</v>
+      </c>
+      <c r="G30" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="10">
-        <v>1</v>
-      </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10">
+      <c r="H30" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="101">
+        <v>1</v>
+      </c>
+      <c r="K30" s="101">
+        <v>1</v>
+      </c>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101">
         <v>1</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="45"/>
     </row>
-    <row r="31" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="34"/>
+    <row r="31" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="32"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="101">
-        <v>1</v>
-      </c>
-      <c r="G31" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="101">
-        <v>1</v>
-      </c>
-      <c r="K31" s="101">
-        <v>1</v>
-      </c>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101">
-        <v>1</v>
-      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="45"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="45"/>
-    </row>
-    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+    </row>
+    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="34"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
       <c r="N32" s="10"/>
       <c r="O32" s="45"/>
     </row>
-    <row r="33" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="44"/>
+    <row r="33" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="27"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
       <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="120"/>
-      <c r="D34" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="134"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="97"/>
+      <c r="O33" s="45"/>
+    </row>
+    <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="34"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10">
+        <v>1</v>
+      </c>
       <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="121"/>
-      <c r="D35" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="108"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="107"/>
+      <c r="O34" s="45"/>
+    </row>
+    <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="34"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10">
+        <v>1</v>
+      </c>
       <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="D36" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="136"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="O35" s="45"/>
+    </row>
+    <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="34"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="101">
+        <v>1</v>
+      </c>
+      <c r="G36" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" s="101">
+        <v>1</v>
+      </c>
+      <c r="K36" s="101">
+        <v>1</v>
+      </c>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101">
+        <v>1</v>
+      </c>
       <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="42"/>
+      <c r="O36" s="45"/>
+    </row>
+    <row r="37" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-    </row>
-    <row r="38" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="42"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-    </row>
-    <row r="39" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="42"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-    </row>
-    <row r="40" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="42"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-    </row>
-    <row r="41" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="42"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-    </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N37" s="10"/>
+      <c r="O37" s="45"/>
+    </row>
+    <row r="38" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="120"/>
+      <c r="D39" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="121"/>
+      <c r="D40" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="108"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="41"/>
+      <c r="D41" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="136"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="42"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-    </row>
-    <row r="43" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+    </row>
+    <row r="43" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="42"/>
       <c r="B43" s="57"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-    </row>
-    <row r="44" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D43" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+    </row>
+    <row r="44" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="42"/>
       <c r="B44" s="57"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="66" t="s">
-        <v>51</v>
+      <c r="D44" s="111" t="s">
+        <v>142</v>
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="79"/>
     </row>
-    <row r="45" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
       <c r="B45" s="57"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D45" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+    </row>
+    <row r="46" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42"/>
       <c r="B46" s="57"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D46" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+    </row>
+    <row r="47" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42"/>
       <c r="B47" s="57"/>
       <c r="C47" s="2"/>
       <c r="D47" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:15" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="42"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+    </row>
+    <row r="49" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="42"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="42"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="42"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="42"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
-      <c r="AM49" s="8"/>
-      <c r="AN49" s="8"/>
-      <c r="AO49" s="8"/>
-      <c r="AP49" s="8"/>
-      <c r="AQ49" s="8"/>
-      <c r="AR49" s="8"/>
-      <c r="AS49" s="8"/>
-      <c r="AT49" s="8"/>
-      <c r="AU49" s="8"/>
-      <c r="AV49" s="8"/>
-      <c r="AW49" s="8"/>
-      <c r="AX49" s="8"/>
-      <c r="AY49" s="8"/>
-      <c r="AZ49" s="8"/>
-      <c r="BA49" s="8"/>
-      <c r="BB49" s="8"/>
-      <c r="BC49" s="8"/>
-      <c r="BD49" s="8"/>
-      <c r="BE49" s="8"/>
-      <c r="BF49" s="8"/>
-      <c r="BG49" s="8"/>
-      <c r="BH49" s="8"/>
-      <c r="BI49" s="8"/>
-      <c r="BJ49" s="8"/>
-      <c r="BK49" s="8"/>
-      <c r="BL49" s="8"/>
-      <c r="BM49" s="8"/>
-    </row>
-    <row r="50" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="85"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8"/>
-      <c r="AJ50" s="8"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
-      <c r="AO50" s="8"/>
-      <c r="AP50" s="8"/>
-      <c r="AQ50" s="8"/>
-      <c r="AR50" s="8"/>
-      <c r="AS50" s="8"/>
-      <c r="AT50" s="8"/>
-      <c r="AU50" s="8"/>
-      <c r="AV50" s="8"/>
-      <c r="AW50" s="8"/>
-      <c r="AX50" s="8"/>
-      <c r="AY50" s="8"/>
-      <c r="AZ50" s="8"/>
-      <c r="BA50" s="8"/>
-      <c r="BB50" s="8"/>
-      <c r="BC50" s="8"/>
-      <c r="BD50" s="8"/>
-      <c r="BE50" s="8"/>
-      <c r="BF50" s="8"/>
-      <c r="BG50" s="8"/>
-      <c r="BH50" s="8"/>
-      <c r="BI50" s="8"/>
-      <c r="BJ50" s="8"/>
-      <c r="BK50" s="8"/>
-      <c r="BL50" s="8"/>
-      <c r="BM50" s="8"/>
-    </row>
-    <row r="51" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="85"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8"/>
-      <c r="AJ51" s="8"/>
-      <c r="AK51" s="8"/>
-      <c r="AL51" s="8"/>
-      <c r="AM51" s="8"/>
-      <c r="AN51" s="8"/>
-      <c r="AO51" s="8"/>
-      <c r="AP51" s="8"/>
-      <c r="AQ51" s="8"/>
-      <c r="AR51" s="8"/>
-      <c r="AS51" s="8"/>
-      <c r="AT51" s="8"/>
-      <c r="AU51" s="8"/>
-      <c r="AV51" s="8"/>
-      <c r="AW51" s="8"/>
-      <c r="AX51" s="8"/>
-      <c r="AY51" s="8"/>
-      <c r="AZ51" s="8"/>
-      <c r="BA51" s="8"/>
-      <c r="BB51" s="8"/>
-      <c r="BC51" s="8"/>
-      <c r="BD51" s="8"/>
-      <c r="BE51" s="8"/>
-      <c r="BF51" s="8"/>
-      <c r="BG51" s="8"/>
-      <c r="BH51" s="8"/>
-      <c r="BI51" s="8"/>
-      <c r="BJ51" s="8"/>
-      <c r="BK51" s="8"/>
-      <c r="BL51" s="8"/>
-      <c r="BM51" s="8"/>
-    </row>
-    <row r="52" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="85"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8"/>
-      <c r="AJ52" s="8"/>
-      <c r="AK52" s="8"/>
-      <c r="AL52" s="8"/>
-      <c r="AM52" s="8"/>
-      <c r="AN52" s="8"/>
-      <c r="AO52" s="8"/>
-      <c r="AP52" s="8"/>
-      <c r="AQ52" s="8"/>
-      <c r="AR52" s="8"/>
-      <c r="AS52" s="8"/>
-      <c r="AT52" s="8"/>
-      <c r="AU52" s="8"/>
-      <c r="AV52" s="8"/>
-      <c r="AW52" s="8"/>
-      <c r="AX52" s="8"/>
-      <c r="AY52" s="8"/>
-      <c r="AZ52" s="8"/>
-      <c r="BA52" s="8"/>
-      <c r="BB52" s="8"/>
-      <c r="BC52" s="8"/>
-      <c r="BD52" s="8"/>
-      <c r="BE52" s="8"/>
-      <c r="BF52" s="8"/>
-      <c r="BG52" s="8"/>
-      <c r="BH52" s="8"/>
-      <c r="BI52" s="8"/>
-      <c r="BJ52" s="8"/>
-      <c r="BK52" s="8"/>
-      <c r="BL52" s="8"/>
-      <c r="BM52" s="8"/>
-    </row>
-    <row r="53" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="85"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8"/>
-      <c r="AJ53" s="8"/>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="8"/>
-      <c r="AM53" s="8"/>
-      <c r="AN53" s="8"/>
-      <c r="AO53" s="8"/>
-      <c r="AP53" s="8"/>
-      <c r="AQ53" s="8"/>
-      <c r="AR53" s="8"/>
-      <c r="AS53" s="8"/>
-      <c r="AT53" s="8"/>
-      <c r="AU53" s="8"/>
-      <c r="AV53" s="8"/>
-      <c r="AW53" s="8"/>
-      <c r="AX53" s="8"/>
-      <c r="AY53" s="8"/>
-      <c r="AZ53" s="8"/>
-      <c r="BA53" s="8"/>
-      <c r="BB53" s="8"/>
-      <c r="BC53" s="8"/>
-      <c r="BD53" s="8"/>
-      <c r="BE53" s="8"/>
-      <c r="BF53" s="8"/>
-      <c r="BG53" s="8"/>
-      <c r="BH53" s="8"/>
-      <c r="BI53" s="8"/>
-      <c r="BJ53" s="8"/>
-      <c r="BK53" s="8"/>
-      <c r="BL53" s="8"/>
-      <c r="BM53" s="8"/>
-    </row>
-    <row r="54" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="87"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="85"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="D54" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
@@ -7268,15 +7351,15 @@
       <c r="BL54" s="8"/>
       <c r="BM54" s="8"/>
     </row>
-    <row r="55" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="87"/>
       <c r="C55" s="8"/>
       <c r="D55" s="86" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F55" s="85"/>
       <c r="G55" s="8"/>
@@ -7339,15 +7422,15 @@
       <c r="BL55" s="8"/>
       <c r="BM55" s="8"/>
     </row>
-    <row r="56" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="87"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="90" t="s">
-        <v>74</v>
+      <c r="D56" s="86" t="s">
+        <v>68</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F56" s="85"/>
       <c r="G56" s="8"/>
@@ -7410,24 +7493,24 @@
       <c r="BL56" s="8"/>
       <c r="BM56" s="8"/>
     </row>
-    <row r="57" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="87"/>
       <c r="C57" s="8"/>
       <c r="D57" s="90" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F57" s="85"/>
-      <c r="G57" s="8"/>
+      <c r="G57" s="84"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
@@ -7481,15 +7564,15 @@
       <c r="BL57" s="8"/>
       <c r="BM57" s="8"/>
     </row>
-    <row r="58" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="87"/>
       <c r="C58" s="8"/>
       <c r="D58" s="90" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F58" s="85"/>
       <c r="G58" s="8"/>
@@ -7552,15 +7635,15 @@
       <c r="BL58" s="8"/>
       <c r="BM58" s="8"/>
     </row>
-    <row r="59" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="87"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="90">
-        <v>2026</v>
+      <c r="D59" s="86" t="s">
+        <v>13</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F59" s="85"/>
       <c r="G59" s="8"/>
@@ -7623,15 +7706,15 @@
       <c r="BL59" s="8"/>
       <c r="BM59" s="8"/>
     </row>
-    <row r="60" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="87"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="90" t="s">
-        <v>96</v>
+      <c r="D60" s="86" t="s">
+        <v>72</v>
       </c>
       <c r="E60" s="85" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F60" s="85"/>
       <c r="G60" s="8"/>
@@ -7694,17 +7777,17 @@
       <c r="BL60" s="8"/>
       <c r="BM60" s="8"/>
     </row>
-    <row r="61" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="87"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" s="93"/>
+      <c r="D61" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="85"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -7765,13 +7848,17 @@
       <c r="BL61" s="8"/>
       <c r="BM61" s="8"/>
     </row>
-    <row r="62" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+      <c r="D62" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="85"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -7832,317 +7919,668 @@
       <c r="BL62" s="8"/>
       <c r="BM62" s="8"/>
     </row>
-    <row r="63" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="42"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-    </row>
-    <row r="64" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="42"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="42"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="42"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-    </row>
-    <row r="67" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="42"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="85"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="8"/>
+      <c r="AN63" s="8"/>
+      <c r="AO63" s="8"/>
+      <c r="AP63" s="8"/>
+      <c r="AQ63" s="8"/>
+      <c r="AR63" s="8"/>
+      <c r="AS63" s="8"/>
+      <c r="AT63" s="8"/>
+      <c r="AU63" s="8"/>
+      <c r="AV63" s="8"/>
+      <c r="AW63" s="8"/>
+      <c r="AX63" s="8"/>
+      <c r="AY63" s="8"/>
+      <c r="AZ63" s="8"/>
+      <c r="BA63" s="8"/>
+      <c r="BB63" s="8"/>
+      <c r="BC63" s="8"/>
+      <c r="BD63" s="8"/>
+      <c r="BE63" s="8"/>
+      <c r="BF63" s="8"/>
+      <c r="BG63" s="8"/>
+      <c r="BH63" s="8"/>
+      <c r="BI63" s="8"/>
+      <c r="BJ63" s="8"/>
+      <c r="BK63" s="8"/>
+      <c r="BL63" s="8"/>
+      <c r="BM63" s="8"/>
+    </row>
+    <row r="64" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="90">
+        <v>2026</v>
+      </c>
+      <c r="E64" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="85"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="8"/>
+      <c r="AN64" s="8"/>
+      <c r="AO64" s="8"/>
+      <c r="AP64" s="8"/>
+      <c r="AQ64" s="8"/>
+      <c r="AR64" s="8"/>
+      <c r="AS64" s="8"/>
+      <c r="AT64" s="8"/>
+      <c r="AU64" s="8"/>
+      <c r="AV64" s="8"/>
+      <c r="AW64" s="8"/>
+      <c r="AX64" s="8"/>
+      <c r="AY64" s="8"/>
+      <c r="AZ64" s="8"/>
+      <c r="BA64" s="8"/>
+      <c r="BB64" s="8"/>
+      <c r="BC64" s="8"/>
+      <c r="BD64" s="8"/>
+      <c r="BE64" s="8"/>
+      <c r="BF64" s="8"/>
+      <c r="BG64" s="8"/>
+      <c r="BH64" s="8"/>
+      <c r="BI64" s="8"/>
+      <c r="BJ64" s="8"/>
+      <c r="BK64" s="8"/>
+      <c r="BL64" s="8"/>
+      <c r="BM64" s="8"/>
+    </row>
+    <row r="65" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="85"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="8"/>
+      <c r="AO65" s="8"/>
+      <c r="AP65" s="8"/>
+      <c r="AQ65" s="8"/>
+      <c r="AR65" s="8"/>
+      <c r="AS65" s="8"/>
+      <c r="AT65" s="8"/>
+      <c r="AU65" s="8"/>
+      <c r="AV65" s="8"/>
+      <c r="AW65" s="8"/>
+      <c r="AX65" s="8"/>
+      <c r="AY65" s="8"/>
+      <c r="AZ65" s="8"/>
+      <c r="BA65" s="8"/>
+      <c r="BB65" s="8"/>
+      <c r="BC65" s="8"/>
+      <c r="BD65" s="8"/>
+      <c r="BE65" s="8"/>
+      <c r="BF65" s="8"/>
+      <c r="BG65" s="8"/>
+      <c r="BH65" s="8"/>
+      <c r="BI65" s="8"/>
+      <c r="BJ65" s="8"/>
+      <c r="BK65" s="8"/>
+      <c r="BL65" s="8"/>
+      <c r="BM65" s="8"/>
+    </row>
+    <row r="66" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="93"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="8"/>
+      <c r="AN66" s="8"/>
+      <c r="AO66" s="8"/>
+      <c r="AP66" s="8"/>
+      <c r="AQ66" s="8"/>
+      <c r="AR66" s="8"/>
+      <c r="AS66" s="8"/>
+      <c r="AT66" s="8"/>
+      <c r="AU66" s="8"/>
+      <c r="AV66" s="8"/>
+      <c r="AW66" s="8"/>
+      <c r="AX66" s="8"/>
+      <c r="AY66" s="8"/>
+      <c r="AZ66" s="8"/>
+      <c r="BA66" s="8"/>
+      <c r="BB66" s="8"/>
+      <c r="BC66" s="8"/>
+      <c r="BD66" s="8"/>
+      <c r="BE66" s="8"/>
+      <c r="BF66" s="8"/>
+      <c r="BG66" s="8"/>
+      <c r="BH66" s="8"/>
+      <c r="BI66" s="8"/>
+      <c r="BJ66" s="8"/>
+      <c r="BK66" s="8"/>
+      <c r="BL66" s="8"/>
+      <c r="BM66" s="8"/>
+    </row>
+    <row r="67" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="8"/>
+      <c r="AN67" s="8"/>
+      <c r="AO67" s="8"/>
+      <c r="AP67" s="8"/>
+      <c r="AQ67" s="8"/>
+      <c r="AR67" s="8"/>
+      <c r="AS67" s="8"/>
+      <c r="AT67" s="8"/>
+      <c r="AU67" s="8"/>
+      <c r="AV67" s="8"/>
+      <c r="AW67" s="8"/>
+      <c r="AX67" s="8"/>
+      <c r="AY67" s="8"/>
+      <c r="AZ67" s="8"/>
+      <c r="BA67" s="8"/>
+      <c r="BB67" s="8"/>
+      <c r="BC67" s="8"/>
+      <c r="BD67" s="8"/>
+      <c r="BE67" s="8"/>
+      <c r="BF67" s="8"/>
+      <c r="BG67" s="8"/>
+      <c r="BH67" s="8"/>
+      <c r="BI67" s="8"/>
+      <c r="BJ67" s="8"/>
+      <c r="BK67" s="8"/>
+      <c r="BL67" s="8"/>
+      <c r="BM67" s="8"/>
+    </row>
+    <row r="68" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="42"/>
       <c r="B68" s="57"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D68" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+    </row>
+    <row r="69" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="42"/>
       <c r="B69" s="57"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D69" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="42"/>
       <c r="B70" s="57"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:65" s="10" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D70" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="42"/>
       <c r="B71" s="57"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="72"/>
-    </row>
-    <row r="72" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="31"/>
-      <c r="D72" s="74" t="s">
+      <c r="D71" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+    </row>
+    <row r="72" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="42"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="42"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="42"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="42"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="42"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="72"/>
+    </row>
+    <row r="77" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="31"/>
+      <c r="D77" s="74" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-    </row>
-    <row r="74" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="42"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="52" t="s">
+    <row r="78" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+    </row>
+    <row r="79" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="42"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="116"/>
-      <c r="I74" s="116"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-    </row>
-    <row r="75" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="42"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="75" t="s">
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+    </row>
+    <row r="80" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="42"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-    </row>
-    <row r="76" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="76"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="79"/>
-      <c r="R76" s="79"/>
-      <c r="S76" s="79"/>
-      <c r="T76" s="79"/>
-      <c r="U76" s="79"/>
-      <c r="V76" s="79"/>
-      <c r="W76" s="79"/>
-      <c r="X76" s="79"/>
-      <c r="Y76" s="79"/>
-      <c r="Z76" s="79"/>
-      <c r="AA76" s="79"/>
-      <c r="AB76" s="79"/>
-      <c r="AC76" s="79"/>
-      <c r="AD76" s="79"/>
-      <c r="AE76" s="79"/>
-      <c r="AF76" s="79"/>
-      <c r="AG76" s="79"/>
-      <c r="AH76" s="79"/>
-      <c r="AI76" s="79"/>
-      <c r="AJ76" s="79"/>
-      <c r="AK76" s="79"/>
-      <c r="AL76" s="79"/>
-      <c r="AM76" s="79"/>
-      <c r="AN76" s="79"/>
-      <c r="AO76" s="79"/>
-      <c r="AP76" s="79"/>
-      <c r="AQ76" s="79"/>
-      <c r="AR76" s="79"/>
-      <c r="AS76" s="79"/>
-      <c r="AT76" s="79"/>
-      <c r="AU76" s="79"/>
-      <c r="AV76" s="79"/>
-      <c r="AW76" s="79"/>
-      <c r="AX76" s="79"/>
-      <c r="AY76" s="79"/>
-      <c r="AZ76" s="79"/>
-      <c r="BA76" s="79"/>
-      <c r="BB76" s="79"/>
-      <c r="BC76" s="79"/>
-      <c r="BD76" s="79"/>
-      <c r="BE76" s="79"/>
-      <c r="BF76" s="79"/>
-      <c r="BG76" s="79"/>
-      <c r="BH76" s="79"/>
-      <c r="BI76" s="79"/>
-      <c r="BJ76" s="79"/>
-      <c r="BK76" s="79"/>
-      <c r="BL76" s="79"/>
-      <c r="BM76" s="79"/>
-    </row>
-    <row r="77" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="76"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="94" t="s">
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+    </row>
+    <row r="81" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="76"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="79"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="79"/>
+      <c r="P81" s="79"/>
+      <c r="Q81" s="79"/>
+      <c r="R81" s="79"/>
+      <c r="S81" s="79"/>
+      <c r="T81" s="79"/>
+      <c r="U81" s="79"/>
+      <c r="V81" s="79"/>
+      <c r="W81" s="79"/>
+      <c r="X81" s="79"/>
+      <c r="Y81" s="79"/>
+      <c r="Z81" s="79"/>
+      <c r="AA81" s="79"/>
+      <c r="AB81" s="79"/>
+      <c r="AC81" s="79"/>
+      <c r="AD81" s="79"/>
+      <c r="AE81" s="79"/>
+      <c r="AF81" s="79"/>
+      <c r="AG81" s="79"/>
+      <c r="AH81" s="79"/>
+      <c r="AI81" s="79"/>
+      <c r="AJ81" s="79"/>
+      <c r="AK81" s="79"/>
+      <c r="AL81" s="79"/>
+      <c r="AM81" s="79"/>
+      <c r="AN81" s="79"/>
+      <c r="AO81" s="79"/>
+      <c r="AP81" s="79"/>
+      <c r="AQ81" s="79"/>
+      <c r="AR81" s="79"/>
+      <c r="AS81" s="79"/>
+      <c r="AT81" s="79"/>
+      <c r="AU81" s="79"/>
+      <c r="AV81" s="79"/>
+      <c r="AW81" s="79"/>
+      <c r="AX81" s="79"/>
+      <c r="AY81" s="79"/>
+      <c r="AZ81" s="79"/>
+      <c r="BA81" s="79"/>
+      <c r="BB81" s="79"/>
+      <c r="BC81" s="79"/>
+      <c r="BD81" s="79"/>
+      <c r="BE81" s="79"/>
+      <c r="BF81" s="79"/>
+      <c r="BG81" s="79"/>
+      <c r="BH81" s="79"/>
+      <c r="BI81" s="79"/>
+      <c r="BJ81" s="79"/>
+      <c r="BK81" s="79"/>
+      <c r="BL81" s="79"/>
+      <c r="BM81" s="79"/>
+    </row>
+    <row r="82" spans="1:65" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="76"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="79"/>
+      <c r="O82" s="79"/>
+      <c r="P82" s="79"/>
+      <c r="Q82" s="79"/>
+      <c r="R82" s="79"/>
+      <c r="S82" s="79"/>
+      <c r="T82" s="79"/>
+      <c r="U82" s="79"/>
+      <c r="V82" s="79"/>
+      <c r="W82" s="79"/>
+      <c r="X82" s="79"/>
+      <c r="Y82" s="79"/>
+      <c r="Z82" s="79"/>
+      <c r="AA82" s="79"/>
+      <c r="AB82" s="79"/>
+      <c r="AC82" s="79"/>
+      <c r="AD82" s="79"/>
+      <c r="AE82" s="79"/>
+      <c r="AF82" s="79"/>
+      <c r="AG82" s="79"/>
+      <c r="AH82" s="79"/>
+      <c r="AI82" s="79"/>
+      <c r="AJ82" s="79"/>
+      <c r="AK82" s="79"/>
+      <c r="AL82" s="79"/>
+      <c r="AM82" s="79"/>
+      <c r="AN82" s="79"/>
+      <c r="AO82" s="79"/>
+      <c r="AP82" s="79"/>
+      <c r="AQ82" s="79"/>
+      <c r="AR82" s="79"/>
+      <c r="AS82" s="79"/>
+      <c r="AT82" s="79"/>
+      <c r="AU82" s="79"/>
+      <c r="AV82" s="79"/>
+      <c r="AW82" s="79"/>
+      <c r="AX82" s="79"/>
+      <c r="AY82" s="79"/>
+      <c r="AZ82" s="79"/>
+      <c r="BA82" s="79"/>
+      <c r="BB82" s="79"/>
+      <c r="BC82" s="79"/>
+      <c r="BD82" s="79"/>
+      <c r="BE82" s="79"/>
+      <c r="BF82" s="79"/>
+      <c r="BG82" s="79"/>
+      <c r="BH82" s="79"/>
+      <c r="BI82" s="79"/>
+      <c r="BJ82" s="79"/>
+      <c r="BK82" s="79"/>
+      <c r="BL82" s="79"/>
+      <c r="BM82" s="79"/>
+    </row>
+    <row r="83" spans="1:65" s="10" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="42"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
-      <c r="M77" s="79"/>
-      <c r="N77" s="79"/>
-      <c r="O77" s="79"/>
-      <c r="P77" s="79"/>
-      <c r="Q77" s="79"/>
-      <c r="R77" s="79"/>
-      <c r="S77" s="79"/>
-      <c r="T77" s="79"/>
-      <c r="U77" s="79"/>
-      <c r="V77" s="79"/>
-      <c r="W77" s="79"/>
-      <c r="X77" s="79"/>
-      <c r="Y77" s="79"/>
-      <c r="Z77" s="79"/>
-      <c r="AA77" s="79"/>
-      <c r="AB77" s="79"/>
-      <c r="AC77" s="79"/>
-      <c r="AD77" s="79"/>
-      <c r="AE77" s="79"/>
-      <c r="AF77" s="79"/>
-      <c r="AG77" s="79"/>
-      <c r="AH77" s="79"/>
-      <c r="AI77" s="79"/>
-      <c r="AJ77" s="79"/>
-      <c r="AK77" s="79"/>
-      <c r="AL77" s="79"/>
-      <c r="AM77" s="79"/>
-      <c r="AN77" s="79"/>
-      <c r="AO77" s="79"/>
-      <c r="AP77" s="79"/>
-      <c r="AQ77" s="79"/>
-      <c r="AR77" s="79"/>
-      <c r="AS77" s="79"/>
-      <c r="AT77" s="79"/>
-      <c r="AU77" s="79"/>
-      <c r="AV77" s="79"/>
-      <c r="AW77" s="79"/>
-      <c r="AX77" s="79"/>
-      <c r="AY77" s="79"/>
-      <c r="AZ77" s="79"/>
-      <c r="BA77" s="79"/>
-      <c r="BB77" s="79"/>
-      <c r="BC77" s="79"/>
-      <c r="BD77" s="79"/>
-      <c r="BE77" s="79"/>
-      <c r="BF77" s="79"/>
-      <c r="BG77" s="79"/>
-      <c r="BH77" s="79"/>
-      <c r="BI77" s="79"/>
-      <c r="BJ77" s="79"/>
-      <c r="BK77" s="79"/>
-      <c r="BL77" s="79"/>
-      <c r="BM77" s="79"/>
-    </row>
-    <row r="78" spans="1:65" s="10" customFormat="1" ht="65.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="42"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="133"/>
-      <c r="F78" s="133"/>
-      <c r="G78" s="133"/>
-      <c r="H78" s="133"/>
-      <c r="I78" s="133"/>
-      <c r="J78" s="133"/>
-      <c r="K78" s="133"/>
-      <c r="L78" s="133"/>
-      <c r="M78" s="133"/>
-    </row>
-    <row r="79" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D79" s="42"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="M79" s="42"/>
+      <c r="E83" s="133"/>
+      <c r="F83" s="133"/>
+      <c r="G83" s="133"/>
+      <c r="H83" s="133"/>
+      <c r="I83" s="133"/>
+      <c r="J83" s="133"/>
+      <c r="K83" s="133"/>
+      <c r="L83" s="133"/>
+      <c r="M83" s="133"/>
+    </row>
+    <row r="84" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D84" s="42"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="M84" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="9">
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="F8:F9 F13:F14 F18:F19 F25:F26 F30:F31">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="F8:F10 F14:F16 F20:F22 F28:F30 F34:F36">
+    <cfRule type="iconSet" priority="6">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -8150,8 +8588,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K9 J13:K14 J18:K19 J25:K26 J30:K31">
-    <cfRule type="iconSet" priority="433">
+  <conditionalFormatting sqref="J14:K14">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -8159,8 +8597,44 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9 M13:M14 M18:M19 M25:M26 M30:M31">
+  <conditionalFormatting sqref="J15:K16 J21:K22 J29:K30 J35:K36 J8:K10">
+    <cfRule type="iconSet" priority="437">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:K20">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:K28">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:K34">
     <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M10 M14:M16 M20:M22 M28:M30 M34:M36">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -8169,31 +8643,31 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F9 F13:F14 F18:F19 F25:F26 F30:F31 J18:M19 J30:M31 J8:M9 J13:M14 J25:M26" xr:uid="{52D4EF48-41FD-4442-B400-959EC5964D13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F16 F20:F22 F28:F30 F34:F36 J20:M22 J34:M36 J28:M30 J14:M16 J8:M10 F8:F10" xr:uid="{52D4EF48-41FD-4442-B400-959EC5964D13}">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D66" r:id="rId1" display="学习：如何部署操作系统 ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )" xr:uid="{C53701FD-8E13-434C-BBC8-35A383E9B75A}"/>
-    <hyperlink ref="E35" r:id="rId2" xr:uid="{E28BD83B-2CEA-4FED-8AD4-DC8EF9A6916E}"/>
-    <hyperlink ref="E34" r:id="rId3" xr:uid="{FAE67BA9-7926-4782-B6B9-ECFF80F48597}"/>
-    <hyperlink ref="D75" r:id="rId4" xr:uid="{46F8BD22-A195-4763-A670-A347CB35058C}"/>
-    <hyperlink ref="E36" r:id="rId5" xr:uid="{9906D963-5C09-437F-A43D-E9CA4489C59F}"/>
-    <hyperlink ref="D70" r:id="rId6" xr:uid="{E76059EB-9255-4EDF-B774-ABA65BA1FECF}"/>
-    <hyperlink ref="D67" r:id="rId7" xr:uid="{F103FCC3-91BB-4DE4-901B-4B0ACC7F0301}"/>
-    <hyperlink ref="D72" r:id="rId8" xr:uid="{C1B02168-BA3E-4A94-B487-CCE274EBB4FE}"/>
-    <hyperlink ref="D39" r:id="rId9" display="下载模板 Yi.Engine.Deploy.Rule.iso 后，解压到任意磁盘，示例解压到：D:\Yi，选择版本后运行下载脚本：" xr:uid="{BA44C632-35EC-47DB-ACA8-5B4B8027B8FC}"/>
-    <hyperlink ref="D78:K78" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
-    <hyperlink ref="E61" r:id="rId11" display="ISO = ISO 文件；.ASC = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：https://fengyi.tel/pgp" xr:uid="{705BB231-D14B-4790-B5E3-1098377CC6B8}"/>
+    <hyperlink ref="D71" r:id="rId1" display="学习：如何部署操作系统 ( https://github.com/ilikeyi/Solutions/tree/main/_Learn/Deploy )" xr:uid="{C53701FD-8E13-434C-BBC8-35A383E9B75A}"/>
+    <hyperlink ref="E40" r:id="rId2" xr:uid="{E28BD83B-2CEA-4FED-8AD4-DC8EF9A6916E}"/>
+    <hyperlink ref="E39" r:id="rId3" xr:uid="{FAE67BA9-7926-4782-B6B9-ECFF80F48597}"/>
+    <hyperlink ref="D80" r:id="rId4" xr:uid="{46F8BD22-A195-4763-A670-A347CB35058C}"/>
+    <hyperlink ref="E41" r:id="rId5" xr:uid="{9906D963-5C09-437F-A43D-E9CA4489C59F}"/>
+    <hyperlink ref="D75" r:id="rId6" xr:uid="{E76059EB-9255-4EDF-B774-ABA65BA1FECF}"/>
+    <hyperlink ref="D72" r:id="rId7" xr:uid="{F103FCC3-91BB-4DE4-901B-4B0ACC7F0301}"/>
+    <hyperlink ref="D77" r:id="rId8" xr:uid="{C1B02168-BA3E-4A94-B487-CCE274EBB4FE}"/>
+    <hyperlink ref="D44" r:id="rId9" display="下载模板 Yi.Engine.Deploy.Rule.iso 后，解压到任意磁盘，示例解压到：D:\Yi，选择版本后运行下载脚本：" xr:uid="{BA44C632-35EC-47DB-ACA8-5B4B8027B8FC}"/>
+    <hyperlink ref="D83:K83" r:id="rId10" display="https://learn.microsoft.com/zh-cn/windows/release-health/release-information" xr:uid="{67B89B31-98B6-444A-AC60-B23489449CD7}"/>
+    <hyperlink ref="E66" r:id="rId11" display="ISO = ISO 文件；.ASC = PGP 签名文件，可验证是否由 Yi 发布的，前往学习：https://fengyi.tel/pgp" xr:uid="{705BB231-D14B-4790-B5E3-1098377CC6B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0.3" footer="0.5"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="8" scale="52" fitToHeight="0" orientation="portrait" r:id="rId12"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;R&amp;"Microsoft YaHei,Regular"&amp;10页 &amp;P | &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="48" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId13"/>
 </worksheet>
